--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_3.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_3.xlsx
@@ -688,10 +688,10 @@
     <t>اوكسى يدوى نسيم الشرق (8 كيس) - 500 جم</t>
   </si>
   <si>
-    <t>اوكسي يدوي نسيم الربيع ( 8 كيس ) - 500 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى لافندر - 500 جم</t>
+    <t>اوكسي يدوي نسيم الربيع ( 8 كيس ) -Delisted 500 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر -Delisted 500 جم</t>
   </si>
   <si>
     <t>اوكسى جل يدوى نسيم الربيع - 290 جم</t>
@@ -886,7 +886,7 @@
     <t>مولتو ماجنم ميكس تشيز كيك فراولة و كريمة - 15 جنية</t>
   </si>
   <si>
-    <t>مولتو ماجنم فراولة - 15 جنية</t>
+    <t>مولتو ماجنم تشيز كيك الفراولة - 15 جنية</t>
   </si>
   <si>
     <t>مولتو ميني ماجنم شوكولاتة و بندق - 15 جنية</t>
@@ -1090,7 +1090,7 @@
     <t>فن داى استكس زيتون - 40 جم</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الربيع 15 جنيه - 175 جم</t>
+    <t>اوكسى يدوى نسيم الربيع 15 جنيه -Delisted 175 جم</t>
   </si>
   <si>
     <t>ريحانة عرض (كيس ارز 1كجم+ زيت عباد الشمس 800 مل ) - 1800 جرام</t>
@@ -2143,7 +2143,7 @@
     <t>بيك رولز بيتزا -حجم عائلي 15 جنية</t>
   </si>
   <si>
-    <t>بيك رولز ناتشو -حجم عائلي 15 جنية</t>
+    <t>بيك رولز طعم الجبنه الناتشو حجم عائلي - 15 جنية</t>
   </si>
   <si>
     <t>فرسكا شوكو بار شكولاته بيضاء بار حلاوة مغطي بالشكولاته البيضاء 24 قطعه</t>
@@ -5029,7 +5029,7 @@
     <t>ويفز ويفر محشو  بكريمة الشوكولاتة مغطى بالشوكولاتة البيضاء علبة 10 جنيه - 6 قطعه</t>
   </si>
   <si>
-    <t>فينجرز شيكولاتة - 5 جنية</t>
+    <t>نوفى فينجرز أصابع البسكويت مغطاه بشيكولاتة الحليب - 5 جنية</t>
   </si>
   <si>
     <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
@@ -5920,7 +5920,7 @@
     <t>بيج شيبس ليمون حلو - 15 جنية</t>
   </si>
   <si>
-    <t>بيج شيبس جبنة متبلة - 15 جنية</t>
+    <t>بيج شيبس جبنة متبلة 15% زيادة - 15 جنية</t>
   </si>
   <si>
     <t>يج شيبس كباب مشوى- 15 جنية</t>
@@ -5929,7 +5929,7 @@
     <t>بيج شيبس شطه حلوه - 15 جنية</t>
   </si>
   <si>
-    <t>بيج شيبس خل وملح - 15 جنية</t>
+    <t>بيج شيبس خل وملح 15% زيادة - 15 جنية</t>
   </si>
   <si>
     <t>بيج شيبس كفتة بالطحينة - 10 جنية</t>
@@ -7025,7 +7025,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>318.64875</v>
+        <v>312.4107198732943</v>
       </c>
       <c r="E6" t="s">
         <v>2181</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>657</v>
+        <v>657.25</v>
       </c>
       <c r="E30" t="s">
         <v>2181</v>
@@ -7535,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>52.75</v>
+        <v>52.55384908659109</v>
       </c>
       <c r="E36" t="s">
         <v>2180</v>
@@ -7552,7 +7552,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>1055</v>
+        <v>1051.076981731822</v>
       </c>
       <c r="E37" t="s">
         <v>2181</v>
@@ -7790,7 +7790,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>59.75651224178903</v>
+        <v>59.7</v>
       </c>
       <c r="E51" t="s">
         <v>2180</v>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>478.0520979343123</v>
+        <v>477.6</v>
       </c>
       <c r="E52" t="s">
         <v>2181</v>
@@ -9201,7 +9201,7 @@
         <v>10</v>
       </c>
       <c r="D134">
-        <v>19.15375</v>
+        <v>19.029375</v>
       </c>
       <c r="E134" t="s">
         <v>2180</v>
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>383.075</v>
+        <v>380.5875</v>
       </c>
       <c r="E135" t="s">
         <v>2181</v>
@@ -10085,7 +10085,7 @@
         <v>3</v>
       </c>
       <c r="D186">
-        <v>190.75</v>
+        <v>192.5</v>
       </c>
       <c r="E186" t="s">
         <v>2180</v>
@@ -10102,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2289</v>
+        <v>2310</v>
       </c>
       <c r="E187" t="s">
         <v>2181</v>
@@ -10272,7 +10272,7 @@
         <v>29</v>
       </c>
       <c r="D197">
-        <v>312.75</v>
+        <v>311</v>
       </c>
       <c r="E197" t="s">
         <v>2181</v>
@@ -10425,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>301.8170004749505</v>
+        <v>301.4576032999748</v>
       </c>
       <c r="E206" t="s">
         <v>2181</v>
@@ -10459,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>348</v>
+        <v>347.5</v>
       </c>
       <c r="E208" t="s">
         <v>2181</v>
@@ -10476,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E209" t="s">
         <v>2181</v>
@@ -10833,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>63.14759612453334</v>
+        <v>62.49823083545076</v>
       </c>
       <c r="E230" t="s">
         <v>2181</v>
@@ -10952,7 +10952,7 @@
         <v>2</v>
       </c>
       <c r="D237">
-        <v>95.5</v>
+        <v>95.25</v>
       </c>
       <c r="E237" t="s">
         <v>2180</v>
@@ -10969,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E238" t="s">
         <v>2181</v>
@@ -11496,7 +11496,7 @@
         <v>3</v>
       </c>
       <c r="D269">
-        <v>95.05036080815785</v>
+        <v>95.06304195865494</v>
       </c>
       <c r="E269" t="s">
         <v>2180</v>
@@ -11513,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>570.3021648489471</v>
+        <v>570.3782517519296</v>
       </c>
       <c r="E270" t="s">
         <v>2181</v>
@@ -11530,7 +11530,7 @@
         <v>3</v>
       </c>
       <c r="D271">
-        <v>94.7329273532247</v>
+        <v>94.63945588270504</v>
       </c>
       <c r="E271" t="s">
         <v>2180</v>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>568.3975641193482</v>
+        <v>567.8367352962302</v>
       </c>
       <c r="E272" t="s">
         <v>2181</v>
@@ -11564,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="D273">
-        <v>23.89340168626913</v>
+        <v>23.68022308702141</v>
       </c>
       <c r="E273" t="s">
         <v>2180</v>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>286.7208202352296</v>
+        <v>284.1626770442569</v>
       </c>
       <c r="E274" t="s">
         <v>2181</v>
@@ -11615,7 +11615,7 @@
         <v>3</v>
       </c>
       <c r="D276">
-        <v>23.87671843919246</v>
+        <v>23.66674835699986</v>
       </c>
       <c r="E276" t="s">
         <v>2180</v>
@@ -11632,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>286.5206212703095</v>
+        <v>284.0009802839983</v>
       </c>
       <c r="E277" t="s">
         <v>2181</v>
@@ -12040,7 +12040,7 @@
         <v>2</v>
       </c>
       <c r="D301">
-        <v>501.75</v>
+        <v>501</v>
       </c>
       <c r="E301" t="s">
         <v>2181</v>
@@ -12057,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="D302">
-        <v>501.75</v>
+        <v>501</v>
       </c>
       <c r="E302" t="s">
         <v>2181</v>
@@ -12244,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="E313" t="s">
         <v>2181</v>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>178.25</v>
+        <v>178.75</v>
       </c>
       <c r="E315" t="s">
         <v>2181</v>
@@ -12822,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>122.5</v>
+        <v>122.75</v>
       </c>
       <c r="E347" t="s">
         <v>2181</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>95.25</v>
+        <v>97.5</v>
       </c>
       <c r="E348" t="s">
         <v>2181</v>
@@ -12856,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>122.25</v>
+        <v>125.75</v>
       </c>
       <c r="E349" t="s">
         <v>2181</v>
@@ -13264,7 +13264,7 @@
         <v>2</v>
       </c>
       <c r="D373">
-        <v>110</v>
+        <v>110.25</v>
       </c>
       <c r="E373" t="s">
         <v>2181</v>
@@ -13298,7 +13298,7 @@
         <v>2</v>
       </c>
       <c r="D375">
-        <v>110.3861251242565</v>
+        <v>110.3885981474734</v>
       </c>
       <c r="E375" t="s">
         <v>2181</v>
@@ -13978,7 +13978,7 @@
         <v>3</v>
       </c>
       <c r="D415">
-        <v>41.25</v>
+        <v>40.75</v>
       </c>
       <c r="E415" t="s">
         <v>2180</v>
@@ -13995,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="D416">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E416" t="s">
         <v>2181</v>
@@ -14488,7 +14488,7 @@
         <v>332</v>
       </c>
       <c r="D445">
-        <v>69.5</v>
+        <v>69.75</v>
       </c>
       <c r="E445" t="s">
         <v>2180</v>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="D446">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="E446" t="s">
         <v>2181</v>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="D467">
-        <v>195.9940831712865</v>
+        <v>195.9940831712864</v>
       </c>
       <c r="E467" t="s">
         <v>2181</v>
@@ -15151,7 +15151,7 @@
         <v>2</v>
       </c>
       <c r="D484">
-        <v>206.0031576730008</v>
+        <v>206.0142823616124</v>
       </c>
       <c r="E484" t="s">
         <v>2181</v>
@@ -15287,7 +15287,7 @@
         <v>3</v>
       </c>
       <c r="D492">
-        <v>47.25</v>
+        <v>47.75</v>
       </c>
       <c r="E492" t="s">
         <v>2180</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E493" t="s">
         <v>2181</v>
@@ -15321,7 +15321,7 @@
         <v>3</v>
       </c>
       <c r="D494">
-        <v>47.25</v>
+        <v>47.75</v>
       </c>
       <c r="E494" t="s">
         <v>2180</v>
@@ -15338,7 +15338,7 @@
         <v>1</v>
       </c>
       <c r="D495">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E495" t="s">
         <v>2181</v>
@@ -15389,7 +15389,7 @@
         <v>3</v>
       </c>
       <c r="D498">
-        <v>47.5</v>
+        <v>47.75</v>
       </c>
       <c r="E498" t="s">
         <v>2180</v>
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="D499">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E499" t="s">
         <v>2181</v>
@@ -15933,7 +15933,7 @@
         <v>7</v>
       </c>
       <c r="D530">
-        <v>17.34427001569859</v>
+        <v>17.34424050707617</v>
       </c>
       <c r="E530" t="s">
         <v>2180</v>
@@ -15950,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="D531">
-        <v>173.4427001569859</v>
+        <v>173.4424050707617</v>
       </c>
       <c r="E531" t="s">
         <v>2181</v>
@@ -16375,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="D556">
-        <v>100.25</v>
+        <v>99.25</v>
       </c>
       <c r="E556" t="s">
         <v>2181</v>
@@ -16392,7 +16392,7 @@
         <v>2</v>
       </c>
       <c r="D557">
-        <v>100.5</v>
+        <v>99.75</v>
       </c>
       <c r="E557" t="s">
         <v>2181</v>
@@ -16443,7 +16443,7 @@
         <v>2</v>
       </c>
       <c r="D560">
-        <v>102.5229068477935</v>
+        <v>101.6586625342856</v>
       </c>
       <c r="E560" t="s">
         <v>2181</v>
@@ -16460,7 +16460,7 @@
         <v>2</v>
       </c>
       <c r="D561">
-        <v>102.471904071755</v>
+        <v>101.6085158067762</v>
       </c>
       <c r="E561" t="s">
         <v>2181</v>
@@ -16494,7 +16494,7 @@
         <v>2</v>
       </c>
       <c r="D563">
-        <v>102.5179979123619</v>
+        <v>101.9801863066672</v>
       </c>
       <c r="E563" t="s">
         <v>2181</v>
@@ -16511,7 +16511,7 @@
         <v>2</v>
       </c>
       <c r="D564">
-        <v>102.4552299067306</v>
+        <v>101.4828523442709</v>
       </c>
       <c r="E564" t="s">
         <v>2181</v>
@@ -16800,7 +16800,7 @@
         <v>2</v>
       </c>
       <c r="D581">
-        <v>50.75</v>
+        <v>51.5</v>
       </c>
       <c r="E581" t="s">
         <v>2181</v>
@@ -16834,7 +16834,7 @@
         <v>3</v>
       </c>
       <c r="D583">
-        <v>98.13187499999999</v>
+        <v>101.020109634674</v>
       </c>
       <c r="E583" t="s">
         <v>2180</v>
@@ -16851,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="D584">
-        <v>1570.11</v>
+        <v>1616.321754154784</v>
       </c>
       <c r="E584" t="s">
         <v>2181</v>
@@ -16868,7 +16868,7 @@
         <v>3</v>
       </c>
       <c r="D585">
-        <v>97.88312499999999</v>
+        <v>98.505</v>
       </c>
       <c r="E585" t="s">
         <v>2180</v>
@@ -16885,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="D586">
-        <v>1566.13</v>
+        <v>1576.08</v>
       </c>
       <c r="E586" t="s">
         <v>2181</v>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="D623">
-        <v>381.4266170468187</v>
+        <v>381.351813345563</v>
       </c>
       <c r="E623" t="s">
         <v>2181</v>
@@ -18211,7 +18211,7 @@
         <v>3</v>
       </c>
       <c r="D664">
-        <v>28.25</v>
+        <v>28</v>
       </c>
       <c r="E664" t="s">
         <v>2180</v>
@@ -18228,7 +18228,7 @@
         <v>1</v>
       </c>
       <c r="D665">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="E665" t="s">
         <v>2181</v>
@@ -18313,7 +18313,7 @@
         <v>2</v>
       </c>
       <c r="D670">
-        <v>265</v>
+        <v>263.5</v>
       </c>
       <c r="E670" t="s">
         <v>2181</v>
@@ -18738,7 +18738,7 @@
         <v>3</v>
       </c>
       <c r="D695">
-        <v>209.8246945569301</v>
+        <v>207.2296831485098</v>
       </c>
       <c r="E695" t="s">
         <v>2180</v>
@@ -18755,7 +18755,7 @@
         <v>1</v>
       </c>
       <c r="D696">
-        <v>839.2987782277205</v>
+        <v>828.9187325940393</v>
       </c>
       <c r="E696" t="s">
         <v>2181</v>
@@ -18772,7 +18772,7 @@
         <v>3</v>
       </c>
       <c r="D697">
-        <v>205.8173170650162</v>
+        <v>202.720449188961</v>
       </c>
       <c r="E697" t="s">
         <v>2180</v>
@@ -18789,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="D698">
-        <v>823.2692682600649</v>
+        <v>810.8817967558439</v>
       </c>
       <c r="E698" t="s">
         <v>2181</v>
@@ -19384,7 +19384,7 @@
         <v>2</v>
       </c>
       <c r="D733">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E733" t="s">
         <v>2181</v>
@@ -19401,7 +19401,7 @@
         <v>2</v>
       </c>
       <c r="D734">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E734" t="s">
         <v>2181</v>
@@ -21781,7 +21781,7 @@
         <v>1</v>
       </c>
       <c r="D874">
-        <v>93.25</v>
+        <v>92</v>
       </c>
       <c r="E874" t="s">
         <v>2181</v>
@@ -23566,7 +23566,7 @@
         <v>3</v>
       </c>
       <c r="D979">
-        <v>48.51794370348863</v>
+        <v>48.51794370348862</v>
       </c>
       <c r="E979" t="s">
         <v>2180</v>
@@ -23583,7 +23583,7 @@
         <v>1</v>
       </c>
       <c r="D980">
-        <v>485.1794370348863</v>
+        <v>485.1794370348862</v>
       </c>
       <c r="E980" t="s">
         <v>2181</v>
@@ -23838,7 +23838,7 @@
         <v>1</v>
       </c>
       <c r="D995">
-        <v>669.5</v>
+        <v>664.5</v>
       </c>
       <c r="E995" t="s">
         <v>2181</v>
@@ -24569,7 +24569,7 @@
         <v>1</v>
       </c>
       <c r="D1038">
-        <v>142.0033636137849</v>
+        <v>142.2734732726899</v>
       </c>
       <c r="E1038" t="s">
         <v>2181</v>
@@ -25419,7 +25419,7 @@
         <v>1</v>
       </c>
       <c r="D1088">
-        <v>283.948125</v>
+        <v>285.7183945219712</v>
       </c>
       <c r="E1088" t="s">
         <v>2181</v>
@@ -25487,7 +25487,7 @@
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>301.23625</v>
+        <v>299.495</v>
       </c>
       <c r="E1092" t="s">
         <v>2181</v>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="D1126">
-        <v>345.424388166122</v>
+        <v>345.4243881661218</v>
       </c>
       <c r="E1126" t="s">
         <v>2181</v>
@@ -26864,7 +26864,7 @@
         <v>2</v>
       </c>
       <c r="D1173">
-        <v>101.8680023245688</v>
+        <v>101.9247504854812</v>
       </c>
       <c r="E1173" t="s">
         <v>2181</v>
@@ -26881,7 +26881,7 @@
         <v>2</v>
       </c>
       <c r="D1174">
-        <v>102.1894265428045</v>
+        <v>102.1915706648427</v>
       </c>
       <c r="E1174" t="s">
         <v>2181</v>
@@ -28054,7 +28054,7 @@
         <v>1</v>
       </c>
       <c r="D1243">
-        <v>51.25</v>
+        <v>51.22100890730223</v>
       </c>
       <c r="E1243" t="s">
         <v>2181</v>
@@ -28088,7 +28088,7 @@
         <v>1</v>
       </c>
       <c r="D1245">
-        <v>50.20645232964646</v>
+        <v>50.23946639451815</v>
       </c>
       <c r="E1245" t="s">
         <v>2181</v>
@@ -28156,7 +28156,7 @@
         <v>1</v>
       </c>
       <c r="D1249">
-        <v>51.65475588954047</v>
+        <v>51.68170822907134</v>
       </c>
       <c r="E1249" t="s">
         <v>2181</v>
@@ -28241,7 +28241,7 @@
         <v>1</v>
       </c>
       <c r="D1254">
-        <v>50.95402235970489</v>
+        <v>50.8536666505531</v>
       </c>
       <c r="E1254" t="s">
         <v>2181</v>
@@ -28326,7 +28326,7 @@
         <v>1</v>
       </c>
       <c r="D1259">
-        <v>51.66830129381781</v>
+        <v>51.68756480856165</v>
       </c>
       <c r="E1259" t="s">
         <v>2181</v>
@@ -28377,7 +28377,7 @@
         <v>1</v>
       </c>
       <c r="D1262">
-        <v>51.74769825890066</v>
+        <v>51.75005917759179</v>
       </c>
       <c r="E1262" t="s">
         <v>2181</v>
@@ -28394,7 +28394,7 @@
         <v>1</v>
       </c>
       <c r="D1263">
-        <v>51.69035718882269</v>
+        <v>51.72156079287404</v>
       </c>
       <c r="E1263" t="s">
         <v>2181</v>
@@ -28411,7 +28411,7 @@
         <v>1</v>
       </c>
       <c r="D1264">
-        <v>51.56487062059344</v>
+        <v>51.62750187937075</v>
       </c>
       <c r="E1264" t="s">
         <v>2181</v>
@@ -28513,7 +28513,7 @@
         <v>1</v>
       </c>
       <c r="D1270">
-        <v>85.54608884096616</v>
+        <v>85.54613197080681</v>
       </c>
       <c r="E1270" t="s">
         <v>2181</v>
@@ -28547,7 +28547,7 @@
         <v>1</v>
       </c>
       <c r="D1272">
-        <v>85.55033551202727</v>
+        <v>85.5503414454095</v>
       </c>
       <c r="E1272" t="s">
         <v>2181</v>
@@ -28564,7 +28564,7 @@
         <v>1</v>
       </c>
       <c r="D1273">
-        <v>82.79934865133521</v>
+        <v>83.44262075418786</v>
       </c>
       <c r="E1273" t="s">
         <v>2181</v>
@@ -28581,7 +28581,7 @@
         <v>1</v>
       </c>
       <c r="D1274">
-        <v>85.55035871924167</v>
+        <v>85.55037190698393</v>
       </c>
       <c r="E1274" t="s">
         <v>2181</v>
@@ -28632,7 +28632,7 @@
         <v>1</v>
       </c>
       <c r="D1277">
-        <v>84.17619932207162</v>
+        <v>84.17621333189112</v>
       </c>
       <c r="E1277" t="s">
         <v>2181</v>
@@ -28700,7 +28700,7 @@
         <v>1</v>
       </c>
       <c r="D1281">
-        <v>85.5482569973546</v>
+        <v>85.54841523050062</v>
       </c>
       <c r="E1281" t="s">
         <v>2181</v>
@@ -28717,7 +28717,7 @@
         <v>1</v>
       </c>
       <c r="D1282">
-        <v>82.79934865133521</v>
+        <v>83.44262075418786</v>
       </c>
       <c r="E1282" t="s">
         <v>2181</v>
@@ -28853,7 +28853,7 @@
         <v>3</v>
       </c>
       <c r="D1290">
-        <v>96.20093253523949</v>
+        <v>96.20617776993808</v>
       </c>
       <c r="E1290" t="s">
         <v>2180</v>
@@ -28870,7 +28870,7 @@
         <v>1</v>
       </c>
       <c r="D1291">
-        <v>1154.411190422874</v>
+        <v>1154.474133239257</v>
       </c>
       <c r="E1291" t="s">
         <v>2181</v>
@@ -28887,7 +28887,7 @@
         <v>3</v>
       </c>
       <c r="D1292">
-        <v>97.29457771474446</v>
+        <v>97.29457771474445</v>
       </c>
       <c r="E1292" t="s">
         <v>2180</v>
@@ -28921,7 +28921,7 @@
         <v>3</v>
       </c>
       <c r="D1294">
-        <v>96.19784219440822</v>
+        <v>96.19784219440821</v>
       </c>
       <c r="E1294" t="s">
         <v>2180</v>
@@ -28938,7 +28938,7 @@
         <v>1</v>
       </c>
       <c r="D1295">
-        <v>1154.374106332899</v>
+        <v>1154.374106332898</v>
       </c>
       <c r="E1295" t="s">
         <v>2181</v>
@@ -28989,7 +28989,7 @@
         <v>3</v>
       </c>
       <c r="D1298">
-        <v>97.29457771474446</v>
+        <v>97.29457771474445</v>
       </c>
       <c r="E1298" t="s">
         <v>2180</v>
@@ -29363,7 +29363,7 @@
         <v>3</v>
       </c>
       <c r="D1320">
-        <v>71.75</v>
+        <v>71.5</v>
       </c>
       <c r="E1320" t="s">
         <v>2180</v>
@@ -29380,7 +29380,7 @@
         <v>1</v>
       </c>
       <c r="D1321">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E1321" t="s">
         <v>2181</v>
@@ -30111,7 +30111,7 @@
         <v>3</v>
       </c>
       <c r="D1364">
-        <v>73.5</v>
+        <v>74.25</v>
       </c>
       <c r="E1364" t="s">
         <v>2180</v>
@@ -30128,7 +30128,7 @@
         <v>1</v>
       </c>
       <c r="D1365">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="E1365" t="s">
         <v>2181</v>
@@ -31284,7 +31284,7 @@
         <v>3</v>
       </c>
       <c r="D1433">
-        <v>23.6430289273349</v>
+        <v>23.6430289982225</v>
       </c>
       <c r="E1433" t="s">
         <v>2180</v>
@@ -31301,7 +31301,7 @@
         <v>1</v>
       </c>
       <c r="D1434">
-        <v>283.7163471280188</v>
+        <v>283.71634797867</v>
       </c>
       <c r="E1434" t="s">
         <v>2181</v>
@@ -31318,7 +31318,7 @@
         <v>3</v>
       </c>
       <c r="D1435">
-        <v>23.64299289691812</v>
+        <v>23.64300139893225</v>
       </c>
       <c r="E1435" t="s">
         <v>2180</v>
@@ -31335,7 +31335,7 @@
         <v>1</v>
       </c>
       <c r="D1436">
-        <v>283.7159147630175</v>
+        <v>283.716016787187</v>
       </c>
       <c r="E1436" t="s">
         <v>2181</v>
@@ -32661,7 +32661,7 @@
         <v>3</v>
       </c>
       <c r="D1514">
-        <v>23.89026398116462</v>
+        <v>23.78517540332872</v>
       </c>
       <c r="E1514" t="s">
         <v>2180</v>
@@ -32678,7 +32678,7 @@
         <v>1</v>
       </c>
       <c r="D1515">
-        <v>286.6831677739754</v>
+        <v>285.4221048399447</v>
       </c>
       <c r="E1515" t="s">
         <v>2181</v>
@@ -32695,7 +32695,7 @@
         <v>3</v>
       </c>
       <c r="D1516">
-        <v>46.25</v>
+        <v>45.75</v>
       </c>
       <c r="E1516" t="s">
         <v>2180</v>
@@ -32712,7 +32712,7 @@
         <v>1</v>
       </c>
       <c r="D1517">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E1517" t="s">
         <v>2181</v>
@@ -32916,7 +32916,7 @@
         <v>431</v>
       </c>
       <c r="D1529">
-        <v>33.25</v>
+        <v>33.5</v>
       </c>
       <c r="E1529" t="s">
         <v>2180</v>
@@ -32933,7 +32933,7 @@
         <v>2</v>
       </c>
       <c r="D1530">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E1530" t="s">
         <v>2181</v>
@@ -33035,7 +33035,7 @@
         <v>1</v>
       </c>
       <c r="D1536">
-        <v>91.3339315761006</v>
+        <v>90.89831409777345</v>
       </c>
       <c r="E1536" t="s">
         <v>2181</v>
@@ -33069,7 +33069,7 @@
         <v>1</v>
       </c>
       <c r="D1538">
-        <v>91.44023970875783</v>
+        <v>91.33219711864767</v>
       </c>
       <c r="E1538" t="s">
         <v>2181</v>
@@ -33086,7 +33086,7 @@
         <v>1</v>
       </c>
       <c r="D1539">
-        <v>91.45116221769433</v>
+        <v>90.57696200154123</v>
       </c>
       <c r="E1539" t="s">
         <v>2181</v>
@@ -33103,7 +33103,7 @@
         <v>1</v>
       </c>
       <c r="D1540">
-        <v>91.97422325115632</v>
+        <v>91.2226681270878</v>
       </c>
       <c r="E1540" t="s">
         <v>2181</v>
@@ -33137,7 +33137,7 @@
         <v>1</v>
       </c>
       <c r="D1542">
-        <v>135.0221570087936</v>
+        <v>135.1279367638591</v>
       </c>
       <c r="E1542" t="s">
         <v>2181</v>
@@ -33188,7 +33188,7 @@
         <v>1</v>
       </c>
       <c r="D1545">
-        <v>134.0600222278824</v>
+        <v>133.6263568282574</v>
       </c>
       <c r="E1545" t="s">
         <v>2181</v>
@@ -33307,7 +33307,7 @@
         <v>1</v>
       </c>
       <c r="D1552">
-        <v>92.43215352869353</v>
+        <v>92.4751600812845</v>
       </c>
       <c r="E1552" t="s">
         <v>2181</v>
@@ -33341,7 +33341,7 @@
         <v>1</v>
       </c>
       <c r="D1554">
-        <v>136.2485497343574</v>
+        <v>136.2496413236489</v>
       </c>
       <c r="E1554" t="s">
         <v>2181</v>
@@ -33358,7 +33358,7 @@
         <v>1</v>
       </c>
       <c r="D1555">
-        <v>133.6254901726049</v>
+        <v>133.1887676460039</v>
       </c>
       <c r="E1555" t="s">
         <v>2181</v>
@@ -33375,7 +33375,7 @@
         <v>1</v>
       </c>
       <c r="D1556">
-        <v>136.2518499053673</v>
+        <v>136.2526241696082</v>
       </c>
       <c r="E1556" t="s">
         <v>2181</v>
@@ -33392,7 +33392,7 @@
         <v>1</v>
       </c>
       <c r="D1557">
-        <v>136.2322957007123</v>
+        <v>136.2365217946612</v>
       </c>
       <c r="E1557" t="s">
         <v>2181</v>
@@ -33800,7 +33800,7 @@
         <v>10</v>
       </c>
       <c r="D1581">
-        <v>122.481368516896</v>
+        <v>122.8702507953252</v>
       </c>
       <c r="E1581" t="s">
         <v>2180</v>
@@ -33817,7 +33817,7 @@
         <v>1</v>
       </c>
       <c r="D1582">
-        <v>2939.552844405504</v>
+        <v>2948.886019087804</v>
       </c>
       <c r="E1582" t="s">
         <v>2181</v>
@@ -33834,7 +33834,7 @@
         <v>10</v>
       </c>
       <c r="D1583">
-        <v>122.4886420441778</v>
+        <v>122.9176782450452</v>
       </c>
       <c r="E1583" t="s">
         <v>2180</v>
@@ -33851,7 +33851,7 @@
         <v>1</v>
       </c>
       <c r="D1584">
-        <v>2939.727409060266</v>
+        <v>2950.024277881083</v>
       </c>
       <c r="E1584" t="s">
         <v>2181</v>
@@ -34769,7 +34769,7 @@
         <v>1</v>
       </c>
       <c r="D1638">
-        <v>88.66607918218298</v>
+        <v>88.02714481398867</v>
       </c>
       <c r="E1638" t="s">
         <v>2181</v>
@@ -34803,7 +34803,7 @@
         <v>1</v>
       </c>
       <c r="D1640">
-        <v>89.29271488596309</v>
+        <v>90.45230991441906</v>
       </c>
       <c r="E1640" t="s">
         <v>2181</v>
@@ -34820,7 +34820,7 @@
         <v>1</v>
       </c>
       <c r="D1641">
-        <v>89.08518084648843</v>
+        <v>89.08518084648891</v>
       </c>
       <c r="E1641" t="s">
         <v>2181</v>
@@ -34837,7 +34837,7 @@
         <v>1</v>
       </c>
       <c r="D1642">
-        <v>88.24151173332865</v>
+        <v>88.24151173332868</v>
       </c>
       <c r="E1642" t="s">
         <v>2181</v>
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="D1643">
-        <v>88.66607918331579</v>
+        <v>88.13450329096636</v>
       </c>
       <c r="E1643" t="s">
         <v>2181</v>
@@ -34888,7 +34888,7 @@
         <v>1</v>
       </c>
       <c r="D1645">
-        <v>88.13450329088118</v>
+        <v>88.1345032908872</v>
       </c>
       <c r="E1645" t="s">
         <v>2181</v>
@@ -34905,7 +34905,7 @@
         <v>1</v>
       </c>
       <c r="D1646">
-        <v>90.45230991441906</v>
+        <v>89.29271488596309</v>
       </c>
       <c r="E1646" t="s">
         <v>2181</v>
@@ -34922,7 +34922,7 @@
         <v>1</v>
       </c>
       <c r="D1647">
-        <v>89.70997155071501</v>
+        <v>89.16584357790308</v>
       </c>
       <c r="E1647" t="s">
         <v>2181</v>
@@ -34939,7 +34939,7 @@
         <v>1</v>
       </c>
       <c r="D1648">
-        <v>89.70997155071501</v>
+        <v>89.27537263165726</v>
       </c>
       <c r="E1648" t="s">
         <v>2181</v>
@@ -34973,7 +34973,7 @@
         <v>1</v>
       </c>
       <c r="D1650">
-        <v>89.70997155071501</v>
+        <v>89.27537263165726</v>
       </c>
       <c r="E1650" t="s">
         <v>2181</v>
@@ -34990,7 +34990,7 @@
         <v>1</v>
       </c>
       <c r="D1651">
-        <v>89.70997155085705</v>
+        <v>89.27537263179673</v>
       </c>
       <c r="E1651" t="s">
         <v>2181</v>
@@ -35211,7 +35211,7 @@
         <v>3</v>
       </c>
       <c r="D1664">
-        <v>47.25</v>
+        <v>47.5</v>
       </c>
       <c r="E1664" t="s">
         <v>2180</v>
@@ -35228,7 +35228,7 @@
         <v>1</v>
       </c>
       <c r="D1665">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E1665" t="s">
         <v>2181</v>
@@ -38271,7 +38271,7 @@
         <v>1</v>
       </c>
       <c r="D1844">
-        <v>151.2439053009549</v>
+        <v>151.243905300955</v>
       </c>
       <c r="E1844" t="s">
         <v>2181</v>
@@ -38339,7 +38339,7 @@
         <v>1</v>
       </c>
       <c r="D1848">
-        <v>232.3198284644243</v>
+        <v>232.3181163115637</v>
       </c>
       <c r="E1848" t="s">
         <v>2181</v>
@@ -39444,7 +39444,7 @@
         <v>3</v>
       </c>
       <c r="D1913">
-        <v>41.2925</v>
+        <v>40.54625</v>
       </c>
       <c r="E1913" t="s">
         <v>2180</v>
@@ -39461,7 +39461,7 @@
         <v>1</v>
       </c>
       <c r="D1914">
-        <v>495.51</v>
+        <v>486.555</v>
       </c>
       <c r="E1914" t="s">
         <v>2181</v>
@@ -39750,7 +39750,7 @@
         <v>2</v>
       </c>
       <c r="D1931">
-        <v>103</v>
+        <v>103.5</v>
       </c>
       <c r="E1931" t="s">
         <v>2181</v>
@@ -39988,7 +39988,7 @@
         <v>1</v>
       </c>
       <c r="D1945">
-        <v>283.25</v>
+        <v>283.201875</v>
       </c>
       <c r="E1945" t="s">
         <v>2181</v>
@@ -40005,7 +40005,7 @@
         <v>1</v>
       </c>
       <c r="D1946">
-        <v>281</v>
+        <v>281.0875</v>
       </c>
       <c r="E1946" t="s">
         <v>2181</v>
@@ -40022,7 +40022,7 @@
         <v>1</v>
       </c>
       <c r="D1947">
-        <v>282.75</v>
+        <v>282.58</v>
       </c>
       <c r="E1947" t="s">
         <v>2181</v>
@@ -40073,7 +40073,7 @@
         <v>1</v>
       </c>
       <c r="D1950">
-        <v>284</v>
+        <v>283.8743698914328</v>
       </c>
       <c r="E1950" t="s">
         <v>2181</v>
@@ -40107,7 +40107,7 @@
         <v>3</v>
       </c>
       <c r="D1952">
-        <v>100.25</v>
+        <v>101.25</v>
       </c>
       <c r="E1952" t="s">
         <v>2180</v>
@@ -40124,7 +40124,7 @@
         <v>1</v>
       </c>
       <c r="D1953">
-        <v>2406</v>
+        <v>2430</v>
       </c>
       <c r="E1953" t="s">
         <v>2181</v>
@@ -40141,7 +40141,7 @@
         <v>3</v>
       </c>
       <c r="D1954">
-        <v>94.25</v>
+        <v>95.25</v>
       </c>
       <c r="E1954" t="s">
         <v>2180</v>
@@ -40158,7 +40158,7 @@
         <v>1</v>
       </c>
       <c r="D1955">
-        <v>2262</v>
+        <v>2286</v>
       </c>
       <c r="E1955" t="s">
         <v>2181</v>
@@ -40175,7 +40175,7 @@
         <v>3</v>
       </c>
       <c r="D1956">
-        <v>97</v>
+        <v>100.75</v>
       </c>
       <c r="E1956" t="s">
         <v>2180</v>
@@ -40192,7 +40192,7 @@
         <v>1</v>
       </c>
       <c r="D1957">
-        <v>2328</v>
+        <v>2418</v>
       </c>
       <c r="E1957" t="s">
         <v>2181</v>
@@ -40209,7 +40209,7 @@
         <v>3</v>
       </c>
       <c r="D1958">
-        <v>100.25</v>
+        <v>101.25</v>
       </c>
       <c r="E1958" t="s">
         <v>2180</v>
@@ -40226,7 +40226,7 @@
         <v>1</v>
       </c>
       <c r="D1959">
-        <v>2406</v>
+        <v>2430</v>
       </c>
       <c r="E1959" t="s">
         <v>2181</v>
@@ -40243,7 +40243,7 @@
         <v>3</v>
       </c>
       <c r="D1960">
-        <v>144.6976245020302</v>
+        <v>144.7725</v>
       </c>
       <c r="E1960" t="s">
         <v>2180</v>
@@ -40260,7 +40260,7 @@
         <v>1</v>
       </c>
       <c r="D1961">
-        <v>1736.371494024362</v>
+        <v>1737.27</v>
       </c>
       <c r="E1961" t="s">
         <v>2181</v>
@@ -40277,7 +40277,7 @@
         <v>3</v>
       </c>
       <c r="D1962">
-        <v>144.6977442372028</v>
+        <v>143.52875</v>
       </c>
       <c r="E1962" t="s">
         <v>2180</v>
@@ -40294,7 +40294,7 @@
         <v>1</v>
       </c>
       <c r="D1963">
-        <v>1736.372930846434</v>
+        <v>1722.345</v>
       </c>
       <c r="E1963" t="s">
         <v>2181</v>
@@ -40311,7 +40311,7 @@
         <v>3</v>
       </c>
       <c r="D1964">
-        <v>141.5</v>
+        <v>142.5</v>
       </c>
       <c r="E1964" t="s">
         <v>2180</v>
@@ -40328,7 +40328,7 @@
         <v>1</v>
       </c>
       <c r="D1965">
-        <v>1698</v>
+        <v>1710</v>
       </c>
       <c r="E1965" t="s">
         <v>2181</v>
@@ -40345,7 +40345,7 @@
         <v>7</v>
       </c>
       <c r="D1966">
-        <v>138.25048048228</v>
+        <v>138.305</v>
       </c>
       <c r="E1966" t="s">
         <v>2180</v>
@@ -40362,7 +40362,7 @@
         <v>1</v>
       </c>
       <c r="D1967">
-        <v>1659.005765787359</v>
+        <v>1659.66</v>
       </c>
       <c r="E1967" t="s">
         <v>2181</v>
@@ -40379,7 +40379,7 @@
         <v>7</v>
       </c>
       <c r="D1968">
-        <v>138.2773137928552</v>
+        <v>138.305</v>
       </c>
       <c r="E1968" t="s">
         <v>2180</v>
@@ -40396,7 +40396,7 @@
         <v>1</v>
       </c>
       <c r="D1969">
-        <v>1659.327765514262</v>
+        <v>1659.66</v>
       </c>
       <c r="E1969" t="s">
         <v>2181</v>
@@ -40413,7 +40413,7 @@
         <v>7</v>
       </c>
       <c r="D1970">
-        <v>138.2773177704374</v>
+        <v>138.305</v>
       </c>
       <c r="E1970" t="s">
         <v>2180</v>
@@ -40430,7 +40430,7 @@
         <v>1</v>
       </c>
       <c r="D1971">
-        <v>1659.327813245249</v>
+        <v>1659.66</v>
       </c>
       <c r="E1971" t="s">
         <v>2181</v>
@@ -40447,7 +40447,7 @@
         <v>7</v>
       </c>
       <c r="D1972">
-        <v>138.2773177704374</v>
+        <v>138.305</v>
       </c>
       <c r="E1972" t="s">
         <v>2180</v>
@@ -40464,7 +40464,7 @@
         <v>1</v>
       </c>
       <c r="D1973">
-        <v>1659.327813245249</v>
+        <v>1659.66</v>
       </c>
       <c r="E1973" t="s">
         <v>2181</v>
@@ -40481,7 +40481,7 @@
         <v>7</v>
       </c>
       <c r="D1974">
-        <v>137.931875</v>
+        <v>138</v>
       </c>
       <c r="E1974" t="s">
         <v>2180</v>
@@ -40498,7 +40498,7 @@
         <v>1</v>
       </c>
       <c r="D1975">
-        <v>1655.1825</v>
+        <v>1656</v>
       </c>
       <c r="E1975" t="s">
         <v>2181</v>
@@ -40515,7 +40515,7 @@
         <v>3</v>
       </c>
       <c r="D1976">
-        <v>83.75</v>
+        <v>83.5</v>
       </c>
       <c r="E1976" t="s">
         <v>2180</v>
@@ -40532,7 +40532,7 @@
         <v>1</v>
       </c>
       <c r="D1977">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E1977" t="s">
         <v>2181</v>
@@ -41314,7 +41314,7 @@
         <v>3</v>
       </c>
       <c r="D2023">
-        <v>95.5</v>
+        <v>96.25</v>
       </c>
       <c r="E2023" t="s">
         <v>2180</v>
@@ -41331,7 +41331,7 @@
         <v>1</v>
       </c>
       <c r="D2024">
-        <v>1146</v>
+        <v>1155</v>
       </c>
       <c r="E2024" t="s">
         <v>2181</v>
@@ -43235,7 +43235,7 @@
         <v>2</v>
       </c>
       <c r="D2136">
-        <v>217</v>
+        <v>212.5</v>
       </c>
       <c r="E2136" t="s">
         <v>2181</v>
@@ -45547,7 +45547,7 @@
         <v>23</v>
       </c>
       <c r="D2272">
-        <v>21.3925</v>
+        <v>21.019375</v>
       </c>
       <c r="E2272" t="s">
         <v>2180</v>
@@ -45564,7 +45564,7 @@
         <v>1</v>
       </c>
       <c r="D2273">
-        <v>385.0649999999999</v>
+        <v>378.34875</v>
       </c>
       <c r="E2273" t="s">
         <v>2181</v>
@@ -45581,7 +45581,7 @@
         <v>23</v>
       </c>
       <c r="D2274">
-        <v>22.5</v>
+        <v>22.25</v>
       </c>
       <c r="E2274" t="s">
         <v>2180</v>
@@ -45598,7 +45598,7 @@
         <v>1</v>
       </c>
       <c r="D2275">
-        <v>405</v>
+        <v>400.5</v>
       </c>
       <c r="E2275" t="s">
         <v>2181</v>
@@ -45921,7 +45921,7 @@
         <v>2</v>
       </c>
       <c r="D2294">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E2294" t="s">
         <v>2181</v>
@@ -46686,7 +46686,7 @@
         <v>7</v>
       </c>
       <c r="D2339">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E2339" t="s">
         <v>2180</v>
@@ -46703,7 +46703,7 @@
         <v>1</v>
       </c>
       <c r="D2340">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E2340" t="s">
         <v>2181</v>
@@ -46873,7 +46873,7 @@
         <v>3</v>
       </c>
       <c r="D2350">
-        <v>47.33253711590748</v>
+        <v>47.33255292886489</v>
       </c>
       <c r="E2350" t="s">
         <v>2180</v>
@@ -46890,7 +46890,7 @@
         <v>1</v>
       </c>
       <c r="D2351">
-        <v>567.9904453908898</v>
+        <v>567.9906351463787</v>
       </c>
       <c r="E2351" t="s">
         <v>2181</v>
@@ -47247,7 +47247,7 @@
         <v>10</v>
       </c>
       <c r="D2372">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="E2372" t="s">
         <v>2180</v>
@@ -47264,7 +47264,7 @@
         <v>1</v>
       </c>
       <c r="D2373">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E2373" t="s">
         <v>2181</v>
@@ -47434,7 +47434,7 @@
         <v>7</v>
       </c>
       <c r="D2383">
-        <v>228.25</v>
+        <v>228</v>
       </c>
       <c r="E2383" t="s">
         <v>2180</v>
@@ -47451,7 +47451,7 @@
         <v>1</v>
       </c>
       <c r="D2384">
-        <v>4565</v>
+        <v>4560</v>
       </c>
       <c r="E2384" t="s">
         <v>2181</v>
@@ -48369,7 +48369,7 @@
         <v>7</v>
       </c>
       <c r="D2438">
-        <v>80.25</v>
+        <v>80.5</v>
       </c>
       <c r="E2438" t="s">
         <v>2180</v>
@@ -48386,7 +48386,7 @@
         <v>1</v>
       </c>
       <c r="D2439">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E2439" t="s">
         <v>2181</v>
@@ -48675,7 +48675,7 @@
         <v>3</v>
       </c>
       <c r="D2456">
-        <v>107.75</v>
+        <v>108</v>
       </c>
       <c r="E2456" t="s">
         <v>2180</v>
@@ -48692,7 +48692,7 @@
         <v>1</v>
       </c>
       <c r="D2457">
-        <v>646.5</v>
+        <v>648</v>
       </c>
       <c r="E2457" t="s">
         <v>2181</v>
@@ -48709,7 +48709,7 @@
         <v>3</v>
       </c>
       <c r="D2458">
-        <v>108.7862504257893</v>
+        <v>108.786534742655</v>
       </c>
       <c r="E2458" t="s">
         <v>2180</v>
@@ -48726,7 +48726,7 @@
         <v>1</v>
       </c>
       <c r="D2459">
-        <v>652.7175025547356</v>
+        <v>652.7192084559297</v>
       </c>
       <c r="E2459" t="s">
         <v>2181</v>
@@ -48913,7 +48913,7 @@
         <v>3</v>
       </c>
       <c r="D2470">
-        <v>39</v>
+        <v>25.5</v>
       </c>
       <c r="E2470" t="s">
         <v>2180</v>
@@ -48930,7 +48930,7 @@
         <v>1</v>
       </c>
       <c r="D2471">
-        <v>468</v>
+        <v>306</v>
       </c>
       <c r="E2471" t="s">
         <v>2181</v>
@@ -48947,7 +48947,7 @@
         <v>3</v>
       </c>
       <c r="D2472">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="E2472" t="s">
         <v>2180</v>
@@ -48964,7 +48964,7 @@
         <v>1</v>
       </c>
       <c r="D2473">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E2473" t="s">
         <v>2181</v>
@@ -49015,7 +49015,7 @@
         <v>3</v>
       </c>
       <c r="D2476">
-        <v>23.87226569560651</v>
+        <v>24.00169438314643</v>
       </c>
       <c r="E2476" t="s">
         <v>2180</v>
@@ -49032,7 +49032,7 @@
         <v>1</v>
       </c>
       <c r="D2477">
-        <v>286.4671883472781</v>
+        <v>288.0203325977572</v>
       </c>
       <c r="E2477" t="s">
         <v>2181</v>
@@ -49083,7 +49083,7 @@
         <v>3</v>
       </c>
       <c r="D2480">
-        <v>24.00748586939578</v>
+        <v>24.00967398105674</v>
       </c>
       <c r="E2480" t="s">
         <v>2180</v>
@@ -49100,7 +49100,7 @@
         <v>1</v>
       </c>
       <c r="D2481">
-        <v>288.0898304327494</v>
+        <v>288.1160877726809</v>
       </c>
       <c r="E2481" t="s">
         <v>2181</v>
@@ -49185,7 +49185,7 @@
         <v>3</v>
       </c>
       <c r="D2486">
-        <v>23.99606167933068</v>
+        <v>23.9962684960847</v>
       </c>
       <c r="E2486" t="s">
         <v>2180</v>
@@ -49202,7 +49202,7 @@
         <v>1</v>
       </c>
       <c r="D2487">
-        <v>287.9527401519682</v>
+        <v>287.9552219530164</v>
       </c>
       <c r="E2487" t="s">
         <v>2181</v>
@@ -49219,7 +49219,7 @@
         <v>3</v>
       </c>
       <c r="D2488">
-        <v>159.8937032299795</v>
+        <v>159.9144203699241</v>
       </c>
       <c r="E2488" t="s">
         <v>2180</v>
@@ -49236,7 +49236,7 @@
         <v>1</v>
       </c>
       <c r="D2489">
-        <v>1918.724438759754</v>
+        <v>1918.973044439089</v>
       </c>
       <c r="E2489" t="s">
         <v>2181</v>
@@ -49321,7 +49321,7 @@
         <v>3</v>
       </c>
       <c r="D2494">
-        <v>94.00545628466564</v>
+        <v>94.00839635829509</v>
       </c>
       <c r="E2494" t="s">
         <v>2180</v>
@@ -49338,7 +49338,7 @@
         <v>1</v>
       </c>
       <c r="D2495">
-        <v>1128.065475415988</v>
+        <v>1128.100756299541</v>
       </c>
       <c r="E2495" t="s">
         <v>2181</v>
@@ -49355,7 +49355,7 @@
         <v>3</v>
       </c>
       <c r="D2496">
-        <v>94.00188716558215</v>
+        <v>94.00886996914609</v>
       </c>
       <c r="E2496" t="s">
         <v>2180</v>
@@ -49372,7 +49372,7 @@
         <v>1</v>
       </c>
       <c r="D2497">
-        <v>1128.022645986986</v>
+        <v>1128.106439629753</v>
       </c>
       <c r="E2497" t="s">
         <v>2181</v>
@@ -49627,7 +49627,7 @@
         <v>3</v>
       </c>
       <c r="D2512">
-        <v>48.25</v>
+        <v>48</v>
       </c>
       <c r="E2512" t="s">
         <v>2180</v>
@@ -49644,7 +49644,7 @@
         <v>1</v>
       </c>
       <c r="D2513">
-        <v>1447.5</v>
+        <v>1440</v>
       </c>
       <c r="E2513" t="s">
         <v>2181</v>
@@ -49831,7 +49831,7 @@
         <v>2</v>
       </c>
       <c r="D2524">
-        <v>360.7268722372867</v>
+        <v>360.7268722372866</v>
       </c>
       <c r="E2524" t="s">
         <v>2181</v>
@@ -49865,7 +49865,7 @@
         <v>2</v>
       </c>
       <c r="D2526">
-        <v>407.576875</v>
+        <v>405.21375</v>
       </c>
       <c r="E2526" t="s">
         <v>2181</v>
@@ -49882,7 +49882,7 @@
         <v>2</v>
       </c>
       <c r="D2527">
-        <v>275.5</v>
+        <v>277.25</v>
       </c>
       <c r="E2527" t="s">
         <v>2181</v>
@@ -50001,7 +50001,7 @@
         <v>1</v>
       </c>
       <c r="D2534">
-        <v>206.75</v>
+        <v>207.75</v>
       </c>
       <c r="E2534" t="s">
         <v>2181</v>
@@ -50443,7 +50443,7 @@
         <v>7</v>
       </c>
       <c r="D2560">
-        <v>11.52557182963455</v>
+        <v>11.52567457880256</v>
       </c>
       <c r="E2560" t="s">
         <v>2180</v>
@@ -50460,7 +50460,7 @@
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>345.7671548890366</v>
+        <v>345.7702373640769</v>
       </c>
       <c r="E2561" t="s">
         <v>2181</v>
@@ -50885,7 +50885,7 @@
         <v>1</v>
       </c>
       <c r="D2586">
-        <v>237.887024474561</v>
+        <v>239.309438415755</v>
       </c>
       <c r="E2586" t="s">
         <v>2181</v>
@@ -50919,7 +50919,7 @@
         <v>1</v>
       </c>
       <c r="D2588">
-        <v>237.5721422714074</v>
+        <v>239.9427000703824</v>
       </c>
       <c r="E2588" t="s">
         <v>2181</v>
@@ -50953,7 +50953,7 @@
         <v>1</v>
       </c>
       <c r="D2590">
-        <v>235.939375</v>
+        <v>235.9371839631245</v>
       </c>
       <c r="E2590" t="s">
         <v>2181</v>
@@ -51004,7 +51004,7 @@
         <v>2</v>
       </c>
       <c r="D2593">
-        <v>411.5</v>
+        <v>413</v>
       </c>
       <c r="E2593" t="s">
         <v>2181</v>
@@ -51021,7 +51021,7 @@
         <v>3</v>
       </c>
       <c r="D2594">
-        <v>94.73958493678025</v>
+        <v>94.8529857582501</v>
       </c>
       <c r="E2594" t="s">
         <v>2180</v>
@@ -51038,7 +51038,7 @@
         <v>1</v>
       </c>
       <c r="D2595">
-        <v>757.916679494242</v>
+        <v>758.8238860660008</v>
       </c>
       <c r="E2595" t="s">
         <v>2181</v>
@@ -51140,7 +51140,7 @@
         <v>1</v>
       </c>
       <c r="D2601">
-        <v>691.75</v>
+        <v>687.25</v>
       </c>
       <c r="E2601" t="s">
         <v>2181</v>
@@ -51259,7 +51259,7 @@
         <v>1</v>
       </c>
       <c r="D2608">
-        <v>544</v>
+        <v>544.75</v>
       </c>
       <c r="E2608" t="s">
         <v>2181</v>
@@ -52432,7 +52432,7 @@
         <v>3</v>
       </c>
       <c r="D2677">
-        <v>65.36945112483751</v>
+        <v>65.1725</v>
       </c>
       <c r="E2677" t="s">
         <v>2180</v>
@@ -52449,7 +52449,7 @@
         <v>1</v>
       </c>
       <c r="D2678">
-        <v>784.4334134980502</v>
+        <v>782.0699999999999</v>
       </c>
       <c r="E2678" t="s">
         <v>2181</v>
@@ -53129,7 +53129,7 @@
         <v>3</v>
       </c>
       <c r="D2718">
-        <v>48.83106404747365</v>
+        <v>48.84679929196763</v>
       </c>
       <c r="E2718" t="s">
         <v>2180</v>
@@ -53146,7 +53146,7 @@
         <v>1</v>
       </c>
       <c r="D2719">
-        <v>585.9727685696837</v>
+        <v>586.1615915036116</v>
       </c>
       <c r="E2719" t="s">
         <v>2181</v>
@@ -54982,7 +54982,7 @@
         <v>10</v>
       </c>
       <c r="D2827">
-        <v>25.25</v>
+        <v>25.75</v>
       </c>
       <c r="E2827" t="s">
         <v>2180</v>
@@ -54999,7 +54999,7 @@
         <v>1</v>
       </c>
       <c r="D2828">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E2828" t="s">
         <v>2181</v>
@@ -55628,7 +55628,7 @@
         <v>25</v>
       </c>
       <c r="D2865">
-        <v>317.75</v>
+        <v>317.5</v>
       </c>
       <c r="E2865" t="s">
         <v>2180</v>
@@ -55645,7 +55645,7 @@
         <v>29</v>
       </c>
       <c r="D2866">
-        <v>953.25</v>
+        <v>952.5</v>
       </c>
       <c r="E2866" t="s">
         <v>2181</v>
@@ -56631,7 +56631,7 @@
         <v>14</v>
       </c>
       <c r="D2924">
-        <v>76.09332871129767</v>
+        <v>76.91653322455784</v>
       </c>
       <c r="E2924" t="s">
         <v>2180</v>
@@ -56648,7 +56648,7 @@
         <v>1</v>
       </c>
       <c r="D2925">
-        <v>608.7466296903814</v>
+        <v>615.3322657964627</v>
       </c>
       <c r="E2925" t="s">
         <v>2181</v>
@@ -56665,7 +56665,7 @@
         <v>3</v>
       </c>
       <c r="D2926">
-        <v>836.2459765630048</v>
+        <v>837.5063536484382</v>
       </c>
       <c r="E2926" t="s">
         <v>2180</v>
@@ -56682,7 +56682,7 @@
         <v>1</v>
       </c>
       <c r="D2927">
-        <v>5017.475859378029</v>
+        <v>5025.03812189063</v>
       </c>
       <c r="E2927" t="s">
         <v>2181</v>
@@ -56699,7 +56699,7 @@
         <v>3</v>
       </c>
       <c r="D2928">
-        <v>137.5408830617246</v>
+        <v>138.802532620747</v>
       </c>
       <c r="E2928" t="s">
         <v>2180</v>
@@ -56716,7 +56716,7 @@
         <v>1</v>
       </c>
       <c r="D2929">
-        <v>3300.981193481391</v>
+        <v>3331.260782897929</v>
       </c>
       <c r="E2929" t="s">
         <v>2181</v>
@@ -56733,7 +56733,7 @@
         <v>3</v>
       </c>
       <c r="D2930">
-        <v>153.3954521088763</v>
+        <v>153.47875</v>
       </c>
       <c r="E2930" t="s">
         <v>2180</v>
@@ -56750,7 +56750,7 @@
         <v>1</v>
       </c>
       <c r="D2931">
-        <v>1840.745425306515</v>
+        <v>1841.745</v>
       </c>
       <c r="E2931" t="s">
         <v>2181</v>
@@ -56767,7 +56767,7 @@
         <v>3</v>
       </c>
       <c r="D2932">
-        <v>153.8309670501967</v>
+        <v>153.97625</v>
       </c>
       <c r="E2932" t="s">
         <v>2180</v>
@@ -56784,7 +56784,7 @@
         <v>1</v>
       </c>
       <c r="D2933">
-        <v>1845.971604602361</v>
+        <v>1847.715</v>
       </c>
       <c r="E2933" t="s">
         <v>2181</v>
@@ -57124,7 +57124,7 @@
         <v>1</v>
       </c>
       <c r="D2953">
-        <v>156.588125</v>
+        <v>162.2700552190475</v>
       </c>
       <c r="E2953" t="s">
         <v>2181</v>
@@ -57226,7 +57226,7 @@
         <v>1</v>
       </c>
       <c r="D2959">
-        <v>160.2481124740933</v>
+        <v>160.2504871560813</v>
       </c>
       <c r="E2959" t="s">
         <v>2181</v>
@@ -57243,7 +57243,7 @@
         <v>1</v>
       </c>
       <c r="D2960">
-        <v>162.0317191185036</v>
+        <v>162.0850981711511</v>
       </c>
       <c r="E2960" t="s">
         <v>2181</v>
@@ -57260,7 +57260,7 @@
         <v>1</v>
       </c>
       <c r="D2961">
-        <v>160.343007975245</v>
+        <v>160.3498605581603</v>
       </c>
       <c r="E2961" t="s">
         <v>2181</v>
@@ -57277,7 +57277,7 @@
         <v>1</v>
       </c>
       <c r="D2962">
-        <v>162.0567102487291</v>
+        <v>162.0849364428634</v>
       </c>
       <c r="E2962" t="s">
         <v>2181</v>
@@ -57396,7 +57396,7 @@
         <v>1</v>
       </c>
       <c r="D2969">
-        <v>85.54691299565293</v>
+        <v>85.5471952395261</v>
       </c>
       <c r="E2969" t="s">
         <v>2181</v>
@@ -57413,7 +57413,7 @@
         <v>1</v>
       </c>
       <c r="D2970">
-        <v>84.17650052782386</v>
+        <v>84.17650052782385</v>
       </c>
       <c r="E2970" t="s">
         <v>2181</v>
@@ -57481,7 +57481,7 @@
         <v>1</v>
       </c>
       <c r="D2974">
-        <v>84.17633245491866</v>
+        <v>84.17633530364118</v>
       </c>
       <c r="E2974" t="s">
         <v>2181</v>
@@ -57498,7 +57498,7 @@
         <v>1</v>
       </c>
       <c r="D2975">
-        <v>84.17650052782386</v>
+        <v>84.17650052782385</v>
       </c>
       <c r="E2975" t="s">
         <v>2181</v>
@@ -57566,7 +57566,7 @@
         <v>3</v>
       </c>
       <c r="D2979">
-        <v>137.5370945915384</v>
+        <v>138.981928718167</v>
       </c>
       <c r="E2979" t="s">
         <v>2180</v>
@@ -57583,7 +57583,7 @@
         <v>1</v>
       </c>
       <c r="D2980">
-        <v>3300.890270196921</v>
+        <v>3335.566289236008</v>
       </c>
       <c r="E2980" t="s">
         <v>2181</v>
@@ -57600,7 +57600,7 @@
         <v>3</v>
       </c>
       <c r="D2981">
-        <v>137.5369224414873</v>
+        <v>138.7634860175373</v>
       </c>
       <c r="E2981" t="s">
         <v>2180</v>
@@ -57617,7 +57617,7 @@
         <v>1</v>
       </c>
       <c r="D2982">
-        <v>3300.886138595695</v>
+        <v>3330.323664420896</v>
       </c>
       <c r="E2982" t="s">
         <v>2181</v>
@@ -57634,7 +57634,7 @@
         <v>3</v>
       </c>
       <c r="D2983">
-        <v>137.2559648008715</v>
+        <v>138.6387171042127</v>
       </c>
       <c r="E2983" t="s">
         <v>2180</v>
@@ -57651,7 +57651,7 @@
         <v>1</v>
       </c>
       <c r="D2984">
-        <v>2745.119296017429</v>
+        <v>2772.774342084253</v>
       </c>
       <c r="E2984" t="s">
         <v>2181</v>
@@ -57668,7 +57668,7 @@
         <v>3</v>
       </c>
       <c r="D2985">
-        <v>137.2559877677912</v>
+        <v>138.180625</v>
       </c>
       <c r="E2985" t="s">
         <v>2180</v>
@@ -57685,7 +57685,7 @@
         <v>1</v>
       </c>
       <c r="D2986">
-        <v>2745.119755355825</v>
+        <v>2763.6125</v>
       </c>
       <c r="E2986" t="s">
         <v>2181</v>
@@ -57702,7 +57702,7 @@
         <v>3</v>
       </c>
       <c r="D2987">
-        <v>136.5800395244838</v>
+        <v>137.683125</v>
       </c>
       <c r="E2987" t="s">
         <v>2180</v>
@@ -57719,7 +57719,7 @@
         <v>1</v>
       </c>
       <c r="D2988">
-        <v>2731.600790489675</v>
+        <v>2753.6625</v>
       </c>
       <c r="E2988" t="s">
         <v>2181</v>
@@ -57736,7 +57736,7 @@
         <v>3</v>
       </c>
       <c r="D2989">
-        <v>137.2559364132372</v>
+        <v>138.180625</v>
       </c>
       <c r="E2989" t="s">
         <v>2180</v>
@@ -57753,7 +57753,7 @@
         <v>1</v>
       </c>
       <c r="D2990">
-        <v>2745.118728264745</v>
+        <v>2763.6125</v>
       </c>
       <c r="E2990" t="s">
         <v>2181</v>
@@ -58042,7 +58042,7 @@
         <v>3</v>
       </c>
       <c r="D3007">
-        <v>56.94718803972366</v>
+        <v>57.11539957561975</v>
       </c>
       <c r="E3007" t="s">
         <v>2180</v>
@@ -58059,7 +58059,7 @@
         <v>1</v>
       </c>
       <c r="D3008">
-        <v>683.3662564766839</v>
+        <v>685.384794907437</v>
       </c>
       <c r="E3008" t="s">
         <v>2181</v>
@@ -58654,7 +58654,7 @@
         <v>1</v>
       </c>
       <c r="D3043">
-        <v>84.17582381281706</v>
+        <v>84.1758354807986</v>
       </c>
       <c r="E3043" t="s">
         <v>2181</v>
@@ -58892,7 +58892,7 @@
         <v>10</v>
       </c>
       <c r="D3057">
-        <v>63.5</v>
+        <v>62.5</v>
       </c>
       <c r="E3057" t="s">
         <v>2180</v>
@@ -58909,7 +58909,7 @@
         <v>1</v>
       </c>
       <c r="D3058">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E3058" t="s">
         <v>2181</v>
@@ -59062,7 +59062,7 @@
         <v>2</v>
       </c>
       <c r="D3067">
-        <v>272.350414164544</v>
+        <v>272.278860271751</v>
       </c>
       <c r="E3067" t="s">
         <v>2181</v>
@@ -59249,7 +59249,7 @@
         <v>1</v>
       </c>
       <c r="D3078">
-        <v>236.25</v>
+        <v>238.75</v>
       </c>
       <c r="E3078" t="s">
         <v>2181</v>
@@ -60014,7 +60014,7 @@
         <v>3</v>
       </c>
       <c r="D3123">
-        <v>215.75</v>
+        <v>216.25</v>
       </c>
       <c r="E3123" t="s">
         <v>2180</v>
@@ -60031,7 +60031,7 @@
         <v>1</v>
       </c>
       <c r="D3124">
-        <v>2589</v>
+        <v>2595</v>
       </c>
       <c r="E3124" t="s">
         <v>2181</v>
@@ -60099,7 +60099,7 @@
         <v>1</v>
       </c>
       <c r="D3128">
-        <v>315.25</v>
+        <v>313</v>
       </c>
       <c r="E3128" t="s">
         <v>2181</v>
@@ -60116,7 +60116,7 @@
         <v>1</v>
       </c>
       <c r="D3129">
-        <v>206.75</v>
+        <v>205</v>
       </c>
       <c r="E3129" t="s">
         <v>2181</v>
@@ -60167,7 +60167,7 @@
         <v>2</v>
       </c>
       <c r="D3132">
-        <v>272.1307226554542</v>
+        <v>272.0931854623743</v>
       </c>
       <c r="E3132" t="s">
         <v>2181</v>
@@ -60337,7 +60337,7 @@
         <v>25</v>
       </c>
       <c r="D3142">
-        <v>378.2872006744259</v>
+        <v>378.2060686452289</v>
       </c>
       <c r="E3142" t="s">
         <v>2180</v>
@@ -60354,7 +60354,7 @@
         <v>29</v>
       </c>
       <c r="D3143">
-        <v>756.5744013488519</v>
+        <v>756.4121372904578</v>
       </c>
       <c r="E3143" t="s">
         <v>2181</v>
@@ -60439,7 +60439,7 @@
         <v>3</v>
       </c>
       <c r="D3148">
-        <v>139.25</v>
+        <v>139.5</v>
       </c>
       <c r="E3148" t="s">
         <v>2180</v>
@@ -60456,7 +60456,7 @@
         <v>1</v>
       </c>
       <c r="D3149">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="E3149" t="s">
         <v>2181</v>
@@ -60473,7 +60473,7 @@
         <v>3</v>
       </c>
       <c r="D3150">
-        <v>180.34375</v>
+        <v>180.5091861144062</v>
       </c>
       <c r="E3150" t="s">
         <v>2180</v>
@@ -60490,7 +60490,7 @@
         <v>1</v>
       </c>
       <c r="D3151">
-        <v>3606.875</v>
+        <v>3610.183722288123</v>
       </c>
       <c r="E3151" t="s">
         <v>2181</v>
@@ -60507,7 +60507,7 @@
         <v>3</v>
       </c>
       <c r="D3152">
-        <v>180.34375</v>
+        <v>180.4433753014375</v>
       </c>
       <c r="E3152" t="s">
         <v>2180</v>
@@ -60524,7 +60524,7 @@
         <v>1</v>
       </c>
       <c r="D3153">
-        <v>3606.875</v>
+        <v>3608.86750602875</v>
       </c>
       <c r="E3153" t="s">
         <v>2181</v>
@@ -60541,7 +60541,7 @@
         <v>3</v>
       </c>
       <c r="D3154">
-        <v>1113.835431648577</v>
+        <v>1115.287836997171</v>
       </c>
       <c r="E3154" t="s">
         <v>2180</v>
@@ -60558,7 +60558,7 @@
         <v>1</v>
       </c>
       <c r="D3155">
-        <v>6683.012589891461</v>
+        <v>6691.727021983028</v>
       </c>
       <c r="E3155" t="s">
         <v>2181</v>
@@ -60575,7 +60575,7 @@
         <v>3</v>
       </c>
       <c r="D3156">
-        <v>1128.600026875639</v>
+        <v>1130.476987068132</v>
       </c>
       <c r="E3156" t="s">
         <v>2180</v>
@@ -60592,7 +60592,7 @@
         <v>1</v>
       </c>
       <c r="D3157">
-        <v>6771.600161253836</v>
+        <v>6782.861922408792</v>
       </c>
       <c r="E3157" t="s">
         <v>2181</v>
@@ -60609,7 +60609,7 @@
         <v>3</v>
       </c>
       <c r="D3158">
-        <v>113.8611788184149</v>
+        <v>115.0902206866809</v>
       </c>
       <c r="E3158" t="s">
         <v>2180</v>
@@ -60626,7 +60626,7 @@
         <v>1</v>
       </c>
       <c r="D3159">
-        <v>1138.611788184149</v>
+        <v>1150.902206866809</v>
       </c>
       <c r="E3159" t="s">
         <v>2181</v>
@@ -60643,7 +60643,7 @@
         <v>3</v>
       </c>
       <c r="D3160">
-        <v>113.7337124682168</v>
+        <v>114.9579167570481</v>
       </c>
       <c r="E3160" t="s">
         <v>2180</v>
@@ -60660,7 +60660,7 @@
         <v>1</v>
       </c>
       <c r="D3161">
-        <v>1137.337124682168</v>
+        <v>1149.579167570481</v>
       </c>
       <c r="E3161" t="s">
         <v>2181</v>
@@ -60677,7 +60677,7 @@
         <v>2</v>
       </c>
       <c r="D3162">
-        <v>301.23625</v>
+        <v>297.131875</v>
       </c>
       <c r="E3162" t="s">
         <v>2181</v>
@@ -60728,7 +60728,7 @@
         <v>2</v>
       </c>
       <c r="D3165">
-        <v>300.614375</v>
+        <v>296.385625</v>
       </c>
       <c r="E3165" t="s">
         <v>2181</v>
@@ -61119,7 +61119,7 @@
         <v>3</v>
       </c>
       <c r="D3188">
-        <v>90.58186268316757</v>
+        <v>90.81557274622259</v>
       </c>
       <c r="E3188" t="s">
         <v>2180</v>
@@ -61136,7 +61136,7 @@
         <v>1</v>
       </c>
       <c r="D3189">
-        <v>1086.982352198011</v>
+        <v>1089.786872954671</v>
       </c>
       <c r="E3189" t="s">
         <v>2181</v>
@@ -61255,7 +61255,7 @@
         <v>1</v>
       </c>
       <c r="D3196">
-        <v>206.25</v>
+        <v>205.25</v>
       </c>
       <c r="E3196" t="s">
         <v>2181</v>
@@ -61323,7 +61323,7 @@
         <v>1</v>
       </c>
       <c r="D3200">
-        <v>95.25</v>
+        <v>93.75</v>
       </c>
       <c r="E3200" t="s">
         <v>2181</v>
@@ -61850,7 +61850,7 @@
         <v>3</v>
       </c>
       <c r="D3231">
-        <v>44.63470113316441</v>
+        <v>44.89628999816792</v>
       </c>
       <c r="E3231" t="s">
         <v>2180</v>
@@ -61867,7 +61867,7 @@
         <v>1</v>
       </c>
       <c r="D3232">
-        <v>803.4246203969594</v>
+        <v>808.1332199670226</v>
       </c>
       <c r="E3232" t="s">
         <v>2181</v>
@@ -61884,7 +61884,7 @@
         <v>3</v>
       </c>
       <c r="D3233">
-        <v>44.68216145833333</v>
+        <v>44.89628999816792</v>
       </c>
       <c r="E3233" t="s">
         <v>2180</v>
@@ -61901,7 +61901,7 @@
         <v>1</v>
       </c>
       <c r="D3234">
-        <v>804.27890625</v>
+        <v>808.1332199670226</v>
       </c>
       <c r="E3234" t="s">
         <v>2181</v>
@@ -62020,7 +62020,7 @@
         <v>2</v>
       </c>
       <c r="D3241">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E3241" t="s">
         <v>2181</v>
@@ -62802,7 +62802,7 @@
         <v>3</v>
       </c>
       <c r="D3287">
-        <v>377.75</v>
+        <v>381.75</v>
       </c>
       <c r="E3287" t="s">
         <v>2180</v>
@@ -62819,7 +62819,7 @@
         <v>1</v>
       </c>
       <c r="D3288">
-        <v>4533</v>
+        <v>4581</v>
       </c>
       <c r="E3288" t="s">
         <v>2181</v>
@@ -62836,7 +62836,7 @@
         <v>3</v>
       </c>
       <c r="D3289">
-        <v>1133</v>
+        <v>1145.5</v>
       </c>
       <c r="E3289" t="s">
         <v>2180</v>
@@ -62853,7 +62853,7 @@
         <v>1</v>
       </c>
       <c r="D3290">
-        <v>6798</v>
+        <v>6873</v>
       </c>
       <c r="E3290" t="s">
         <v>2181</v>
@@ -62870,7 +62870,7 @@
         <v>3</v>
       </c>
       <c r="D3291">
-        <v>235.582683562777</v>
+        <v>237.8593307285554</v>
       </c>
       <c r="E3291" t="s">
         <v>2180</v>
@@ -62887,7 +62887,7 @@
         <v>1</v>
       </c>
       <c r="D3292">
-        <v>2826.992202753324</v>
+        <v>2854.311968742665</v>
       </c>
       <c r="E3292" t="s">
         <v>2181</v>
@@ -62904,7 +62904,7 @@
         <v>3</v>
       </c>
       <c r="D3293">
-        <v>234.6509900021971</v>
+        <v>234.7202232653894</v>
       </c>
       <c r="E3293" t="s">
         <v>2180</v>
@@ -62921,7 +62921,7 @@
         <v>1</v>
       </c>
       <c r="D3294">
-        <v>2815.811880026366</v>
+        <v>2816.642679184673</v>
       </c>
       <c r="E3294" t="s">
         <v>2181</v>

--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_3.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_3.xlsx
@@ -682,10 +682,10 @@
     <t>اوكسي سائل أطباق ليمون اصفر- 100 جم</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الربيع -1 330 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق (8 كيس) - 500 جم</t>
+    <t>اوكسى يدوى نسيم الربيع -Delisted 330 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى (8 كيس) - 500 جم</t>
   </si>
   <si>
     <t>اوكسي يدوي نسيم الربيع ( 8 كيس ) -Delisted 500 جم</t>
@@ -2590,7 +2590,7 @@
     <t>جاجوار بوب كورن جبنة حارة - 5 جنية</t>
   </si>
   <si>
-    <t>جاجوار بوب كورن بيتزا - 5 جنية</t>
+    <t>جاجوار بوب كورن بيتزا كميه اكتر - 5 جنية</t>
   </si>
   <si>
     <t>جاجوار بوب كورن باربكيو - 5 جنية</t>
@@ -5914,7 +5914,7 @@
     <t>تايجر مكس تشيز - 15 جنية</t>
   </si>
   <si>
-    <t>بيج شيبس صلصة حلوة مكسيكية  - 15 جنية</t>
+    <t>بيج شيبس صلصة حلوة - 15 جنية</t>
   </si>
   <si>
     <t>بيج شيبس ليمون حلو - 15 جنية</t>
@@ -5929,7 +5929,7 @@
     <t>بيج شيبس شطه حلوه - 15 جنية</t>
   </si>
   <si>
-    <t>بيج شيبس خل وملح 15% زيادة - 15 جنية</t>
+    <t>بيج شيبس خل وملح - 15 جنية</t>
   </si>
   <si>
     <t>بيج شيبس كفتة بالطحينة - 10 جنية</t>
@@ -5959,7 +5959,7 @@
     <t>جاجوار تورتيلا صلصة حلوة مكسيكيه - 10 جنية</t>
   </si>
   <si>
-    <t>جاجوار باف كينج كباب - 10 جنية</t>
+    <t>جاجوار باف كينج كباب حجم اكبر - 10 جنية</t>
   </si>
   <si>
     <t>جاجوار ليرز جبنه بارميزان وبيستو 10 جنية</t>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>657.25</v>
+        <v>657.5</v>
       </c>
       <c r="E30" t="s">
         <v>2181</v>
@@ -7450,7 +7450,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>256</v>
+        <v>258.5</v>
       </c>
       <c r="E31" t="s">
         <v>2181</v>
@@ -7535,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>52.55384908659109</v>
+        <v>52.75</v>
       </c>
       <c r="E36" t="s">
         <v>2180</v>
@@ -7552,7 +7552,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>1051.076981731822</v>
+        <v>1055</v>
       </c>
       <c r="E37" t="s">
         <v>2181</v>
@@ -7790,7 +7790,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>59.7</v>
+        <v>59.75651224178903</v>
       </c>
       <c r="E51" t="s">
         <v>2180</v>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>477.6</v>
+        <v>478.0520979343123</v>
       </c>
       <c r="E52" t="s">
         <v>2181</v>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>289.3026343095531</v>
+        <v>289.247489957586</v>
       </c>
       <c r="E97" t="s">
         <v>2181</v>
@@ -8759,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>319.75</v>
+        <v>321.25</v>
       </c>
       <c r="E108" t="s">
         <v>2181</v>
@@ -9065,7 +9065,7 @@
         <v>3</v>
       </c>
       <c r="D126">
-        <v>49.16535792481561</v>
+        <v>49.16565036934293</v>
       </c>
       <c r="E126" t="s">
         <v>2180</v>
@@ -9082,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>589.9842950977873</v>
+        <v>589.9878044321152</v>
       </c>
       <c r="E127" t="s">
         <v>2181</v>
@@ -9167,7 +9167,7 @@
         <v>10</v>
       </c>
       <c r="D132">
-        <v>19.029375</v>
+        <v>19.2469786233336</v>
       </c>
       <c r="E132" t="s">
         <v>2180</v>
@@ -9184,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>380.5875</v>
+        <v>384.939572466672</v>
       </c>
       <c r="E133" t="s">
         <v>2181</v>
@@ -10612,7 +10612,7 @@
         <v>3</v>
       </c>
       <c r="D217">
-        <v>102.4246175325471</v>
+        <v>102.4246175345298</v>
       </c>
       <c r="E217" t="s">
         <v>2180</v>
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>2458.19082078113</v>
+        <v>2458.190820828715</v>
       </c>
       <c r="E218" t="s">
         <v>2181</v>
@@ -10833,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>62.49823083545076</v>
+        <v>63.04060399115455</v>
       </c>
       <c r="E230" t="s">
         <v>2181</v>
@@ -10884,7 +10884,7 @@
         <v>2</v>
       </c>
       <c r="D233">
-        <v>103.5</v>
+        <v>103.25</v>
       </c>
       <c r="E233" t="s">
         <v>2181</v>
@@ -10918,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="D235">
-        <v>95</v>
+        <v>95.25</v>
       </c>
       <c r="E235" t="s">
         <v>2180</v>
@@ -10935,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E236" t="s">
         <v>2181</v>
@@ -10952,7 +10952,7 @@
         <v>2</v>
       </c>
       <c r="D237">
-        <v>95.25</v>
+        <v>95.5</v>
       </c>
       <c r="E237" t="s">
         <v>2180</v>
@@ -10969,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E238" t="s">
         <v>2181</v>
@@ -11496,7 +11496,7 @@
         <v>3</v>
       </c>
       <c r="D269">
-        <v>95.06304195865494</v>
+        <v>95.02663950121084</v>
       </c>
       <c r="E269" t="s">
         <v>2180</v>
@@ -11513,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>570.3782517519296</v>
+        <v>570.159837007265</v>
       </c>
       <c r="E270" t="s">
         <v>2181</v>
@@ -11530,7 +11530,7 @@
         <v>3</v>
       </c>
       <c r="D271">
-        <v>94.63945588270504</v>
+        <v>94.6488901369575</v>
       </c>
       <c r="E271" t="s">
         <v>2180</v>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>567.8367352962302</v>
+        <v>567.893340821745</v>
       </c>
       <c r="E272" t="s">
         <v>2181</v>
@@ -12040,7 +12040,7 @@
         <v>2</v>
       </c>
       <c r="D301">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E301" t="s">
         <v>2181</v>
@@ -12057,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="D302">
-        <v>501</v>
+        <v>500.5</v>
       </c>
       <c r="E302" t="s">
         <v>2181</v>
@@ -12261,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>88.75</v>
+        <v>89.5</v>
       </c>
       <c r="E314" t="s">
         <v>2181</v>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>178.75</v>
+        <v>177.75</v>
       </c>
       <c r="E315" t="s">
         <v>2181</v>
@@ -12295,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>240.3053546333651</v>
+        <v>240.2949270287813</v>
       </c>
       <c r="E316" t="s">
         <v>2181</v>
@@ -12312,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>240.3356451208399</v>
+        <v>240.3356451208409</v>
       </c>
       <c r="E317" t="s">
         <v>2181</v>
@@ -12329,7 +12329,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>239.9339838697082</v>
+        <v>239.933983869708</v>
       </c>
       <c r="E318" t="s">
         <v>2181</v>
@@ -12567,7 +12567,7 @@
         <v>2</v>
       </c>
       <c r="D332">
-        <v>296.5</v>
+        <v>297</v>
       </c>
       <c r="E332" t="s">
         <v>2181</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>97.5</v>
+        <v>97.25</v>
       </c>
       <c r="E348" t="s">
         <v>2181</v>
@@ -12856,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>125.75</v>
+        <v>125</v>
       </c>
       <c r="E349" t="s">
         <v>2181</v>
@@ -13264,7 +13264,7 @@
         <v>2</v>
       </c>
       <c r="D373">
-        <v>110.25</v>
+        <v>110.1561603639625</v>
       </c>
       <c r="E373" t="s">
         <v>2181</v>
@@ -13298,7 +13298,7 @@
         <v>2</v>
       </c>
       <c r="D375">
-        <v>110.3885981474734</v>
+        <v>110.3971775588509</v>
       </c>
       <c r="E375" t="s">
         <v>2181</v>
@@ -13587,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>283.8282828282829</v>
+        <v>283.8282828282828</v>
       </c>
       <c r="E392" t="s">
         <v>2181</v>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="D467">
-        <v>195.9940831712864</v>
+        <v>195.9940831712865</v>
       </c>
       <c r="E467" t="s">
         <v>2181</v>
@@ -15151,7 +15151,7 @@
         <v>2</v>
       </c>
       <c r="D484">
-        <v>206.0142823616124</v>
+        <v>206.1632178094042</v>
       </c>
       <c r="E484" t="s">
         <v>2181</v>
@@ -15168,7 +15168,7 @@
         <v>29</v>
       </c>
       <c r="D485">
-        <v>291.25</v>
+        <v>291</v>
       </c>
       <c r="E485" t="s">
         <v>2181</v>
@@ -15287,7 +15287,7 @@
         <v>3</v>
       </c>
       <c r="D492">
-        <v>47.75</v>
+        <v>47.25</v>
       </c>
       <c r="E492" t="s">
         <v>2180</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E493" t="s">
         <v>2181</v>
@@ -15321,7 +15321,7 @@
         <v>3</v>
       </c>
       <c r="D494">
-        <v>47.75</v>
+        <v>47.5</v>
       </c>
       <c r="E494" t="s">
         <v>2180</v>
@@ -15338,7 +15338,7 @@
         <v>1</v>
       </c>
       <c r="D495">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E495" t="s">
         <v>2181</v>
@@ -15389,7 +15389,7 @@
         <v>3</v>
       </c>
       <c r="D498">
-        <v>47.75</v>
+        <v>47.5</v>
       </c>
       <c r="E498" t="s">
         <v>2180</v>
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="D499">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E499" t="s">
         <v>2181</v>
@@ -15423,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="D500">
-        <v>142.25</v>
+        <v>141.75</v>
       </c>
       <c r="E500" t="s">
         <v>2181</v>
@@ -15593,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="D510">
-        <v>660.25</v>
+        <v>663.5</v>
       </c>
       <c r="E510" t="s">
         <v>2181</v>
@@ -16375,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="D556">
-        <v>99.25</v>
+        <v>97.5</v>
       </c>
       <c r="E556" t="s">
         <v>2181</v>
@@ -16511,7 +16511,7 @@
         <v>2</v>
       </c>
       <c r="D564">
-        <v>101.4828523442709</v>
+        <v>101.4901606534587</v>
       </c>
       <c r="E564" t="s">
         <v>2181</v>
@@ -16732,7 +16732,7 @@
         <v>2</v>
       </c>
       <c r="D577">
-        <v>262.5</v>
+        <v>264.25</v>
       </c>
       <c r="E577" t="s">
         <v>2181</v>
@@ -16783,7 +16783,7 @@
         <v>2</v>
       </c>
       <c r="D580">
-        <v>51.864375</v>
+        <v>53.71391811148052</v>
       </c>
       <c r="E580" t="s">
         <v>2181</v>
@@ -16834,7 +16834,7 @@
         <v>3</v>
       </c>
       <c r="D583">
-        <v>101.020109634674</v>
+        <v>100.416496152349</v>
       </c>
       <c r="E583" t="s">
         <v>2180</v>
@@ -16851,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="D584">
-        <v>1616.321754154784</v>
+        <v>1606.663938437584</v>
       </c>
       <c r="E584" t="s">
         <v>2181</v>
@@ -16868,7 +16868,7 @@
         <v>3</v>
       </c>
       <c r="D585">
-        <v>98.505</v>
+        <v>98.38062499999999</v>
       </c>
       <c r="E585" t="s">
         <v>2180</v>
@@ -16885,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="D586">
-        <v>1576.08</v>
+        <v>1574.09</v>
       </c>
       <c r="E586" t="s">
         <v>2181</v>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="D623">
-        <v>381.351813345563</v>
+        <v>381.3055710575139</v>
       </c>
       <c r="E623" t="s">
         <v>2181</v>
@@ -17548,7 +17548,7 @@
         <v>1</v>
       </c>
       <c r="D625">
-        <v>398</v>
+        <v>398.5</v>
       </c>
       <c r="E625" t="s">
         <v>2181</v>
@@ -18449,7 +18449,7 @@
         <v>3</v>
       </c>
       <c r="D678">
-        <v>180.25</v>
+        <v>182</v>
       </c>
       <c r="E678" t="s">
         <v>2180</v>
@@ -18466,7 +18466,7 @@
         <v>1</v>
       </c>
       <c r="D679">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="E679" t="s">
         <v>2181</v>
@@ -19214,7 +19214,7 @@
         <v>3</v>
       </c>
       <c r="D723">
-        <v>54.75</v>
+        <v>55.25</v>
       </c>
       <c r="E723" t="s">
         <v>2180</v>
@@ -19231,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="D724">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E724" t="s">
         <v>2181</v>
@@ -19384,7 +19384,7 @@
         <v>2</v>
       </c>
       <c r="D733">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E733" t="s">
         <v>2181</v>
@@ -19401,7 +19401,7 @@
         <v>2</v>
       </c>
       <c r="D734">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E734" t="s">
         <v>2181</v>
@@ -21713,7 +21713,7 @@
         <v>3</v>
       </c>
       <c r="D870">
-        <v>47.09037500358904</v>
+        <v>47.08990830194088</v>
       </c>
       <c r="E870" t="s">
         <v>2180</v>
@@ -21730,7 +21730,7 @@
         <v>1</v>
       </c>
       <c r="D871">
-        <v>188.3615000143562</v>
+        <v>188.3596332077635</v>
       </c>
       <c r="E871" t="s">
         <v>2181</v>
@@ -22036,7 +22036,7 @@
         <v>3</v>
       </c>
       <c r="D889">
-        <v>47.51927343700542</v>
+        <v>47.51803464288154</v>
       </c>
       <c r="E889" t="s">
         <v>2180</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="D890">
-        <v>190.0770937480217</v>
+        <v>190.0721385715262</v>
       </c>
       <c r="E890" t="s">
         <v>2181</v>
@@ -22291,7 +22291,7 @@
         <v>2</v>
       </c>
       <c r="D904">
-        <v>39.75</v>
+        <v>39.25</v>
       </c>
       <c r="E904" t="s">
         <v>2180</v>
@@ -22308,7 +22308,7 @@
         <v>1</v>
       </c>
       <c r="D905">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E905" t="s">
         <v>2181</v>
@@ -23532,7 +23532,7 @@
         <v>3</v>
       </c>
       <c r="D977">
-        <v>48.45941894579914</v>
+        <v>48.48541017956198</v>
       </c>
       <c r="E977" t="s">
         <v>2180</v>
@@ -23549,7 +23549,7 @@
         <v>1</v>
       </c>
       <c r="D978">
-        <v>484.5941894579914</v>
+        <v>484.8541017956198</v>
       </c>
       <c r="E978" t="s">
         <v>2181</v>
@@ -23566,7 +23566,7 @@
         <v>3</v>
       </c>
       <c r="D979">
-        <v>48.51794370348862</v>
+        <v>48.53395170583047</v>
       </c>
       <c r="E979" t="s">
         <v>2180</v>
@@ -23583,7 +23583,7 @@
         <v>1</v>
       </c>
       <c r="D980">
-        <v>485.1794370348862</v>
+        <v>485.3395170583047</v>
       </c>
       <c r="E980" t="s">
         <v>2181</v>
@@ -23838,7 +23838,7 @@
         <v>1</v>
       </c>
       <c r="D995">
-        <v>664.5</v>
+        <v>676.5</v>
       </c>
       <c r="E995" t="s">
         <v>2181</v>
@@ -24569,7 +24569,7 @@
         <v>1</v>
       </c>
       <c r="D1038">
-        <v>142.2734732726899</v>
+        <v>141.9377333748222</v>
       </c>
       <c r="E1038" t="s">
         <v>2181</v>
@@ -25351,7 +25351,7 @@
         <v>3</v>
       </c>
       <c r="D1084">
-        <v>349.0290131579989</v>
+        <v>350.115625</v>
       </c>
       <c r="E1084" t="s">
         <v>2180</v>
@@ -25368,7 +25368,7 @@
         <v>1</v>
       </c>
       <c r="D1085">
-        <v>1745.145065789994</v>
+        <v>1750.578125</v>
       </c>
       <c r="E1085" t="s">
         <v>2181</v>
@@ -25385,7 +25385,7 @@
         <v>3</v>
       </c>
       <c r="D1086">
-        <v>347.6329172747588</v>
+        <v>349.1269489386028</v>
       </c>
       <c r="E1086" t="s">
         <v>2180</v>
@@ -25402,7 +25402,7 @@
         <v>1</v>
       </c>
       <c r="D1087">
-        <v>1738.164586373794</v>
+        <v>1745.634744693014</v>
       </c>
       <c r="E1087" t="s">
         <v>2181</v>
@@ -25436,7 +25436,7 @@
         <v>1</v>
       </c>
       <c r="D1089">
-        <v>283.8181054324329</v>
+        <v>283.6808470650115</v>
       </c>
       <c r="E1089" t="s">
         <v>2181</v>
@@ -25572,7 +25572,7 @@
         <v>1</v>
       </c>
       <c r="D1097">
-        <v>254.595625</v>
+        <v>253.75</v>
       </c>
       <c r="E1097" t="s">
         <v>2181</v>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="D1126">
-        <v>345.4243881661218</v>
+        <v>345.424388166122</v>
       </c>
       <c r="E1126" t="s">
         <v>2181</v>
@@ -26405,7 +26405,7 @@
         <v>3</v>
       </c>
       <c r="D1146">
-        <v>273.5</v>
+        <v>280.5</v>
       </c>
       <c r="E1146" t="s">
         <v>2180</v>
@@ -26422,7 +26422,7 @@
         <v>4</v>
       </c>
       <c r="D1147">
-        <v>3282</v>
+        <v>3366</v>
       </c>
       <c r="E1147" t="s">
         <v>2181</v>
@@ -26439,7 +26439,7 @@
         <v>1</v>
       </c>
       <c r="D1148">
-        <v>6564</v>
+        <v>6732</v>
       </c>
       <c r="E1148" t="s">
         <v>2181</v>
@@ -26456,7 +26456,7 @@
         <v>3</v>
       </c>
       <c r="D1149">
-        <v>256</v>
+        <v>264.5</v>
       </c>
       <c r="E1149" t="s">
         <v>2180</v>
@@ -26473,7 +26473,7 @@
         <v>4</v>
       </c>
       <c r="D1150">
-        <v>1280</v>
+        <v>1322.5</v>
       </c>
       <c r="E1150" t="s">
         <v>2181</v>
@@ -26490,7 +26490,7 @@
         <v>1</v>
       </c>
       <c r="D1151">
-        <v>6400</v>
+        <v>6612.5</v>
       </c>
       <c r="E1151" t="s">
         <v>2181</v>
@@ -26507,7 +26507,7 @@
         <v>3</v>
       </c>
       <c r="D1152">
-        <v>255.75</v>
+        <v>258</v>
       </c>
       <c r="E1152" t="s">
         <v>2180</v>
@@ -26524,7 +26524,7 @@
         <v>4</v>
       </c>
       <c r="D1153">
-        <v>1278.75</v>
+        <v>1290</v>
       </c>
       <c r="E1153" t="s">
         <v>2181</v>
@@ -26541,7 +26541,7 @@
         <v>1</v>
       </c>
       <c r="D1154">
-        <v>6393.75</v>
+        <v>6450</v>
       </c>
       <c r="E1154" t="s">
         <v>2181</v>
@@ -26881,7 +26881,7 @@
         <v>2</v>
       </c>
       <c r="D1174">
-        <v>102.1915706648427</v>
+        <v>102.2125548827815</v>
       </c>
       <c r="E1174" t="s">
         <v>2181</v>
@@ -26932,7 +26932,7 @@
         <v>1</v>
       </c>
       <c r="D1177">
-        <v>94.36536022687638</v>
+        <v>94.34459218622878</v>
       </c>
       <c r="E1177" t="s">
         <v>2181</v>
@@ -26983,7 +26983,7 @@
         <v>1</v>
       </c>
       <c r="D1180">
-        <v>94.04193325753485</v>
+        <v>94.03930783915919</v>
       </c>
       <c r="E1180" t="s">
         <v>2181</v>
@@ -28122,7 +28122,7 @@
         <v>1</v>
       </c>
       <c r="D1247">
-        <v>50.88066807812075</v>
+        <v>51</v>
       </c>
       <c r="E1247" t="s">
         <v>2181</v>
@@ -28139,7 +28139,7 @@
         <v>1</v>
       </c>
       <c r="D1248">
-        <v>50.23631399243805</v>
+        <v>50.2378361038085</v>
       </c>
       <c r="E1248" t="s">
         <v>2181</v>
@@ -28156,7 +28156,7 @@
         <v>1</v>
       </c>
       <c r="D1249">
-        <v>51.68170822907134</v>
+        <v>51.69097642487838</v>
       </c>
       <c r="E1249" t="s">
         <v>2181</v>
@@ -28173,7 +28173,7 @@
         <v>1</v>
       </c>
       <c r="D1250">
-        <v>49.49574928406633</v>
+        <v>48.60777852579752</v>
       </c>
       <c r="E1250" t="s">
         <v>2181</v>
@@ -28224,7 +28224,7 @@
         <v>1</v>
       </c>
       <c r="D1253">
-        <v>50.34318653945942</v>
+        <v>49.60376489123288</v>
       </c>
       <c r="E1253" t="s">
         <v>2181</v>
@@ -28241,7 +28241,7 @@
         <v>1</v>
       </c>
       <c r="D1254">
-        <v>50.8536666505531</v>
+        <v>49.92437915416087</v>
       </c>
       <c r="E1254" t="s">
         <v>2181</v>
@@ -28275,7 +28275,7 @@
         <v>1</v>
       </c>
       <c r="D1256">
-        <v>51.68458207522601</v>
+        <v>51.69529644006449</v>
       </c>
       <c r="E1256" t="s">
         <v>2181</v>
@@ -28292,7 +28292,7 @@
         <v>1</v>
       </c>
       <c r="D1257">
-        <v>51.68385688106899</v>
+        <v>51.71601372180199</v>
       </c>
       <c r="E1257" t="s">
         <v>2181</v>
@@ -28326,7 +28326,7 @@
         <v>1</v>
       </c>
       <c r="D1259">
-        <v>51.68756480856165</v>
+        <v>51.68868893939551</v>
       </c>
       <c r="E1259" t="s">
         <v>2181</v>
@@ -28343,7 +28343,7 @@
         <v>1</v>
       </c>
       <c r="D1260">
-        <v>50.6963543698357</v>
+        <v>50.75</v>
       </c>
       <c r="E1260" t="s">
         <v>2181</v>
@@ -28377,7 +28377,7 @@
         <v>1</v>
       </c>
       <c r="D1262">
-        <v>51.75005917759179</v>
+        <v>51.75042290456103</v>
       </c>
       <c r="E1262" t="s">
         <v>2181</v>
@@ -28513,7 +28513,7 @@
         <v>1</v>
       </c>
       <c r="D1270">
-        <v>85.54613197080681</v>
+        <v>82.90682379921982</v>
       </c>
       <c r="E1270" t="s">
         <v>2181</v>
@@ -28530,7 +28530,7 @@
         <v>1</v>
       </c>
       <c r="D1271">
-        <v>85.54953248192299</v>
+        <v>82.79921035411587</v>
       </c>
       <c r="E1271" t="s">
         <v>2181</v>
@@ -28564,7 +28564,7 @@
         <v>1</v>
       </c>
       <c r="D1273">
-        <v>83.44262075418786</v>
+        <v>81.69684468262793</v>
       </c>
       <c r="E1273" t="s">
         <v>2181</v>
@@ -28581,7 +28581,7 @@
         <v>1</v>
       </c>
       <c r="D1274">
-        <v>85.55037190698393</v>
+        <v>83.22966129943929</v>
       </c>
       <c r="E1274" t="s">
         <v>2181</v>
@@ -28598,7 +28598,7 @@
         <v>1</v>
       </c>
       <c r="D1275">
-        <v>85.55001403111714</v>
+        <v>82.25288002909386</v>
       </c>
       <c r="E1275" t="s">
         <v>2181</v>
@@ -28632,7 +28632,7 @@
         <v>1</v>
       </c>
       <c r="D1277">
-        <v>84.17621333189112</v>
+        <v>84.17621771663879</v>
       </c>
       <c r="E1277" t="s">
         <v>2181</v>
@@ -28700,7 +28700,7 @@
         <v>1</v>
       </c>
       <c r="D1281">
-        <v>85.54841523050062</v>
+        <v>82.14223330674626</v>
       </c>
       <c r="E1281" t="s">
         <v>2181</v>
@@ -28717,7 +28717,7 @@
         <v>1</v>
       </c>
       <c r="D1282">
-        <v>83.44262075418786</v>
+        <v>82.79934865133521</v>
       </c>
       <c r="E1282" t="s">
         <v>2181</v>
@@ -28887,7 +28887,7 @@
         <v>3</v>
       </c>
       <c r="D1292">
-        <v>97.29457771474445</v>
+        <v>97.29457771474446</v>
       </c>
       <c r="E1292" t="s">
         <v>2180</v>
@@ -28921,7 +28921,7 @@
         <v>3</v>
       </c>
       <c r="D1294">
-        <v>96.19784219440821</v>
+        <v>96.19784219440822</v>
       </c>
       <c r="E1294" t="s">
         <v>2180</v>
@@ -28938,7 +28938,7 @@
         <v>1</v>
       </c>
       <c r="D1295">
-        <v>1154.374106332898</v>
+        <v>1154.374106332899</v>
       </c>
       <c r="E1295" t="s">
         <v>2181</v>
@@ -28989,7 +28989,7 @@
         <v>3</v>
       </c>
       <c r="D1298">
-        <v>97.29457771474445</v>
+        <v>97.29457771474446</v>
       </c>
       <c r="E1298" t="s">
         <v>2180</v>
@@ -29227,7 +29227,7 @@
         <v>3</v>
       </c>
       <c r="D1312">
-        <v>139.407013908408</v>
+        <v>139.2825576113834</v>
       </c>
       <c r="E1312" t="s">
         <v>2180</v>
@@ -29244,7 +29244,7 @@
         <v>1</v>
       </c>
       <c r="D1313">
-        <v>836.4420834504482</v>
+        <v>835.6953456683005</v>
       </c>
       <c r="E1313" t="s">
         <v>2181</v>
@@ -29465,7 +29465,7 @@
         <v>1</v>
       </c>
       <c r="D1326">
-        <v>775.75</v>
+        <v>785.75</v>
       </c>
       <c r="E1326" t="s">
         <v>2181</v>
@@ -29499,7 +29499,7 @@
         <v>1</v>
       </c>
       <c r="D1328">
-        <v>455.5</v>
+        <v>450.5</v>
       </c>
       <c r="E1328" t="s">
         <v>2181</v>
@@ -30111,7 +30111,7 @@
         <v>3</v>
       </c>
       <c r="D1364">
-        <v>74.25</v>
+        <v>71.75</v>
       </c>
       <c r="E1364" t="s">
         <v>2180</v>
@@ -30128,7 +30128,7 @@
         <v>1</v>
       </c>
       <c r="D1365">
-        <v>891</v>
+        <v>861</v>
       </c>
       <c r="E1365" t="s">
         <v>2181</v>
@@ -30706,7 +30706,7 @@
         <v>3</v>
       </c>
       <c r="D1399">
-        <v>173.5230033665141</v>
+        <v>173.75</v>
       </c>
       <c r="E1399" t="s">
         <v>2180</v>
@@ -30723,7 +30723,7 @@
         <v>1</v>
       </c>
       <c r="D1400">
-        <v>1041.138020199084</v>
+        <v>1042.5</v>
       </c>
       <c r="E1400" t="s">
         <v>2181</v>
@@ -31284,7 +31284,7 @@
         <v>3</v>
       </c>
       <c r="D1433">
-        <v>23.6430289982225</v>
+        <v>23.6430290292227</v>
       </c>
       <c r="E1433" t="s">
         <v>2180</v>
@@ -31301,7 +31301,7 @@
         <v>1</v>
       </c>
       <c r="D1434">
-        <v>283.71634797867</v>
+        <v>283.7163483506724</v>
       </c>
       <c r="E1434" t="s">
         <v>2181</v>
@@ -31318,7 +31318,7 @@
         <v>3</v>
       </c>
       <c r="D1435">
-        <v>23.64300139893225</v>
+        <v>23.64300626162186</v>
       </c>
       <c r="E1435" t="s">
         <v>2180</v>
@@ -31335,7 +31335,7 @@
         <v>1</v>
       </c>
       <c r="D1436">
-        <v>283.716016787187</v>
+        <v>283.7160751394624</v>
       </c>
       <c r="E1436" t="s">
         <v>2181</v>
@@ -32661,7 +32661,7 @@
         <v>3</v>
       </c>
       <c r="D1514">
-        <v>23.78517540332872</v>
+        <v>23.78558470202488</v>
       </c>
       <c r="E1514" t="s">
         <v>2180</v>
@@ -32678,7 +32678,7 @@
         <v>1</v>
       </c>
       <c r="D1515">
-        <v>285.4221048399447</v>
+        <v>285.4270164242986</v>
       </c>
       <c r="E1515" t="s">
         <v>2181</v>
@@ -32797,7 +32797,7 @@
         <v>3</v>
       </c>
       <c r="D1522">
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="E1522" t="s">
         <v>2180</v>
@@ -32814,7 +32814,7 @@
         <v>1</v>
       </c>
       <c r="D1523">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E1523" t="s">
         <v>2181</v>
@@ -33035,7 +33035,7 @@
         <v>1</v>
       </c>
       <c r="D1536">
-        <v>90.89831409777345</v>
+        <v>90.89889844591926</v>
       </c>
       <c r="E1536" t="s">
         <v>2181</v>
@@ -33052,7 +33052,7 @@
         <v>1</v>
       </c>
       <c r="D1537">
-        <v>92.54123973010022</v>
+        <v>92.54587225880813</v>
       </c>
       <c r="E1537" t="s">
         <v>2181</v>
@@ -33069,7 +33069,7 @@
         <v>1</v>
       </c>
       <c r="D1538">
-        <v>91.33219711864767</v>
+        <v>91.33431981114151</v>
       </c>
       <c r="E1538" t="s">
         <v>2181</v>
@@ -33086,7 +33086,7 @@
         <v>1</v>
       </c>
       <c r="D1539">
-        <v>90.57696200154123</v>
+        <v>91.12597762205165</v>
       </c>
       <c r="E1539" t="s">
         <v>2181</v>
@@ -33103,7 +33103,7 @@
         <v>1</v>
       </c>
       <c r="D1540">
-        <v>91.2226681270878</v>
+        <v>91.4431280484299</v>
       </c>
       <c r="E1540" t="s">
         <v>2181</v>
@@ -33120,7 +33120,7 @@
         <v>1</v>
       </c>
       <c r="D1541">
-        <v>134.1610050059511</v>
+        <v>135.123494505803</v>
       </c>
       <c r="E1541" t="s">
         <v>2181</v>
@@ -33137,7 +33137,7 @@
         <v>1</v>
       </c>
       <c r="D1542">
-        <v>135.1279367638591</v>
+        <v>135.1283530904679</v>
       </c>
       <c r="E1542" t="s">
         <v>2181</v>
@@ -33154,7 +33154,7 @@
         <v>1</v>
       </c>
       <c r="D1543">
-        <v>136.2778276304994</v>
+        <v>136.2783815818977</v>
       </c>
       <c r="E1543" t="s">
         <v>2181</v>
@@ -33171,7 +33171,7 @@
         <v>1</v>
       </c>
       <c r="D1544">
-        <v>135.8645096744969</v>
+        <v>135.8647396092862</v>
       </c>
       <c r="E1544" t="s">
         <v>2181</v>
@@ -33188,7 +33188,7 @@
         <v>1</v>
       </c>
       <c r="D1545">
-        <v>133.6263568282574</v>
+        <v>135.1281171073504</v>
       </c>
       <c r="E1545" t="s">
         <v>2181</v>
@@ -33205,7 +33205,7 @@
         <v>1</v>
       </c>
       <c r="D1546">
-        <v>136.2783277912772</v>
+        <v>136.2788492989027</v>
       </c>
       <c r="E1546" t="s">
         <v>2181</v>
@@ -33222,7 +33222,7 @@
         <v>1</v>
       </c>
       <c r="D1547">
-        <v>91.67241083676221</v>
+        <v>91.67274444750579</v>
       </c>
       <c r="E1547" t="s">
         <v>2181</v>
@@ -33239,7 +33239,7 @@
         <v>1</v>
       </c>
       <c r="D1548">
-        <v>91.67990297867176</v>
+        <v>91.68013427933484</v>
       </c>
       <c r="E1548" t="s">
         <v>2181</v>
@@ -33256,7 +33256,7 @@
         <v>1</v>
       </c>
       <c r="D1549">
-        <v>90.0691612944032</v>
+        <v>91.254620997511</v>
       </c>
       <c r="E1549" t="s">
         <v>2181</v>
@@ -33273,7 +33273,7 @@
         <v>1</v>
       </c>
       <c r="D1550">
-        <v>92.50293093119303</v>
+        <v>92.51273624427954</v>
       </c>
       <c r="E1550" t="s">
         <v>2181</v>
@@ -33290,7 +33290,7 @@
         <v>1</v>
       </c>
       <c r="D1551">
-        <v>92.51138029534521</v>
+        <v>92.52587215294531</v>
       </c>
       <c r="E1551" t="s">
         <v>2181</v>
@@ -33307,7 +33307,7 @@
         <v>1</v>
       </c>
       <c r="D1552">
-        <v>92.4751600812845</v>
+        <v>92.48955959666094</v>
       </c>
       <c r="E1552" t="s">
         <v>2181</v>
@@ -33341,7 +33341,7 @@
         <v>1</v>
       </c>
       <c r="D1554">
-        <v>136.2496413236489</v>
+        <v>136.251155206608</v>
       </c>
       <c r="E1554" t="s">
         <v>2181</v>
@@ -33358,7 +33358,7 @@
         <v>1</v>
       </c>
       <c r="D1555">
-        <v>133.1887676460039</v>
+        <v>133.1892920448811</v>
       </c>
       <c r="E1555" t="s">
         <v>2181</v>
@@ -33375,7 +33375,7 @@
         <v>1</v>
       </c>
       <c r="D1556">
-        <v>136.2526241696082</v>
+        <v>136.2531976986754</v>
       </c>
       <c r="E1556" t="s">
         <v>2181</v>
@@ -33392,7 +33392,7 @@
         <v>1</v>
       </c>
       <c r="D1557">
-        <v>136.2365217946612</v>
+        <v>136.2397240071466</v>
       </c>
       <c r="E1557" t="s">
         <v>2181</v>
@@ -33800,7 +33800,7 @@
         <v>10</v>
       </c>
       <c r="D1581">
-        <v>122.8702507953252</v>
+        <v>122.7959548600493</v>
       </c>
       <c r="E1581" t="s">
         <v>2180</v>
@@ -33817,7 +33817,7 @@
         <v>1</v>
       </c>
       <c r="D1582">
-        <v>2948.886019087804</v>
+        <v>2947.102916641183</v>
       </c>
       <c r="E1582" t="s">
         <v>2181</v>
@@ -34769,7 +34769,7 @@
         <v>1</v>
       </c>
       <c r="D1638">
-        <v>88.02714481398867</v>
+        <v>88.02714481400403</v>
       </c>
       <c r="E1638" t="s">
         <v>2181</v>
@@ -34803,7 +34803,7 @@
         <v>1</v>
       </c>
       <c r="D1640">
-        <v>90.45230991441906</v>
+        <v>89.18911458213522</v>
       </c>
       <c r="E1640" t="s">
         <v>2181</v>
@@ -34820,7 +34820,7 @@
         <v>1</v>
       </c>
       <c r="D1641">
-        <v>89.08518084648891</v>
+        <v>87.80875</v>
       </c>
       <c r="E1641" t="s">
         <v>2181</v>
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="D1643">
-        <v>88.13450329096636</v>
+        <v>88.13450329096639</v>
       </c>
       <c r="E1643" t="s">
         <v>2181</v>
@@ -34888,7 +34888,7 @@
         <v>1</v>
       </c>
       <c r="D1645">
-        <v>88.1345032908872</v>
+        <v>88.13450329088961</v>
       </c>
       <c r="E1645" t="s">
         <v>2181</v>
@@ -34905,7 +34905,7 @@
         <v>1</v>
       </c>
       <c r="D1646">
-        <v>89.29271488596309</v>
+        <v>87.684375</v>
       </c>
       <c r="E1646" t="s">
         <v>2181</v>
@@ -34956,7 +34956,7 @@
         <v>1</v>
       </c>
       <c r="D1649">
-        <v>89.92334903772655</v>
+        <v>89.95526909063041</v>
       </c>
       <c r="E1649" t="s">
         <v>2181</v>
@@ -35007,7 +35007,7 @@
         <v>3</v>
       </c>
       <c r="D1652">
-        <v>95.4298291152931</v>
+        <v>95.65687137719421</v>
       </c>
       <c r="E1652" t="s">
         <v>2180</v>
@@ -35024,7 +35024,7 @@
         <v>1</v>
       </c>
       <c r="D1653">
-        <v>763.4386329223448</v>
+        <v>765.2549710175537</v>
       </c>
       <c r="E1653" t="s">
         <v>2181</v>
@@ -38220,7 +38220,7 @@
         <v>1</v>
       </c>
       <c r="D1841">
-        <v>489.75</v>
+        <v>487</v>
       </c>
       <c r="E1841" t="s">
         <v>2181</v>
@@ -38322,7 +38322,7 @@
         <v>1</v>
       </c>
       <c r="D1847">
-        <v>232.3736096412323</v>
+        <v>232.3681438736511</v>
       </c>
       <c r="E1847" t="s">
         <v>2181</v>
@@ -38339,7 +38339,7 @@
         <v>1</v>
       </c>
       <c r="D1848">
-        <v>232.3181163115637</v>
+        <v>232.3165118366222</v>
       </c>
       <c r="E1848" t="s">
         <v>2181</v>
@@ -38390,7 +38390,7 @@
         <v>1</v>
       </c>
       <c r="D1851">
-        <v>232.8136730932943</v>
+        <v>232.7683055761007</v>
       </c>
       <c r="E1851" t="s">
         <v>2181</v>
@@ -39410,7 +39410,7 @@
         <v>3</v>
       </c>
       <c r="D1911">
-        <v>41.52142168000818</v>
+        <v>41.51910348787194</v>
       </c>
       <c r="E1911" t="s">
         <v>2180</v>
@@ -39427,7 +39427,7 @@
         <v>1</v>
       </c>
       <c r="D1912">
-        <v>498.2570601600981</v>
+        <v>498.2292418544632</v>
       </c>
       <c r="E1912" t="s">
         <v>2181</v>
@@ -39750,7 +39750,7 @@
         <v>2</v>
       </c>
       <c r="D1931">
-        <v>103.5</v>
+        <v>102.75</v>
       </c>
       <c r="E1931" t="s">
         <v>2181</v>
@@ -39988,7 +39988,7 @@
         <v>1</v>
       </c>
       <c r="D1945">
-        <v>283.201875</v>
+        <v>279.84375</v>
       </c>
       <c r="E1945" t="s">
         <v>2181</v>
@@ -40005,7 +40005,7 @@
         <v>1</v>
       </c>
       <c r="D1946">
-        <v>281.0875</v>
+        <v>277.605</v>
       </c>
       <c r="E1946" t="s">
         <v>2181</v>
@@ -40022,7 +40022,7 @@
         <v>1</v>
       </c>
       <c r="D1947">
-        <v>282.58</v>
+        <v>281.585</v>
       </c>
       <c r="E1947" t="s">
         <v>2181</v>
@@ -40039,7 +40039,7 @@
         <v>1</v>
       </c>
       <c r="D1948">
-        <v>280.25</v>
+        <v>287.928125</v>
       </c>
       <c r="E1948" t="s">
         <v>2181</v>
@@ -40056,7 +40056,7 @@
         <v>1</v>
       </c>
       <c r="D1949">
-        <v>295.25</v>
+        <v>292.156875</v>
       </c>
       <c r="E1949" t="s">
         <v>2181</v>
@@ -40073,7 +40073,7 @@
         <v>1</v>
       </c>
       <c r="D1950">
-        <v>283.8743698914328</v>
+        <v>281.33625</v>
       </c>
       <c r="E1950" t="s">
         <v>2181</v>
@@ -40141,7 +40141,7 @@
         <v>3</v>
       </c>
       <c r="D1954">
-        <v>95.25</v>
+        <v>93</v>
       </c>
       <c r="E1954" t="s">
         <v>2180</v>
@@ -40158,7 +40158,7 @@
         <v>1</v>
       </c>
       <c r="D1955">
-        <v>2286</v>
+        <v>2232</v>
       </c>
       <c r="E1955" t="s">
         <v>2181</v>
@@ -40277,7 +40277,7 @@
         <v>3</v>
       </c>
       <c r="D1962">
-        <v>143.52875</v>
+        <v>146.3554843903877</v>
       </c>
       <c r="E1962" t="s">
         <v>2180</v>
@@ -40294,7 +40294,7 @@
         <v>1</v>
       </c>
       <c r="D1963">
-        <v>1722.345</v>
+        <v>1756.265812684653</v>
       </c>
       <c r="E1963" t="s">
         <v>2181</v>
@@ -40515,7 +40515,7 @@
         <v>3</v>
       </c>
       <c r="D1976">
-        <v>83.5</v>
+        <v>83.75</v>
       </c>
       <c r="E1976" t="s">
         <v>2180</v>
@@ -40532,7 +40532,7 @@
         <v>1</v>
       </c>
       <c r="D1977">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E1977" t="s">
         <v>2181</v>
@@ -40549,7 +40549,7 @@
         <v>3</v>
       </c>
       <c r="D1978">
-        <v>103</v>
+        <v>101.5</v>
       </c>
       <c r="E1978" t="s">
         <v>2180</v>
@@ -40566,7 +40566,7 @@
         <v>1</v>
       </c>
       <c r="D1979">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="E1979" t="s">
         <v>2181</v>
@@ -40651,7 +40651,7 @@
         <v>3</v>
       </c>
       <c r="D1984">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="E1984" t="s">
         <v>2180</v>
@@ -40668,7 +40668,7 @@
         <v>1</v>
       </c>
       <c r="D1985">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E1985" t="s">
         <v>2181</v>
@@ -43235,7 +43235,7 @@
         <v>2</v>
       </c>
       <c r="D2136">
-        <v>212.5</v>
+        <v>220.25</v>
       </c>
       <c r="E2136" t="s">
         <v>2181</v>
@@ -43337,7 +43337,7 @@
         <v>3</v>
       </c>
       <c r="D2142">
-        <v>48.05956173161795</v>
+        <v>48.05512882938697</v>
       </c>
       <c r="E2142" t="s">
         <v>2180</v>
@@ -43354,7 +43354,7 @@
         <v>1</v>
       </c>
       <c r="D2143">
-        <v>192.2382469264718</v>
+        <v>192.2205153175479</v>
       </c>
       <c r="E2143" t="s">
         <v>2181</v>
@@ -43371,7 +43371,7 @@
         <v>3</v>
       </c>
       <c r="D2144">
-        <v>48.03579953221665</v>
+        <v>48.03443889813425</v>
       </c>
       <c r="E2144" t="s">
         <v>2180</v>
@@ -43388,7 +43388,7 @@
         <v>1</v>
       </c>
       <c r="D2145">
-        <v>192.1431981288666</v>
+        <v>192.137755592537</v>
       </c>
       <c r="E2145" t="s">
         <v>2181</v>
@@ -43405,7 +43405,7 @@
         <v>3</v>
       </c>
       <c r="D2146">
-        <v>48.04448726592967</v>
+        <v>48.03988604211161</v>
       </c>
       <c r="E2146" t="s">
         <v>2180</v>
@@ -43422,7 +43422,7 @@
         <v>1</v>
       </c>
       <c r="D2147">
-        <v>192.1779490637187</v>
+        <v>192.1595441684464</v>
       </c>
       <c r="E2147" t="s">
         <v>2181</v>
@@ -45224,7 +45224,7 @@
         <v>2</v>
       </c>
       <c r="D2253">
-        <v>100.5221994073348</v>
+        <v>100.5221962332628</v>
       </c>
       <c r="E2253" t="s">
         <v>2181</v>
@@ -45462,7 +45462,7 @@
         <v>1</v>
       </c>
       <c r="D2267">
-        <v>498.5</v>
+        <v>498.75</v>
       </c>
       <c r="E2267" t="s">
         <v>2181</v>
@@ -45853,7 +45853,7 @@
         <v>3</v>
       </c>
       <c r="D2290">
-        <v>47.14725388580951</v>
+        <v>47.14807179370239</v>
       </c>
       <c r="E2290" t="s">
         <v>2180</v>
@@ -45870,7 +45870,7 @@
         <v>1</v>
       </c>
       <c r="D2291">
-        <v>282.8835233148571</v>
+        <v>282.8884307622143</v>
       </c>
       <c r="E2291" t="s">
         <v>2181</v>
@@ -45921,7 +45921,7 @@
         <v>2</v>
       </c>
       <c r="D2294">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E2294" t="s">
         <v>2181</v>
@@ -46057,7 +46057,7 @@
         <v>1</v>
       </c>
       <c r="D2302">
-        <v>270.25</v>
+        <v>271</v>
       </c>
       <c r="E2302" t="s">
         <v>2181</v>
@@ -46550,7 +46550,7 @@
         <v>3</v>
       </c>
       <c r="D2331">
-        <v>108.5737301343287</v>
+        <v>108.5737301343288</v>
       </c>
       <c r="E2331" t="s">
         <v>2180</v>
@@ -46567,7 +46567,7 @@
         <v>1</v>
       </c>
       <c r="D2332">
-        <v>651.4423808059724</v>
+        <v>651.4423808059727</v>
       </c>
       <c r="E2332" t="s">
         <v>2181</v>
@@ -46686,7 +46686,7 @@
         <v>7</v>
       </c>
       <c r="D2339">
-        <v>45</v>
+        <v>44.75</v>
       </c>
       <c r="E2339" t="s">
         <v>2180</v>
@@ -46703,7 +46703,7 @@
         <v>1</v>
       </c>
       <c r="D2340">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E2340" t="s">
         <v>2181</v>
@@ -46839,7 +46839,7 @@
         <v>3</v>
       </c>
       <c r="D2348">
-        <v>47.33193662653483</v>
+        <v>47.33208422075146</v>
       </c>
       <c r="E2348" t="s">
         <v>2180</v>
@@ -46856,7 +46856,7 @@
         <v>1</v>
       </c>
       <c r="D2349">
-        <v>567.983239518418</v>
+        <v>567.9850106490176</v>
       </c>
       <c r="E2349" t="s">
         <v>2181</v>
@@ -46873,7 +46873,7 @@
         <v>3</v>
       </c>
       <c r="D2350">
-        <v>47.33255292886489</v>
+        <v>47.33257423986597</v>
       </c>
       <c r="E2350" t="s">
         <v>2180</v>
@@ -46890,7 +46890,7 @@
         <v>1</v>
       </c>
       <c r="D2351">
-        <v>567.9906351463787</v>
+        <v>567.9908908783916</v>
       </c>
       <c r="E2351" t="s">
         <v>2181</v>
@@ -47213,7 +47213,7 @@
         <v>1</v>
       </c>
       <c r="D2370">
-        <v>87.63229274518169</v>
+        <v>87.63221821464427</v>
       </c>
       <c r="E2370" t="s">
         <v>2181</v>
@@ -47230,7 +47230,7 @@
         <v>1</v>
       </c>
       <c r="D2371">
-        <v>87.62322332909552</v>
+        <v>87.62337762982017</v>
       </c>
       <c r="E2371" t="s">
         <v>2181</v>
@@ -47587,7 +47587,7 @@
         <v>1</v>
       </c>
       <c r="D2392">
-        <v>244.6182663192892</v>
+        <v>243.1748890150441</v>
       </c>
       <c r="E2392" t="s">
         <v>2181</v>
@@ -47740,7 +47740,7 @@
         <v>10</v>
       </c>
       <c r="D2401">
-        <v>35.01654162500436</v>
+        <v>35.01655158708538</v>
       </c>
       <c r="E2401" t="s">
         <v>2180</v>
@@ -47757,7 +47757,7 @@
         <v>1</v>
       </c>
       <c r="D2402">
-        <v>420.1984995000523</v>
+        <v>420.1986190450245</v>
       </c>
       <c r="E2402" t="s">
         <v>2181</v>
@@ -47808,7 +47808,7 @@
         <v>10</v>
       </c>
       <c r="D2405">
-        <v>35.0165311150537</v>
+        <v>35.01655629139073</v>
       </c>
       <c r="E2405" t="s">
         <v>2180</v>
@@ -47825,7 +47825,7 @@
         <v>1</v>
       </c>
       <c r="D2406">
-        <v>420.1983733806444</v>
+        <v>420.1986754966887</v>
       </c>
       <c r="E2406" t="s">
         <v>2181</v>
@@ -47842,7 +47842,7 @@
         <v>10</v>
       </c>
       <c r="D2407">
-        <v>35.0165562005697</v>
+        <v>35.01655628953723</v>
       </c>
       <c r="E2407" t="s">
         <v>2180</v>
@@ -47859,7 +47859,7 @@
         <v>1</v>
       </c>
       <c r="D2408">
-        <v>420.1986744068363</v>
+        <v>420.1986754744468</v>
       </c>
       <c r="E2408" t="s">
         <v>2181</v>
@@ -47910,7 +47910,7 @@
         <v>10</v>
       </c>
       <c r="D2411">
-        <v>32.24051867892666</v>
+        <v>32.24963786450724</v>
       </c>
       <c r="E2411" t="s">
         <v>2180</v>
@@ -47927,7 +47927,7 @@
         <v>1</v>
       </c>
       <c r="D2412">
-        <v>386.8862241471199</v>
+        <v>386.9956543740869</v>
       </c>
       <c r="E2412" t="s">
         <v>2181</v>
@@ -48182,7 +48182,7 @@
         <v>7</v>
       </c>
       <c r="D2427">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="E2427" t="s">
         <v>2180</v>
@@ -48199,7 +48199,7 @@
         <v>1</v>
       </c>
       <c r="D2428">
-        <v>352.5</v>
+        <v>360</v>
       </c>
       <c r="E2428" t="s">
         <v>2181</v>
@@ -48369,7 +48369,7 @@
         <v>7</v>
       </c>
       <c r="D2438">
-        <v>80.5</v>
+        <v>80.25</v>
       </c>
       <c r="E2438" t="s">
         <v>2180</v>
@@ -48386,7 +48386,7 @@
         <v>1</v>
       </c>
       <c r="D2439">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E2439" t="s">
         <v>2181</v>
@@ -48471,7 +48471,7 @@
         <v>7</v>
       </c>
       <c r="D2444">
-        <v>39.16121749352632</v>
+        <v>39.16121749352631</v>
       </c>
       <c r="E2444" t="s">
         <v>2180</v>
@@ -48488,7 +48488,7 @@
         <v>1</v>
       </c>
       <c r="D2445">
-        <v>469.9346099223159</v>
+        <v>469.9346099223157</v>
       </c>
       <c r="E2445" t="s">
         <v>2181</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="D2455">
-        <v>299.9258298923615</v>
+        <v>299.9262382361886</v>
       </c>
       <c r="E2455" t="s">
         <v>2181</v>
@@ -48845,7 +48845,7 @@
         <v>3</v>
       </c>
       <c r="D2466">
-        <v>48.04516273615982</v>
+        <v>48.04216788113534</v>
       </c>
       <c r="E2466" t="s">
         <v>2180</v>
@@ -48862,7 +48862,7 @@
         <v>1</v>
       </c>
       <c r="D2467">
-        <v>192.1806509446393</v>
+        <v>192.1686715245414</v>
       </c>
       <c r="E2467" t="s">
         <v>2181</v>
@@ -48913,7 +48913,7 @@
         <v>3</v>
       </c>
       <c r="D2470">
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="E2470" t="s">
         <v>2180</v>
@@ -48930,7 +48930,7 @@
         <v>1</v>
       </c>
       <c r="D2471">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E2471" t="s">
         <v>2181</v>
@@ -48947,7 +48947,7 @@
         <v>3</v>
       </c>
       <c r="D2472">
-        <v>26.25</v>
+        <v>25</v>
       </c>
       <c r="E2472" t="s">
         <v>2180</v>
@@ -48964,7 +48964,7 @@
         <v>1</v>
       </c>
       <c r="D2473">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E2473" t="s">
         <v>2181</v>
@@ -49015,7 +49015,7 @@
         <v>3</v>
       </c>
       <c r="D2476">
-        <v>24.00169438314643</v>
+        <v>24.00908977283051</v>
       </c>
       <c r="E2476" t="s">
         <v>2180</v>
@@ -49032,7 +49032,7 @@
         <v>1</v>
       </c>
       <c r="D2477">
-        <v>288.0203325977572</v>
+        <v>288.1090772739661</v>
       </c>
       <c r="E2477" t="s">
         <v>2181</v>
@@ -49083,7 +49083,7 @@
         <v>3</v>
       </c>
       <c r="D2480">
-        <v>24.00967398105674</v>
+        <v>24.01175083280274</v>
       </c>
       <c r="E2480" t="s">
         <v>2180</v>
@@ -49100,7 +49100,7 @@
         <v>1</v>
       </c>
       <c r="D2481">
-        <v>288.1160877726809</v>
+        <v>288.1410099936328</v>
       </c>
       <c r="E2481" t="s">
         <v>2181</v>
@@ -49185,7 +49185,7 @@
         <v>3</v>
       </c>
       <c r="D2486">
-        <v>23.9962684960847</v>
+        <v>23.99633820547252</v>
       </c>
       <c r="E2486" t="s">
         <v>2180</v>
@@ -49202,7 +49202,7 @@
         <v>1</v>
       </c>
       <c r="D2487">
-        <v>287.9552219530164</v>
+        <v>287.9560584656703</v>
       </c>
       <c r="E2487" t="s">
         <v>2181</v>
@@ -49219,7 +49219,7 @@
         <v>3</v>
       </c>
       <c r="D2488">
-        <v>159.9144203699241</v>
+        <v>159.9201711207333</v>
       </c>
       <c r="E2488" t="s">
         <v>2180</v>
@@ -49236,7 +49236,7 @@
         <v>1</v>
       </c>
       <c r="D2489">
-        <v>1918.973044439089</v>
+        <v>1919.0420534488</v>
       </c>
       <c r="E2489" t="s">
         <v>2181</v>
@@ -49253,7 +49253,7 @@
         <v>3</v>
       </c>
       <c r="D2490">
-        <v>159.9022027021609</v>
+        <v>159.9126508271342</v>
       </c>
       <c r="E2490" t="s">
         <v>2180</v>
@@ -49270,7 +49270,7 @@
         <v>1</v>
       </c>
       <c r="D2491">
-        <v>1918.826432425931</v>
+        <v>1918.95180992561</v>
       </c>
       <c r="E2491" t="s">
         <v>2181</v>
@@ -49287,7 +49287,7 @@
         <v>3</v>
       </c>
       <c r="D2492">
-        <v>159.25</v>
+        <v>159.5</v>
       </c>
       <c r="E2492" t="s">
         <v>2180</v>
@@ -49304,7 +49304,7 @@
         <v>1</v>
       </c>
       <c r="D2493">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="E2493" t="s">
         <v>2181</v>
@@ -49321,7 +49321,7 @@
         <v>3</v>
       </c>
       <c r="D2494">
-        <v>94.00839635829509</v>
+        <v>93.9264107059159</v>
       </c>
       <c r="E2494" t="s">
         <v>2180</v>
@@ -49338,7 +49338,7 @@
         <v>1</v>
       </c>
       <c r="D2495">
-        <v>1128.100756299541</v>
+        <v>1127.116928470991</v>
       </c>
       <c r="E2495" t="s">
         <v>2181</v>
@@ -49355,7 +49355,7 @@
         <v>3</v>
       </c>
       <c r="D2496">
-        <v>94.00886996914609</v>
+        <v>94.01183546940442</v>
       </c>
       <c r="E2496" t="s">
         <v>2180</v>
@@ -49372,7 +49372,7 @@
         <v>1</v>
       </c>
       <c r="D2497">
-        <v>1128.106439629753</v>
+        <v>1128.142025632853</v>
       </c>
       <c r="E2497" t="s">
         <v>2181</v>
@@ -49831,7 +49831,7 @@
         <v>2</v>
       </c>
       <c r="D2524">
-        <v>360.7268722372866</v>
+        <v>360.7268722372867</v>
       </c>
       <c r="E2524" t="s">
         <v>2181</v>
@@ -49882,7 +49882,7 @@
         <v>2</v>
       </c>
       <c r="D2527">
-        <v>277.25</v>
+        <v>276.25</v>
       </c>
       <c r="E2527" t="s">
         <v>2181</v>
@@ -49916,7 +49916,7 @@
         <v>2</v>
       </c>
       <c r="D2529">
-        <v>302.5</v>
+        <v>304.75</v>
       </c>
       <c r="E2529" t="s">
         <v>2181</v>
@@ -50188,7 +50188,7 @@
         <v>2</v>
       </c>
       <c r="D2545">
-        <v>181.7160742428561</v>
+        <v>181.5944499670373</v>
       </c>
       <c r="E2545" t="s">
         <v>2180</v>
@@ -50205,7 +50205,7 @@
         <v>1</v>
       </c>
       <c r="D2546">
-        <v>726.8642969714242</v>
+        <v>726.3777998681491</v>
       </c>
       <c r="E2546" t="s">
         <v>2181</v>
@@ -50256,7 +50256,7 @@
         <v>1</v>
       </c>
       <c r="D2549">
-        <v>363.75</v>
+        <v>374.75</v>
       </c>
       <c r="E2549" t="s">
         <v>2181</v>
@@ -50273,7 +50273,7 @@
         <v>10</v>
       </c>
       <c r="D2550">
-        <v>35.01655627057276</v>
+        <v>35.01655629139073</v>
       </c>
       <c r="E2550" t="s">
         <v>2180</v>
@@ -50290,7 +50290,7 @@
         <v>1</v>
       </c>
       <c r="D2551">
-        <v>420.1986752468731</v>
+        <v>420.1986754966887</v>
       </c>
       <c r="E2551" t="s">
         <v>2181</v>
@@ -50307,7 +50307,7 @@
         <v>10</v>
       </c>
       <c r="D2552">
-        <v>35.01655627259765</v>
+        <v>35.01655629139073</v>
       </c>
       <c r="E2552" t="s">
         <v>2180</v>
@@ -50324,7 +50324,7 @@
         <v>1</v>
       </c>
       <c r="D2553">
-        <v>420.1986752711719</v>
+        <v>420.1986754966887</v>
       </c>
       <c r="E2553" t="s">
         <v>2181</v>
@@ -50443,7 +50443,7 @@
         <v>7</v>
       </c>
       <c r="D2560">
-        <v>11.52567457880256</v>
+        <v>11.54501955351181</v>
       </c>
       <c r="E2560" t="s">
         <v>2180</v>
@@ -50460,7 +50460,7 @@
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>345.7702373640769</v>
+        <v>346.3505866053542</v>
       </c>
       <c r="E2561" t="s">
         <v>2181</v>
@@ -50885,7 +50885,7 @@
         <v>1</v>
       </c>
       <c r="D2586">
-        <v>239.309438415755</v>
+        <v>237.887024474561</v>
       </c>
       <c r="E2586" t="s">
         <v>2181</v>
@@ -50919,7 +50919,7 @@
         <v>1</v>
       </c>
       <c r="D2588">
-        <v>239.9427000703824</v>
+        <v>237.4525286836882</v>
       </c>
       <c r="E2588" t="s">
         <v>2181</v>
@@ -50953,7 +50953,7 @@
         <v>1</v>
       </c>
       <c r="D2590">
-        <v>235.9371839631245</v>
+        <v>235.9371685342079</v>
       </c>
       <c r="E2590" t="s">
         <v>2181</v>
@@ -51021,7 +51021,7 @@
         <v>3</v>
       </c>
       <c r="D2594">
-        <v>94.8529857582501</v>
+        <v>94.85659128617991</v>
       </c>
       <c r="E2594" t="s">
         <v>2180</v>
@@ -51038,7 +51038,7 @@
         <v>1</v>
       </c>
       <c r="D2595">
-        <v>758.8238860660008</v>
+        <v>758.8527302894393</v>
       </c>
       <c r="E2595" t="s">
         <v>2181</v>
@@ -51140,7 +51140,7 @@
         <v>1</v>
       </c>
       <c r="D2601">
-        <v>687.25</v>
+        <v>695.25</v>
       </c>
       <c r="E2601" t="s">
         <v>2181</v>
@@ -52551,7 +52551,7 @@
         <v>1</v>
       </c>
       <c r="D2684">
-        <v>631.75</v>
+        <v>631.6428342779536</v>
       </c>
       <c r="E2684" t="s">
         <v>2181</v>
@@ -52568,7 +52568,7 @@
         <v>1</v>
       </c>
       <c r="D2685">
-        <v>627</v>
+        <v>629.9116032835872</v>
       </c>
       <c r="E2685" t="s">
         <v>2181</v>
@@ -52823,7 +52823,7 @@
         <v>7</v>
       </c>
       <c r="D2700">
-        <v>40</v>
+        <v>40.25</v>
       </c>
       <c r="E2700" t="s">
         <v>2180</v>
@@ -52840,7 +52840,7 @@
         <v>1</v>
       </c>
       <c r="D2701">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E2701" t="s">
         <v>2181</v>
@@ -52925,7 +52925,7 @@
         <v>7</v>
       </c>
       <c r="D2706">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="E2706" t="s">
         <v>2180</v>
@@ -52942,7 +52942,7 @@
         <v>1</v>
       </c>
       <c r="D2707">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="E2707" t="s">
         <v>2181</v>
@@ -53401,7 +53401,7 @@
         <v>3</v>
       </c>
       <c r="D2734">
-        <v>96.60003079896896</v>
+        <v>96.60003079896897</v>
       </c>
       <c r="E2734" t="s">
         <v>2180</v>
@@ -53418,7 +53418,7 @@
         <v>1</v>
       </c>
       <c r="D2735">
-        <v>579.6001847938137</v>
+        <v>579.6001847938138</v>
       </c>
       <c r="E2735" t="s">
         <v>2181</v>
@@ -53571,7 +53571,7 @@
         <v>3</v>
       </c>
       <c r="D2744">
-        <v>47.61952707828237</v>
+        <v>47.6194170402533</v>
       </c>
       <c r="E2744" t="s">
         <v>2180</v>
@@ -53588,7 +53588,7 @@
         <v>1</v>
       </c>
       <c r="D2745">
-        <v>190.4781083131295</v>
+        <v>190.4776681610132</v>
       </c>
       <c r="E2745" t="s">
         <v>2181</v>
@@ -53605,7 +53605,7 @@
         <v>3</v>
       </c>
       <c r="D2746">
-        <v>48.08345880675308</v>
+        <v>48.07463538371551</v>
       </c>
       <c r="E2746" t="s">
         <v>2180</v>
@@ -53622,7 +53622,7 @@
         <v>1</v>
       </c>
       <c r="D2747">
-        <v>192.3338352270123</v>
+        <v>192.298541534862</v>
       </c>
       <c r="E2747" t="s">
         <v>2181</v>
@@ -54268,7 +54268,7 @@
         <v>3</v>
       </c>
       <c r="D2785">
-        <v>87.43450241926257</v>
+        <v>87.43443774743106</v>
       </c>
       <c r="E2785" t="s">
         <v>2180</v>
@@ -54285,7 +54285,7 @@
         <v>1</v>
       </c>
       <c r="D2786">
-        <v>699.4760193541006</v>
+        <v>699.4755019794485</v>
       </c>
       <c r="E2786" t="s">
         <v>2181</v>
@@ -54302,7 +54302,7 @@
         <v>3</v>
       </c>
       <c r="D2787">
-        <v>87.43454545454546</v>
+        <v>87.43452851872014</v>
       </c>
       <c r="E2787" t="s">
         <v>2180</v>
@@ -54319,7 +54319,7 @@
         <v>1</v>
       </c>
       <c r="D2788">
-        <v>699.4763636363637</v>
+        <v>699.4762281497611</v>
       </c>
       <c r="E2788" t="s">
         <v>2181</v>
@@ -54370,7 +54370,7 @@
         <v>3</v>
       </c>
       <c r="D2791">
-        <v>43.71150026727125</v>
+        <v>43.69739468433374</v>
       </c>
       <c r="E2791" t="s">
         <v>2180</v>
@@ -54387,7 +54387,7 @@
         <v>1</v>
       </c>
       <c r="D2792">
-        <v>349.69200213817</v>
+        <v>349.5791574746699</v>
       </c>
       <c r="E2792" t="s">
         <v>2181</v>
@@ -54404,7 +54404,7 @@
         <v>3</v>
       </c>
       <c r="D2793">
-        <v>43.7114921764543</v>
+        <v>43.71151242470174</v>
       </c>
       <c r="E2793" t="s">
         <v>2180</v>
@@ -54421,7 +54421,7 @@
         <v>1</v>
       </c>
       <c r="D2794">
-        <v>349.6919374116344</v>
+        <v>349.6920993976139</v>
       </c>
       <c r="E2794" t="s">
         <v>2181</v>
@@ -54438,7 +54438,7 @@
         <v>3</v>
       </c>
       <c r="D2795">
-        <v>43.71153062886933</v>
+        <v>43.71151501741677</v>
       </c>
       <c r="E2795" t="s">
         <v>2180</v>
@@ -54455,7 +54455,7 @@
         <v>1</v>
       </c>
       <c r="D2796">
-        <v>349.6922450309547</v>
+        <v>349.6921201393342</v>
       </c>
       <c r="E2796" t="s">
         <v>2181</v>
@@ -54727,7 +54727,7 @@
         <v>1</v>
       </c>
       <c r="D2812">
-        <v>263.25</v>
+        <v>295.5</v>
       </c>
       <c r="E2812" t="s">
         <v>2181</v>
@@ -54778,7 +54778,7 @@
         <v>3</v>
       </c>
       <c r="D2815">
-        <v>66.01897102529253</v>
+        <v>66.0188797316263</v>
       </c>
       <c r="E2815" t="s">
         <v>2180</v>
@@ -54795,7 +54795,7 @@
         <v>1</v>
       </c>
       <c r="D2816">
-        <v>792.2276523035104</v>
+        <v>792.2265567795156</v>
       </c>
       <c r="E2816" t="s">
         <v>2181</v>
@@ -55152,7 +55152,7 @@
         <v>3</v>
       </c>
       <c r="D2837">
-        <v>24.54090785671308</v>
+        <v>24.54102303817517</v>
       </c>
       <c r="E2837" t="s">
         <v>2180</v>
@@ -55169,7 +55169,7 @@
         <v>1</v>
       </c>
       <c r="D2838">
-        <v>245.4090785671308</v>
+        <v>245.4102303817517</v>
       </c>
       <c r="E2838" t="s">
         <v>2181</v>
@@ -56036,7 +56036,7 @@
         <v>3</v>
       </c>
       <c r="D2889">
-        <v>111.3630624426079</v>
+        <v>111.363069730494</v>
       </c>
       <c r="E2889" t="s">
         <v>2180</v>
@@ -56053,7 +56053,7 @@
         <v>1</v>
       </c>
       <c r="D2890">
-        <v>668.1783746556474</v>
+        <v>668.1784183829639</v>
       </c>
       <c r="E2890" t="s">
         <v>2181</v>
@@ -56631,7 +56631,7 @@
         <v>14</v>
       </c>
       <c r="D2924">
-        <v>76.91653322455784</v>
+        <v>76.92719128862886</v>
       </c>
       <c r="E2924" t="s">
         <v>2180</v>
@@ -56648,7 +56648,7 @@
         <v>1</v>
       </c>
       <c r="D2925">
-        <v>615.3322657964627</v>
+        <v>615.4175303090309</v>
       </c>
       <c r="E2925" t="s">
         <v>2181</v>
@@ -56699,7 +56699,7 @@
         <v>3</v>
       </c>
       <c r="D2928">
-        <v>138.802532620747</v>
+        <v>138.7539848939508</v>
       </c>
       <c r="E2928" t="s">
         <v>2180</v>
@@ -56716,7 +56716,7 @@
         <v>1</v>
       </c>
       <c r="D2929">
-        <v>3331.260782897929</v>
+        <v>3330.09563745482</v>
       </c>
       <c r="E2929" t="s">
         <v>2181</v>
@@ -56767,7 +56767,7 @@
         <v>3</v>
       </c>
       <c r="D2932">
-        <v>153.97625</v>
+        <v>153.7275</v>
       </c>
       <c r="E2932" t="s">
         <v>2180</v>
@@ -56784,7 +56784,7 @@
         <v>1</v>
       </c>
       <c r="D2933">
-        <v>1847.715</v>
+        <v>1844.73</v>
       </c>
       <c r="E2933" t="s">
         <v>2181</v>
@@ -56903,7 +56903,7 @@
         <v>10</v>
       </c>
       <c r="D2940">
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="E2940" t="s">
         <v>2180</v>
@@ -56920,7 +56920,7 @@
         <v>1</v>
       </c>
       <c r="D2941">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E2941" t="s">
         <v>2181</v>
@@ -57107,7 +57107,7 @@
         <v>1</v>
       </c>
       <c r="D2952">
-        <v>157.056715594149</v>
+        <v>157.0585628308373</v>
       </c>
       <c r="E2952" t="s">
         <v>2181</v>
@@ -57124,7 +57124,7 @@
         <v>1</v>
       </c>
       <c r="D2953">
-        <v>162.2700552190475</v>
+        <v>162.2902512101942</v>
       </c>
       <c r="E2953" t="s">
         <v>2181</v>
@@ -57141,7 +57141,7 @@
         <v>1</v>
       </c>
       <c r="D2954">
-        <v>159.1078386057548</v>
+        <v>159.1237324094313</v>
       </c>
       <c r="E2954" t="s">
         <v>2181</v>
@@ -57158,7 +57158,7 @@
         <v>1</v>
       </c>
       <c r="D2955">
-        <v>159.0978939333663</v>
+        <v>159.1134686557643</v>
       </c>
       <c r="E2955" t="s">
         <v>2181</v>
@@ -57175,7 +57175,7 @@
         <v>1</v>
       </c>
       <c r="D2956">
-        <v>157.1803663850393</v>
+        <v>157.1833747735511</v>
       </c>
       <c r="E2956" t="s">
         <v>2181</v>
@@ -57192,7 +57192,7 @@
         <v>1</v>
       </c>
       <c r="D2957">
-        <v>162.3010290974489</v>
+        <v>162.3323443589835</v>
       </c>
       <c r="E2957" t="s">
         <v>2181</v>
@@ -57209,7 +57209,7 @@
         <v>1</v>
       </c>
       <c r="D2958">
-        <v>160.1139100564646</v>
+        <v>160.1340254208631</v>
       </c>
       <c r="E2958" t="s">
         <v>2181</v>
@@ -57226,7 +57226,7 @@
         <v>1</v>
       </c>
       <c r="D2959">
-        <v>160.2504871560813</v>
+        <v>160.2583732223613</v>
       </c>
       <c r="E2959" t="s">
         <v>2181</v>
@@ -57243,7 +57243,7 @@
         <v>1</v>
       </c>
       <c r="D2960">
-        <v>162.0850981711511</v>
+        <v>160.5719894844973</v>
       </c>
       <c r="E2960" t="s">
         <v>2181</v>
@@ -57260,7 +57260,7 @@
         <v>1</v>
       </c>
       <c r="D2961">
-        <v>160.3498605581603</v>
+        <v>160.3522455363067</v>
       </c>
       <c r="E2961" t="s">
         <v>2181</v>
@@ -57294,7 +57294,7 @@
         <v>1</v>
       </c>
       <c r="D2963">
-        <v>162.1110411288068</v>
+        <v>160.4891491812871</v>
       </c>
       <c r="E2963" t="s">
         <v>2181</v>
@@ -57396,7 +57396,7 @@
         <v>1</v>
       </c>
       <c r="D2969">
-        <v>85.5471952395261</v>
+        <v>85.54738573470223</v>
       </c>
       <c r="E2969" t="s">
         <v>2181</v>
@@ -57430,7 +57430,7 @@
         <v>1</v>
       </c>
       <c r="D2971">
-        <v>84.17650052782385</v>
+        <v>84.17650052782386</v>
       </c>
       <c r="E2971" t="s">
         <v>2181</v>
@@ -57498,7 +57498,7 @@
         <v>1</v>
       </c>
       <c r="D2975">
-        <v>84.17650052782385</v>
+        <v>84.17650052782386</v>
       </c>
       <c r="E2975" t="s">
         <v>2181</v>
@@ -57566,7 +57566,7 @@
         <v>3</v>
       </c>
       <c r="D2979">
-        <v>138.981928718167</v>
+        <v>138.9941585400487</v>
       </c>
       <c r="E2979" t="s">
         <v>2180</v>
@@ -57583,7 +57583,7 @@
         <v>1</v>
       </c>
       <c r="D2980">
-        <v>3335.566289236008</v>
+        <v>3335.85980496117</v>
       </c>
       <c r="E2980" t="s">
         <v>2181</v>
@@ -57600,7 +57600,7 @@
         <v>3</v>
       </c>
       <c r="D2981">
-        <v>138.7634860175373</v>
+        <v>138.7932056422634</v>
       </c>
       <c r="E2981" t="s">
         <v>2180</v>
@@ -57617,7 +57617,7 @@
         <v>1</v>
       </c>
       <c r="D2982">
-        <v>3330.323664420896</v>
+        <v>3331.036935414321</v>
       </c>
       <c r="E2982" t="s">
         <v>2181</v>
@@ -57634,7 +57634,7 @@
         <v>3</v>
       </c>
       <c r="D2983">
-        <v>138.6387171042127</v>
+        <v>137.683125</v>
       </c>
       <c r="E2983" t="s">
         <v>2180</v>
@@ -57651,7 +57651,7 @@
         <v>1</v>
       </c>
       <c r="D2984">
-        <v>2772.774342084253</v>
+        <v>2753.6625</v>
       </c>
       <c r="E2984" t="s">
         <v>2181</v>
@@ -58042,7 +58042,7 @@
         <v>3</v>
       </c>
       <c r="D3007">
-        <v>57.11539957561975</v>
+        <v>56.94718803972366</v>
       </c>
       <c r="E3007" t="s">
         <v>2180</v>
@@ -58059,7 +58059,7 @@
         <v>1</v>
       </c>
       <c r="D3008">
-        <v>685.384794907437</v>
+        <v>683.3662564766839</v>
       </c>
       <c r="E3008" t="s">
         <v>2181</v>
@@ -58484,7 +58484,7 @@
         <v>3</v>
       </c>
       <c r="D3033">
-        <v>116</v>
+        <v>115.75</v>
       </c>
       <c r="E3033" t="s">
         <v>2180</v>
@@ -58501,7 +58501,7 @@
         <v>1</v>
       </c>
       <c r="D3034">
-        <v>696</v>
+        <v>694.5</v>
       </c>
       <c r="E3034" t="s">
         <v>2181</v>
@@ -58654,7 +58654,7 @@
         <v>1</v>
       </c>
       <c r="D3043">
-        <v>84.1758354807986</v>
+        <v>84.17588307544096</v>
       </c>
       <c r="E3043" t="s">
         <v>2181</v>
@@ -58671,7 +58671,7 @@
         <v>1</v>
       </c>
       <c r="D3044">
-        <v>84.17640318090542</v>
+        <v>84.17642828627586</v>
       </c>
       <c r="E3044" t="s">
         <v>2181</v>
@@ -59062,7 +59062,7 @@
         <v>2</v>
       </c>
       <c r="D3067">
-        <v>272.278860271751</v>
+        <v>271.9754885627279</v>
       </c>
       <c r="E3067" t="s">
         <v>2181</v>
@@ -59079,7 +59079,7 @@
         <v>2</v>
       </c>
       <c r="D3068">
-        <v>275.0731136649955</v>
+        <v>274.8069327808873</v>
       </c>
       <c r="E3068" t="s">
         <v>2181</v>
@@ -59096,7 +59096,7 @@
         <v>2</v>
       </c>
       <c r="D3069">
-        <v>274.533531906377</v>
+        <v>274.2358224068252</v>
       </c>
       <c r="E3069" t="s">
         <v>2181</v>
@@ -59130,7 +59130,7 @@
         <v>1</v>
       </c>
       <c r="D3071">
-        <v>299.9244356254201</v>
+        <v>299.9244372863256</v>
       </c>
       <c r="E3071" t="s">
         <v>2181</v>
@@ -59249,7 +59249,7 @@
         <v>1</v>
       </c>
       <c r="D3078">
-        <v>238.75</v>
+        <v>235</v>
       </c>
       <c r="E3078" t="s">
         <v>2181</v>
@@ -59317,7 +59317,7 @@
         <v>10</v>
       </c>
       <c r="D3082">
-        <v>72.84849849513671</v>
+        <v>67.08698534127571</v>
       </c>
       <c r="E3082" t="s">
         <v>2180</v>
@@ -59334,7 +59334,7 @@
         <v>1</v>
       </c>
       <c r="D3083">
-        <v>874.1819819416405</v>
+        <v>805.0438240953085</v>
       </c>
       <c r="E3083" t="s">
         <v>2181</v>
@@ -59351,7 +59351,7 @@
         <v>10</v>
       </c>
       <c r="D3084">
-        <v>72.54521755228183</v>
+        <v>67.08698534127571</v>
       </c>
       <c r="E3084" t="s">
         <v>2180</v>
@@ -59368,7 +59368,7 @@
         <v>1</v>
       </c>
       <c r="D3085">
-        <v>870.5426106273819</v>
+        <v>805.0438240953085</v>
       </c>
       <c r="E3085" t="s">
         <v>2181</v>
@@ -59385,7 +59385,7 @@
         <v>10</v>
       </c>
       <c r="D3086">
-        <v>72.84837410705181</v>
+        <v>67.08684267464589</v>
       </c>
       <c r="E3086" t="s">
         <v>2180</v>
@@ -59402,7 +59402,7 @@
         <v>1</v>
       </c>
       <c r="D3087">
-        <v>874.1804892846217</v>
+        <v>805.0421120957508</v>
       </c>
       <c r="E3087" t="s">
         <v>2181</v>
@@ -59419,7 +59419,7 @@
         <v>10</v>
       </c>
       <c r="D3088">
-        <v>35</v>
+        <v>35.3225</v>
       </c>
       <c r="E3088" t="s">
         <v>2180</v>
@@ -59436,7 +59436,7 @@
         <v>1</v>
       </c>
       <c r="D3089">
-        <v>560</v>
+        <v>565.16</v>
       </c>
       <c r="E3089" t="s">
         <v>2181</v>
@@ -59453,7 +59453,7 @@
         <v>10</v>
       </c>
       <c r="D3090">
-        <v>35.25</v>
+        <v>35.42298285192123</v>
       </c>
       <c r="E3090" t="s">
         <v>2180</v>
@@ -59470,7 +59470,7 @@
         <v>1</v>
       </c>
       <c r="D3091">
-        <v>564</v>
+        <v>566.7677256307396</v>
       </c>
       <c r="E3091" t="s">
         <v>2181</v>
@@ -59929,7 +59929,7 @@
         <v>3</v>
       </c>
       <c r="D3118">
-        <v>111.3630751964085</v>
+        <v>111.3630325761127</v>
       </c>
       <c r="E3118" t="s">
         <v>2180</v>
@@ -59946,7 +59946,7 @@
         <v>1</v>
       </c>
       <c r="D3119">
-        <v>668.178451178451</v>
+        <v>668.1781954566765</v>
       </c>
       <c r="E3119" t="s">
         <v>2181</v>
@@ -60167,7 +60167,7 @@
         <v>2</v>
       </c>
       <c r="D3132">
-        <v>272.0931854623743</v>
+        <v>271.9954879181371</v>
       </c>
       <c r="E3132" t="s">
         <v>2181</v>
@@ -60337,7 +60337,7 @@
         <v>25</v>
       </c>
       <c r="D3142">
-        <v>378.2060686452289</v>
+        <v>377.9973775023338</v>
       </c>
       <c r="E3142" t="s">
         <v>2180</v>
@@ -60354,7 +60354,7 @@
         <v>29</v>
       </c>
       <c r="D3143">
-        <v>756.4121372904578</v>
+        <v>755.9947550046677</v>
       </c>
       <c r="E3143" t="s">
         <v>2181</v>
@@ -60609,7 +60609,7 @@
         <v>3</v>
       </c>
       <c r="D3158">
-        <v>115.0902206866809</v>
+        <v>114.9154084489364</v>
       </c>
       <c r="E3158" t="s">
         <v>2180</v>
@@ -60626,7 +60626,7 @@
         <v>1</v>
       </c>
       <c r="D3159">
-        <v>1150.902206866809</v>
+        <v>1149.154084489364</v>
       </c>
       <c r="E3159" t="s">
         <v>2181</v>
@@ -60643,7 +60643,7 @@
         <v>3</v>
       </c>
       <c r="D3160">
-        <v>114.9579167570481</v>
+        <v>114.8299560815396</v>
       </c>
       <c r="E3160" t="s">
         <v>2180</v>
@@ -60660,7 +60660,7 @@
         <v>1</v>
       </c>
       <c r="D3161">
-        <v>1149.579167570481</v>
+        <v>1148.299560815396</v>
       </c>
       <c r="E3161" t="s">
         <v>2181</v>
@@ -60694,7 +60694,7 @@
         <v>2</v>
       </c>
       <c r="D3163">
-        <v>301.75</v>
+        <v>298</v>
       </c>
       <c r="E3163" t="s">
         <v>2181</v>
@@ -60983,7 +60983,7 @@
         <v>3</v>
       </c>
       <c r="D3180">
-        <v>23.90359090804206</v>
+        <v>23.90605694391846</v>
       </c>
       <c r="E3180" t="s">
         <v>2180</v>
@@ -61000,7 +61000,7 @@
         <v>1</v>
       </c>
       <c r="D3181">
-        <v>286.8430908965047</v>
+        <v>286.8726833270215</v>
       </c>
       <c r="E3181" t="s">
         <v>2181</v>
@@ -61119,7 +61119,7 @@
         <v>3</v>
       </c>
       <c r="D3188">
-        <v>90.81557274622259</v>
+        <v>90.79477770166291</v>
       </c>
       <c r="E3188" t="s">
         <v>2180</v>
@@ -61136,7 +61136,7 @@
         <v>1</v>
       </c>
       <c r="D3189">
-        <v>1089.786872954671</v>
+        <v>1089.537332419955</v>
       </c>
       <c r="E3189" t="s">
         <v>2181</v>
@@ -61153,7 +61153,7 @@
         <v>3</v>
       </c>
       <c r="D3190">
-        <v>90.58189982104528</v>
+        <v>90.83663701379355</v>
       </c>
       <c r="E3190" t="s">
         <v>2180</v>
@@ -61170,7 +61170,7 @@
         <v>1</v>
       </c>
       <c r="D3191">
-        <v>1086.982797852543</v>
+        <v>1090.039644165523</v>
       </c>
       <c r="E3191" t="s">
         <v>2181</v>
@@ -61255,7 +61255,7 @@
         <v>1</v>
       </c>
       <c r="D3196">
-        <v>205.25</v>
+        <v>206.75</v>
       </c>
       <c r="E3196" t="s">
         <v>2181</v>
@@ -61323,7 +61323,7 @@
         <v>1</v>
       </c>
       <c r="D3200">
-        <v>93.75</v>
+        <v>95.25</v>
       </c>
       <c r="E3200" t="s">
         <v>2181</v>
@@ -61816,7 +61816,7 @@
         <v>3</v>
       </c>
       <c r="D3229">
-        <v>46.44706531361421</v>
+        <v>46.70635439576913</v>
       </c>
       <c r="E3229" t="s">
         <v>2180</v>
@@ -61833,7 +61833,7 @@
         <v>1</v>
       </c>
       <c r="D3230">
-        <v>836.0471756450557</v>
+        <v>840.7143791238444</v>
       </c>
       <c r="E3230" t="s">
         <v>2181</v>
@@ -61918,7 +61918,7 @@
         <v>3</v>
       </c>
       <c r="D3235">
-        <v>46.70870098782757</v>
+        <v>46.12646563357879</v>
       </c>
       <c r="E3235" t="s">
         <v>2180</v>
@@ -61935,7 +61935,7 @@
         <v>1</v>
       </c>
       <c r="D3236">
-        <v>840.7566177808962</v>
+        <v>830.2763814044182</v>
       </c>
       <c r="E3236" t="s">
         <v>2181</v>
@@ -61986,7 +61986,7 @@
         <v>3</v>
       </c>
       <c r="D3239">
-        <v>46.70870098782758</v>
+        <v>46.70870098782757</v>
       </c>
       <c r="E3239" t="s">
         <v>2180</v>
@@ -62003,7 +62003,7 @@
         <v>1</v>
       </c>
       <c r="D3240">
-        <v>840.7566177808964</v>
+        <v>840.7566177808962</v>
       </c>
       <c r="E3240" t="s">
         <v>2181</v>
@@ -62020,7 +62020,7 @@
         <v>2</v>
       </c>
       <c r="D3241">
-        <v>445</v>
+        <v>447.25</v>
       </c>
       <c r="E3241" t="s">
         <v>2181</v>
@@ -62700,7 +62700,7 @@
         <v>7</v>
       </c>
       <c r="D3281">
-        <v>21.74655155646387</v>
+        <v>20.75</v>
       </c>
       <c r="E3281" t="s">
         <v>2180</v>
@@ -62717,7 +62717,7 @@
         <v>1</v>
       </c>
       <c r="D3282">
-        <v>521.9172373551329</v>
+        <v>498</v>
       </c>
       <c r="E3282" t="s">
         <v>2181</v>
@@ -62768,7 +62768,7 @@
         <v>7</v>
       </c>
       <c r="D3285">
-        <v>21.74655356109293</v>
+        <v>21.75</v>
       </c>
       <c r="E3285" t="s">
         <v>2180</v>
@@ -62785,7 +62785,7 @@
         <v>1</v>
       </c>
       <c r="D3286">
-        <v>521.9172854662303</v>
+        <v>522</v>
       </c>
       <c r="E3286" t="s">
         <v>2181</v>
@@ -63023,7 +63023,7 @@
         <v>5</v>
       </c>
       <c r="D3300">
-        <v>1056.5</v>
+        <v>1069.75</v>
       </c>
       <c r="E3300" t="s">
         <v>2181</v>

--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_3.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_3.xlsx
@@ -5281,7 +5281,7 @@
     <t>اريال اوتوماتيك بلمسة الداوني - 4 كجم</t>
   </si>
   <si>
-    <t>بونكس اوتوماتيك برائحة الفل - 9 كجم</t>
+    <t>F 9 كجم</t>
   </si>
   <si>
     <t>ايبون فروتي- 800 جرام</t>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>657.5</v>
+        <v>657.75</v>
       </c>
       <c r="E29" t="s">
         <v>2181</v>
@@ -7521,7 +7521,7 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="E35" t="s">
         <v>2182</v>
@@ -7538,7 +7538,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E36" t="s">
         <v>2181</v>
@@ -8388,7 +8388,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>66.75</v>
+        <v>66.5</v>
       </c>
       <c r="E86" t="s">
         <v>2182</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E87" t="s">
         <v>2181</v>
@@ -8439,7 +8439,7 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>75.5</v>
+        <v>75.25</v>
       </c>
       <c r="E89" t="s">
         <v>2182</v>
@@ -8456,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E90" t="s">
         <v>2181</v>
@@ -8473,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>591.5</v>
+        <v>589.75</v>
       </c>
       <c r="E91" t="s">
         <v>2181</v>
@@ -10122,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>181.2522908402576</v>
+        <v>181.4674160876178</v>
       </c>
       <c r="E188" t="s">
         <v>2181</v>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>347.5</v>
+        <v>347.25</v>
       </c>
       <c r="E207" t="s">
         <v>2181</v>
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>343</v>
+        <v>337.5</v>
       </c>
       <c r="E208" t="s">
         <v>2181</v>
@@ -10819,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>63.6753279366348</v>
+        <v>64.39449509037708</v>
       </c>
       <c r="E229" t="s">
         <v>2181</v>
@@ -11482,7 +11482,7 @@
         <v>3</v>
       </c>
       <c r="D268">
-        <v>95.02663950121084</v>
+        <v>95.03601031288051</v>
       </c>
       <c r="E268" t="s">
         <v>2182</v>
@@ -11499,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>570.159837007265</v>
+        <v>570.216061877283</v>
       </c>
       <c r="E269" t="s">
         <v>2181</v>
@@ -11550,7 +11550,7 @@
         <v>3</v>
       </c>
       <c r="D272">
-        <v>23.68022308702141</v>
+        <v>23.67107618529902</v>
       </c>
       <c r="E272" t="s">
         <v>2182</v>
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>284.1626770442569</v>
+        <v>284.0529142235882</v>
       </c>
       <c r="E273" t="s">
         <v>2181</v>
@@ -11584,7 +11584,7 @@
         <v>2</v>
       </c>
       <c r="D274">
-        <v>166.25</v>
+        <v>153.75</v>
       </c>
       <c r="E274" t="s">
         <v>2181</v>
@@ -11601,7 +11601,7 @@
         <v>3</v>
       </c>
       <c r="D275">
-        <v>23.66674835699986</v>
+        <v>23.65250720419574</v>
       </c>
       <c r="E275" t="s">
         <v>2182</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>284.0009802839983</v>
+        <v>283.8300864503489</v>
       </c>
       <c r="E276" t="s">
         <v>2181</v>
@@ -11958,7 +11958,7 @@
         <v>3</v>
       </c>
       <c r="D296">
-        <v>72</v>
+        <v>73.25</v>
       </c>
       <c r="E296" t="s">
         <v>2182</v>
@@ -11975,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>432</v>
+        <v>439.5</v>
       </c>
       <c r="E297" t="s">
         <v>2181</v>
@@ -12026,7 +12026,7 @@
         <v>2</v>
       </c>
       <c r="D300">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E300" t="s">
         <v>2181</v>
@@ -12043,7 +12043,7 @@
         <v>2</v>
       </c>
       <c r="D301">
-        <v>500.25</v>
+        <v>499.75</v>
       </c>
       <c r="E301" t="s">
         <v>2181</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="D322">
-        <v>315</v>
+        <v>283.75</v>
       </c>
       <c r="E322" t="s">
         <v>2181</v>
@@ -12417,7 +12417,7 @@
         <v>2</v>
       </c>
       <c r="D323">
-        <v>102.25</v>
+        <v>100.75</v>
       </c>
       <c r="E323" t="s">
         <v>2181</v>
@@ -12434,7 +12434,7 @@
         <v>2</v>
       </c>
       <c r="D324">
-        <v>63.5</v>
+        <v>63.25</v>
       </c>
       <c r="E324" t="s">
         <v>2181</v>
@@ -12468,7 +12468,7 @@
         <v>2</v>
       </c>
       <c r="D326">
-        <v>107.5</v>
+        <v>106</v>
       </c>
       <c r="E326" t="s">
         <v>2181</v>
@@ -12485,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="D327">
-        <v>183.25</v>
+        <v>166.75</v>
       </c>
       <c r="E327" t="s">
         <v>2181</v>
@@ -12502,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="D328">
-        <v>427.5</v>
+        <v>427</v>
       </c>
       <c r="E328" t="s">
         <v>2181</v>
@@ -12519,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="D329">
-        <v>519.5</v>
+        <v>519</v>
       </c>
       <c r="E329" t="s">
         <v>2181</v>
@@ -12536,7 +12536,7 @@
         <v>2</v>
       </c>
       <c r="D330">
-        <v>291.75</v>
+        <v>292</v>
       </c>
       <c r="E330" t="s">
         <v>2181</v>
@@ -12757,7 +12757,7 @@
         <v>2</v>
       </c>
       <c r="D343">
-        <v>164.25</v>
+        <v>153.5</v>
       </c>
       <c r="E343" t="s">
         <v>2181</v>
@@ -12774,7 +12774,7 @@
         <v>2</v>
       </c>
       <c r="D344">
-        <v>163.75</v>
+        <v>153.25</v>
       </c>
       <c r="E344" t="s">
         <v>2181</v>
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>121</v>
+        <v>121.75</v>
       </c>
       <c r="E346" t="s">
         <v>2181</v>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>94</v>
+        <v>93.5</v>
       </c>
       <c r="E347" t="s">
         <v>2181</v>
@@ -12859,7 +12859,7 @@
         <v>2</v>
       </c>
       <c r="D349">
-        <v>197.5</v>
+        <v>187</v>
       </c>
       <c r="E349" t="s">
         <v>2181</v>
@@ -12876,7 +12876,7 @@
         <v>2</v>
       </c>
       <c r="D350">
-        <v>197.5</v>
+        <v>187</v>
       </c>
       <c r="E350" t="s">
         <v>2181</v>
@@ -12893,7 +12893,7 @@
         <v>2</v>
       </c>
       <c r="D351">
-        <v>197.5</v>
+        <v>187</v>
       </c>
       <c r="E351" t="s">
         <v>2181</v>
@@ -13352,7 +13352,7 @@
         <v>2</v>
       </c>
       <c r="D378">
-        <v>105.25</v>
+        <v>95</v>
       </c>
       <c r="E378" t="s">
         <v>2181</v>
@@ -14440,7 +14440,7 @@
         <v>2</v>
       </c>
       <c r="D442">
-        <v>317.5</v>
+        <v>313</v>
       </c>
       <c r="E442" t="s">
         <v>2181</v>
@@ -15137,7 +15137,7 @@
         <v>2</v>
       </c>
       <c r="D483">
-        <v>206.1632178094042</v>
+        <v>204.4725</v>
       </c>
       <c r="E483" t="s">
         <v>2181</v>
@@ -15171,7 +15171,7 @@
         <v>3</v>
       </c>
       <c r="D485">
-        <v>47.01375</v>
+        <v>46.92162821908533</v>
       </c>
       <c r="E485" t="s">
         <v>2182</v>
@@ -15188,7 +15188,7 @@
         <v>1</v>
       </c>
       <c r="D486">
-        <v>564.165</v>
+        <v>563.0595386290239</v>
       </c>
       <c r="E486" t="s">
         <v>2181</v>
@@ -15205,7 +15205,7 @@
         <v>3</v>
       </c>
       <c r="D487">
-        <v>48.5</v>
+        <v>47.25</v>
       </c>
       <c r="E487" t="s">
         <v>2182</v>
@@ -15222,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="D488">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="E488" t="s">
         <v>2181</v>
@@ -15239,7 +15239,7 @@
         <v>3</v>
       </c>
       <c r="D489">
-        <v>47.01375</v>
+        <v>46.92162821908533</v>
       </c>
       <c r="E489" t="s">
         <v>2182</v>
@@ -15256,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>564.165</v>
+        <v>563.059538629024</v>
       </c>
       <c r="E490" t="s">
         <v>2181</v>
@@ -15307,7 +15307,7 @@
         <v>3</v>
       </c>
       <c r="D493">
-        <v>47.25</v>
+        <v>46.75</v>
       </c>
       <c r="E493" t="s">
         <v>2182</v>
@@ -15324,7 +15324,7 @@
         <v>1</v>
       </c>
       <c r="D494">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E494" t="s">
         <v>2181</v>
@@ -15341,7 +15341,7 @@
         <v>3</v>
       </c>
       <c r="D495">
-        <v>47.75</v>
+        <v>46.75</v>
       </c>
       <c r="E495" t="s">
         <v>2182</v>
@@ -15358,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="D496">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E496" t="s">
         <v>2181</v>
@@ -15375,7 +15375,7 @@
         <v>3</v>
       </c>
       <c r="D497">
-        <v>47.75</v>
+        <v>46.75</v>
       </c>
       <c r="E497" t="s">
         <v>2182</v>
@@ -15392,7 +15392,7 @@
         <v>1</v>
       </c>
       <c r="D498">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E498" t="s">
         <v>2181</v>
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="D508">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E508" t="s">
         <v>2181</v>
@@ -15613,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="D511">
-        <v>224.5</v>
+        <v>224.75</v>
       </c>
       <c r="E511" t="s">
         <v>2181</v>
@@ -15630,7 +15630,7 @@
         <v>1</v>
       </c>
       <c r="D512">
-        <v>1217</v>
+        <v>1218.25</v>
       </c>
       <c r="E512" t="s">
         <v>2181</v>
@@ -15647,7 +15647,7 @@
         <v>1</v>
       </c>
       <c r="D513">
-        <v>399</v>
+        <v>398.5</v>
       </c>
       <c r="E513" t="s">
         <v>2181</v>
@@ -15664,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="D514">
-        <v>399.25</v>
+        <v>398.75</v>
       </c>
       <c r="E514" t="s">
         <v>2181</v>
@@ -15681,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="D515">
-        <v>748.1122998528181</v>
+        <v>747.2659205930743</v>
       </c>
       <c r="E515" t="s">
         <v>2181</v>
@@ -15698,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="D516">
-        <v>750.084857550341</v>
+        <v>749.2362466310934</v>
       </c>
       <c r="E516" t="s">
         <v>2181</v>
@@ -15715,7 +15715,7 @@
         <v>3</v>
       </c>
       <c r="D517">
-        <v>75.10834274903547</v>
+        <v>74.4539635525252</v>
       </c>
       <c r="E517" t="s">
         <v>2182</v>
@@ -15732,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="D518">
-        <v>600.8667419922838</v>
+        <v>595.6317084202016</v>
       </c>
       <c r="E518" t="s">
         <v>2181</v>
@@ -15749,7 +15749,7 @@
         <v>3</v>
       </c>
       <c r="D519">
-        <v>75.25</v>
+        <v>74.5</v>
       </c>
       <c r="E519" t="s">
         <v>2182</v>
@@ -15766,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="D520">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E520" t="s">
         <v>2181</v>
@@ -15783,7 +15783,7 @@
         <v>3</v>
       </c>
       <c r="D521">
-        <v>75.05330002057663</v>
+        <v>74.45396355252518</v>
       </c>
       <c r="E521" t="s">
         <v>2182</v>
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="D522">
-        <v>600.426400164613</v>
+        <v>595.6317084202014</v>
       </c>
       <c r="E522" t="s">
         <v>2181</v>
@@ -15817,7 +15817,7 @@
         <v>3</v>
       </c>
       <c r="D523">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="E523" t="s">
         <v>2182</v>
@@ -15834,7 +15834,7 @@
         <v>1</v>
       </c>
       <c r="D524">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E524" t="s">
         <v>2181</v>
@@ -15851,7 +15851,7 @@
         <v>7</v>
       </c>
       <c r="D525">
-        <v>20</v>
+        <v>19.75</v>
       </c>
       <c r="E525" t="s">
         <v>2182</v>
@@ -15868,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="D526">
-        <v>200</v>
+        <v>197.5</v>
       </c>
       <c r="E526" t="s">
         <v>2181</v>
@@ -15919,7 +15919,7 @@
         <v>7</v>
       </c>
       <c r="D529">
-        <v>17.34424050707617</v>
+        <v>17.31557904864203</v>
       </c>
       <c r="E529" t="s">
         <v>2182</v>
@@ -15936,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>173.4424050707617</v>
+        <v>173.1557904864203</v>
       </c>
       <c r="E530" t="s">
         <v>2181</v>
@@ -15953,7 +15953,7 @@
         <v>7</v>
       </c>
       <c r="D531">
-        <v>17.34428691687953</v>
+        <v>17.31567570929341</v>
       </c>
       <c r="E531" t="s">
         <v>2182</v>
@@ -15970,7 +15970,7 @@
         <v>1</v>
       </c>
       <c r="D532">
-        <v>173.4428691687953</v>
+        <v>173.1567570929341</v>
       </c>
       <c r="E532" t="s">
         <v>2181</v>
@@ -16344,7 +16344,7 @@
         <v>2</v>
       </c>
       <c r="D554">
-        <v>97.52206729970685</v>
+        <v>95.77683342891181</v>
       </c>
       <c r="E554" t="s">
         <v>2181</v>
@@ -16531,7 +16531,7 @@
         <v>68</v>
       </c>
       <c r="D565">
-        <v>256.5</v>
+        <v>257</v>
       </c>
       <c r="E565" t="s">
         <v>2182</v>
@@ -16548,7 +16548,7 @@
         <v>1</v>
       </c>
       <c r="D566">
-        <v>3078</v>
+        <v>3084</v>
       </c>
       <c r="E566" t="s">
         <v>2181</v>
@@ -16820,7 +16820,7 @@
         <v>3</v>
       </c>
       <c r="D582">
-        <v>98.505</v>
+        <v>101.0206385845663</v>
       </c>
       <c r="E582" t="s">
         <v>2182</v>
@@ -16837,7 +16837,7 @@
         <v>1</v>
       </c>
       <c r="D583">
-        <v>1576.08</v>
+        <v>1616.33021735306</v>
       </c>
       <c r="E583" t="s">
         <v>2181</v>
@@ -16854,7 +16854,7 @@
         <v>3</v>
       </c>
       <c r="D584">
-        <v>97.49329292791401</v>
+        <v>98.13187499999999</v>
       </c>
       <c r="E584" t="s">
         <v>2182</v>
@@ -16871,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="D585">
-        <v>1559.892686846624</v>
+        <v>1570.11</v>
       </c>
       <c r="E585" t="s">
         <v>2181</v>
@@ -16888,7 +16888,7 @@
         <v>68</v>
       </c>
       <c r="D586">
-        <v>414</v>
+        <v>410.25</v>
       </c>
       <c r="E586" t="s">
         <v>2182</v>
@@ -16905,7 +16905,7 @@
         <v>3</v>
       </c>
       <c r="D587">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="E587" t="s">
         <v>2181</v>
@@ -16922,7 +16922,7 @@
         <v>1</v>
       </c>
       <c r="D588">
-        <v>9936</v>
+        <v>9846</v>
       </c>
       <c r="E588" t="s">
         <v>2181</v>
@@ -17415,7 +17415,7 @@
         <v>12</v>
       </c>
       <c r="D617">
-        <v>806.25</v>
+        <v>805.5</v>
       </c>
       <c r="E617" t="s">
         <v>2181</v>
@@ -17483,7 +17483,7 @@
         <v>1</v>
       </c>
       <c r="D621">
-        <v>381.1095918367347</v>
+        <v>381.0170589161043</v>
       </c>
       <c r="E621" t="s">
         <v>2181</v>
@@ -17500,7 +17500,7 @@
         <v>1</v>
       </c>
       <c r="D622">
-        <v>381.3055710575139</v>
+        <v>381.2129905533798</v>
       </c>
       <c r="E622" t="s">
         <v>2181</v>
@@ -17517,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="D623">
-        <v>534.25</v>
+        <v>534</v>
       </c>
       <c r="E623" t="s">
         <v>2181</v>
@@ -17534,7 +17534,7 @@
         <v>1</v>
       </c>
       <c r="D624">
-        <v>398.5</v>
+        <v>398.25</v>
       </c>
       <c r="E624" t="s">
         <v>2181</v>
@@ -17551,7 +17551,7 @@
         <v>1</v>
       </c>
       <c r="D625">
-        <v>747.25</v>
+        <v>746.75</v>
       </c>
       <c r="E625" t="s">
         <v>2181</v>
@@ -17568,7 +17568,7 @@
         <v>1</v>
       </c>
       <c r="D626">
-        <v>495.25</v>
+        <v>494</v>
       </c>
       <c r="E626" t="s">
         <v>2181</v>
@@ -17585,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="D627">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E627" t="s">
         <v>2181</v>
@@ -18044,7 +18044,7 @@
         <v>29</v>
       </c>
       <c r="D654">
-        <v>241.75</v>
+        <v>246.75</v>
       </c>
       <c r="E654" t="s">
         <v>2181</v>
@@ -18197,7 +18197,7 @@
         <v>3</v>
       </c>
       <c r="D663">
-        <v>28</v>
+        <v>28.25</v>
       </c>
       <c r="E663" t="s">
         <v>2182</v>
@@ -18214,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="D664">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="E664" t="s">
         <v>2181</v>
@@ -18758,7 +18758,7 @@
         <v>3</v>
       </c>
       <c r="D696">
-        <v>205.8173170650162</v>
+        <v>205.817300472663</v>
       </c>
       <c r="E696" t="s">
         <v>2182</v>
@@ -18775,7 +18775,7 @@
         <v>1</v>
       </c>
       <c r="D697">
-        <v>823.2692682600649</v>
+        <v>823.2692018906522</v>
       </c>
       <c r="E697" t="s">
         <v>2181</v>
@@ -19370,7 +19370,7 @@
         <v>2</v>
       </c>
       <c r="D732">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E732" t="s">
         <v>2181</v>
@@ -19387,7 +19387,7 @@
         <v>2</v>
       </c>
       <c r="D733">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E733" t="s">
         <v>2181</v>
@@ -25269,7 +25269,7 @@
         <v>2</v>
       </c>
       <c r="D1079">
-        <v>557.25</v>
+        <v>552.5</v>
       </c>
       <c r="E1079" t="s">
         <v>2181</v>
@@ -25405,7 +25405,7 @@
         <v>1</v>
       </c>
       <c r="D1087">
-        <v>285.7183945219712</v>
+        <v>284.943125</v>
       </c>
       <c r="E1087" t="s">
         <v>2181</v>
@@ -25422,7 +25422,7 @@
         <v>1</v>
       </c>
       <c r="D1088">
-        <v>283.6808470650115</v>
+        <v>283.5016737581491</v>
       </c>
       <c r="E1088" t="s">
         <v>2181</v>
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="D1090">
-        <v>471.75</v>
+        <v>461.25</v>
       </c>
       <c r="E1090" t="s">
         <v>2181</v>
@@ -25558,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="D1096">
-        <v>253.75</v>
+        <v>247</v>
       </c>
       <c r="E1096" t="s">
         <v>2181</v>
@@ -25915,7 +25915,7 @@
         <v>1</v>
       </c>
       <c r="D1117">
-        <v>127.3665687486842</v>
+        <v>127.3725138776811</v>
       </c>
       <c r="E1117" t="s">
         <v>2181</v>
@@ -26034,7 +26034,7 @@
         <v>1</v>
       </c>
       <c r="D1124">
-        <v>345.0434141970712</v>
+        <v>345.0700858702945</v>
       </c>
       <c r="E1124" t="s">
         <v>2181</v>
@@ -26850,7 +26850,7 @@
         <v>2</v>
       </c>
       <c r="D1172">
-        <v>101.9247504854812</v>
+        <v>101.958563291153</v>
       </c>
       <c r="E1172" t="s">
         <v>2181</v>
@@ -26867,7 +26867,7 @@
         <v>2</v>
       </c>
       <c r="D1173">
-        <v>102.2249001026479</v>
+        <v>102.2293938746736</v>
       </c>
       <c r="E1173" t="s">
         <v>2181</v>
@@ -27785,7 +27785,7 @@
         <v>12</v>
       </c>
       <c r="D1227">
-        <v>859.75</v>
+        <v>858.75</v>
       </c>
       <c r="E1227" t="s">
         <v>2181</v>
@@ -28737,7 +28737,7 @@
         <v>3</v>
       </c>
       <c r="D1283">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="E1283" t="s">
         <v>2182</v>
@@ -28754,7 +28754,7 @@
         <v>1</v>
       </c>
       <c r="D1284">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E1284" t="s">
         <v>2181</v>
@@ -28771,7 +28771,7 @@
         <v>3</v>
       </c>
       <c r="D1285">
-        <v>97.29457771474445</v>
+        <v>94.37574038330212</v>
       </c>
       <c r="E1285" t="s">
         <v>2182</v>
@@ -28788,7 +28788,7 @@
         <v>1</v>
       </c>
       <c r="D1286">
-        <v>1167.534932576933</v>
+        <v>1132.508884599625</v>
       </c>
       <c r="E1286" t="s">
         <v>2181</v>
@@ -28805,7 +28805,7 @@
         <v>3</v>
       </c>
       <c r="D1287">
-        <v>95.75</v>
+        <v>94.5</v>
       </c>
       <c r="E1287" t="s">
         <v>2182</v>
@@ -28822,7 +28822,7 @@
         <v>1</v>
       </c>
       <c r="D1288">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="E1288" t="s">
         <v>2181</v>
@@ -28839,7 +28839,7 @@
         <v>3</v>
       </c>
       <c r="D1289">
-        <v>96.20617776993808</v>
+        <v>94.37574038330212</v>
       </c>
       <c r="E1289" t="s">
         <v>2182</v>
@@ -28856,7 +28856,7 @@
         <v>1</v>
       </c>
       <c r="D1290">
-        <v>1154.474133239257</v>
+        <v>1132.508884599625</v>
       </c>
       <c r="E1290" t="s">
         <v>2181</v>
@@ -28873,7 +28873,7 @@
         <v>3</v>
       </c>
       <c r="D1291">
-        <v>97.29457771474446</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1291" t="s">
         <v>2182</v>
@@ -28890,7 +28890,7 @@
         <v>1</v>
       </c>
       <c r="D1292">
-        <v>1167.534932576933</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1292" t="s">
         <v>2181</v>
@@ -28907,7 +28907,7 @@
         <v>3</v>
       </c>
       <c r="D1293">
-        <v>96.19784219440822</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1293" t="s">
         <v>2182</v>
@@ -28924,7 +28924,7 @@
         <v>1</v>
       </c>
       <c r="D1294">
-        <v>1154.374106332899</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1294" t="s">
         <v>2181</v>
@@ -28941,7 +28941,7 @@
         <v>3</v>
       </c>
       <c r="D1295">
-        <v>97.29457771474445</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1295" t="s">
         <v>2182</v>
@@ -28958,7 +28958,7 @@
         <v>1</v>
       </c>
       <c r="D1296">
-        <v>1167.534932576933</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1296" t="s">
         <v>2181</v>
@@ -28975,7 +28975,7 @@
         <v>3</v>
       </c>
       <c r="D1297">
-        <v>97.29457771474446</v>
+        <v>94.37574038330213</v>
       </c>
       <c r="E1297" t="s">
         <v>2182</v>
@@ -28992,7 +28992,7 @@
         <v>1</v>
       </c>
       <c r="D1298">
-        <v>1167.534932576933</v>
+        <v>1132.508884599626</v>
       </c>
       <c r="E1298" t="s">
         <v>2181</v>
@@ -29009,7 +29009,7 @@
         <v>3</v>
       </c>
       <c r="D1299">
-        <v>62.5</v>
+        <v>63.25</v>
       </c>
       <c r="E1299" t="s">
         <v>2182</v>
@@ -29026,7 +29026,7 @@
         <v>1</v>
       </c>
       <c r="D1300">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E1300" t="s">
         <v>2181</v>
@@ -30658,7 +30658,7 @@
         <v>3</v>
       </c>
       <c r="D1396">
-        <v>182.25</v>
+        <v>182</v>
       </c>
       <c r="E1396" t="s">
         <v>2182</v>
@@ -30675,7 +30675,7 @@
         <v>1</v>
       </c>
       <c r="D1397">
-        <v>1093.5</v>
+        <v>1092</v>
       </c>
       <c r="E1397" t="s">
         <v>2181</v>
@@ -32647,7 +32647,7 @@
         <v>3</v>
       </c>
       <c r="D1513">
-        <v>23.78558470202488</v>
+        <v>23.78206504487058</v>
       </c>
       <c r="E1513" t="s">
         <v>2182</v>
@@ -32664,7 +32664,7 @@
         <v>1</v>
       </c>
       <c r="D1514">
-        <v>285.4270164242986</v>
+        <v>285.3847805384469</v>
       </c>
       <c r="E1514" t="s">
         <v>2181</v>
@@ -33735,7 +33735,7 @@
         <v>29</v>
       </c>
       <c r="D1577">
-        <v>461.25</v>
+        <v>460.25</v>
       </c>
       <c r="E1577" t="s">
         <v>2181</v>
@@ -34551,7 +34551,7 @@
         <v>29</v>
       </c>
       <c r="D1625">
-        <v>395.75</v>
+        <v>395.5</v>
       </c>
       <c r="E1625" t="s">
         <v>2181</v>
@@ -34823,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="D1641">
-        <v>88.98091206675606</v>
+        <v>88.6660791833167</v>
       </c>
       <c r="E1641" t="s">
         <v>2181</v>
@@ -34976,7 +34976,7 @@
         <v>1</v>
       </c>
       <c r="D1650">
-        <v>89.27537263179673</v>
+        <v>88.38909828807083</v>
       </c>
       <c r="E1650" t="s">
         <v>2181</v>
@@ -36115,7 +36115,7 @@
         <v>2</v>
       </c>
       <c r="D1717">
-        <v>287.75</v>
+        <v>286.5</v>
       </c>
       <c r="E1717" t="s">
         <v>2181</v>
@@ -36846,7 +36846,7 @@
         <v>3</v>
       </c>
       <c r="D1760">
-        <v>108.1804075001257</v>
+        <v>107.9051392876572</v>
       </c>
       <c r="E1760" t="s">
         <v>2182</v>
@@ -36863,7 +36863,7 @@
         <v>1</v>
       </c>
       <c r="D1761">
-        <v>865.4432600010056</v>
+        <v>863.2411143012574</v>
       </c>
       <c r="E1761" t="s">
         <v>2181</v>
@@ -36880,7 +36880,7 @@
         <v>3</v>
       </c>
       <c r="D1762">
-        <v>108.081875</v>
+        <v>107.8251623027553</v>
       </c>
       <c r="E1762" t="s">
         <v>2182</v>
@@ -36897,7 +36897,7 @@
         <v>1</v>
       </c>
       <c r="D1763">
-        <v>864.655</v>
+        <v>862.6012984220422</v>
       </c>
       <c r="E1763" t="s">
         <v>2181</v>
@@ -36914,7 +36914,7 @@
         <v>3</v>
       </c>
       <c r="D1764">
-        <v>108.1468380334011</v>
+        <v>107.871655239423</v>
       </c>
       <c r="E1764" t="s">
         <v>2182</v>
@@ -36931,7 +36931,7 @@
         <v>1</v>
       </c>
       <c r="D1765">
-        <v>865.1747042672088</v>
+        <v>862.9732419153838</v>
       </c>
       <c r="E1765" t="s">
         <v>2181</v>
@@ -36948,7 +36948,7 @@
         <v>3</v>
       </c>
       <c r="D1766">
-        <v>108.1740736509246</v>
+        <v>107.8988215551207</v>
       </c>
       <c r="E1766" t="s">
         <v>2182</v>
@@ -36965,7 +36965,7 @@
         <v>1</v>
       </c>
       <c r="D1767">
-        <v>865.3925892073966</v>
+        <v>863.1905724409655</v>
       </c>
       <c r="E1767" t="s">
         <v>2181</v>
@@ -38223,7 +38223,7 @@
         <v>1</v>
       </c>
       <c r="D1841">
-        <v>151.2439053009558</v>
+        <v>151.2439053009529</v>
       </c>
       <c r="E1841" t="s">
         <v>2181</v>
@@ -38240,7 +38240,7 @@
         <v>1</v>
       </c>
       <c r="D1842">
-        <v>151.2439053009973</v>
+        <v>151.2439053009843</v>
       </c>
       <c r="E1842" t="s">
         <v>2181</v>
@@ -38257,7 +38257,7 @@
         <v>1</v>
       </c>
       <c r="D1843">
-        <v>151.243905300955</v>
+        <v>151.2439053009528</v>
       </c>
       <c r="E1843" t="s">
         <v>2181</v>
@@ -38274,7 +38274,7 @@
         <v>1</v>
       </c>
       <c r="D1844">
-        <v>151.2439053008826</v>
+        <v>151.2439053008976</v>
       </c>
       <c r="E1844" t="s">
         <v>2181</v>
@@ -38308,7 +38308,7 @@
         <v>1</v>
       </c>
       <c r="D1846">
-        <v>232.3653075436248</v>
+        <v>232.3585058323926</v>
       </c>
       <c r="E1846" t="s">
         <v>2181</v>
@@ -38325,7 +38325,7 @@
         <v>1</v>
       </c>
       <c r="D1847">
-        <v>232.3162354554854</v>
+        <v>232.3157756413541</v>
       </c>
       <c r="E1847" t="s">
         <v>2181</v>
@@ -38342,7 +38342,7 @@
         <v>1</v>
       </c>
       <c r="D1848">
-        <v>232.3138225782607</v>
+        <v>232.3127252376937</v>
       </c>
       <c r="E1848" t="s">
         <v>2181</v>
@@ -38359,7 +38359,7 @@
         <v>1</v>
       </c>
       <c r="D1849">
-        <v>232.3292629484893</v>
+        <v>232.3259064569641</v>
       </c>
       <c r="E1849" t="s">
         <v>2181</v>
@@ -39464,7 +39464,7 @@
         <v>1</v>
       </c>
       <c r="D1914">
-        <v>130.2766282631389</v>
+        <v>130.275939000425</v>
       </c>
       <c r="E1914" t="s">
         <v>2181</v>
@@ -39651,7 +39651,7 @@
         <v>1</v>
       </c>
       <c r="D1925">
-        <v>126.1085299350211</v>
+        <v>126.1399658406251</v>
       </c>
       <c r="E1925" t="s">
         <v>2181</v>
@@ -39668,7 +39668,7 @@
         <v>1</v>
       </c>
       <c r="D1926">
-        <v>126.1217506428415</v>
+        <v>126.1461654831481</v>
       </c>
       <c r="E1926" t="s">
         <v>2181</v>
@@ -39685,7 +39685,7 @@
         <v>1</v>
       </c>
       <c r="D1927">
-        <v>126.1424686655525</v>
+        <v>126.1594708383187</v>
       </c>
       <c r="E1927" t="s">
         <v>2181</v>
@@ -39702,7 +39702,7 @@
         <v>1</v>
       </c>
       <c r="D1928">
-        <v>126.1852180654091</v>
+        <v>126.1968570151967</v>
       </c>
       <c r="E1928" t="s">
         <v>2181</v>
@@ -39719,7 +39719,7 @@
         <v>1</v>
       </c>
       <c r="D1929">
-        <v>126.1683351880003</v>
+        <v>126.18834059855</v>
       </c>
       <c r="E1929" t="s">
         <v>2181</v>
@@ -40008,7 +40008,7 @@
         <v>1</v>
       </c>
       <c r="D1946">
-        <v>279.719375</v>
+        <v>278.475625</v>
       </c>
       <c r="E1946" t="s">
         <v>2181</v>
@@ -40059,7 +40059,7 @@
         <v>1</v>
       </c>
       <c r="D1949">
-        <v>281.33625</v>
+        <v>280.0925</v>
       </c>
       <c r="E1949" t="s">
         <v>2181</v>
@@ -40263,7 +40263,7 @@
         <v>3</v>
       </c>
       <c r="D1961">
-        <v>145.51875</v>
+        <v>147.3178222646673</v>
       </c>
       <c r="E1961" t="s">
         <v>2182</v>
@@ -40280,7 +40280,7 @@
         <v>1</v>
       </c>
       <c r="D1962">
-        <v>1746.225</v>
+        <v>1767.813867176008</v>
       </c>
       <c r="E1962" t="s">
         <v>2181</v>
@@ -40467,7 +40467,7 @@
         <v>7</v>
       </c>
       <c r="D1973">
-        <v>138</v>
+        <v>136.25</v>
       </c>
       <c r="E1973" t="s">
         <v>2182</v>
@@ -40484,7 +40484,7 @@
         <v>1</v>
       </c>
       <c r="D1974">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="E1974" t="s">
         <v>2181</v>
@@ -40501,7 +40501,7 @@
         <v>3</v>
       </c>
       <c r="D1975">
-        <v>84.75</v>
+        <v>84.5</v>
       </c>
       <c r="E1975" t="s">
         <v>2182</v>
@@ -40518,7 +40518,7 @@
         <v>1</v>
       </c>
       <c r="D1976">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="E1976" t="s">
         <v>2181</v>
@@ -41045,7 +41045,7 @@
         <v>1</v>
       </c>
       <c r="D2007">
-        <v>218.25</v>
+        <v>217.75</v>
       </c>
       <c r="E2007" t="s">
         <v>2181</v>
@@ -41062,7 +41062,7 @@
         <v>1</v>
       </c>
       <c r="D2008">
-        <v>507.75</v>
+        <v>506.5</v>
       </c>
       <c r="E2008" t="s">
         <v>2181</v>
@@ -41079,7 +41079,7 @@
         <v>1</v>
       </c>
       <c r="D2009">
-        <v>129</v>
+        <v>128.75</v>
       </c>
       <c r="E2009" t="s">
         <v>2181</v>
@@ -41096,7 +41096,7 @@
         <v>1</v>
       </c>
       <c r="D2010">
-        <v>133.75</v>
+        <v>133.25</v>
       </c>
       <c r="E2010" t="s">
         <v>2181</v>
@@ -41181,7 +41181,7 @@
         <v>1</v>
       </c>
       <c r="D2015">
-        <v>469.75</v>
+        <v>469</v>
       </c>
       <c r="E2015" t="s">
         <v>2181</v>
@@ -41198,7 +41198,7 @@
         <v>1</v>
       </c>
       <c r="D2016">
-        <v>469.75</v>
+        <v>469</v>
       </c>
       <c r="E2016" t="s">
         <v>2181</v>
@@ -43918,7 +43918,7 @@
         <v>1</v>
       </c>
       <c r="D2176">
-        <v>207.25</v>
+        <v>206.75</v>
       </c>
       <c r="E2176" t="s">
         <v>2181</v>
@@ -44071,7 +44071,7 @@
         <v>25</v>
       </c>
       <c r="D2185">
-        <v>257.25</v>
+        <v>257</v>
       </c>
       <c r="E2185" t="s">
         <v>2182</v>
@@ -44088,7 +44088,7 @@
         <v>29</v>
       </c>
       <c r="D2186">
-        <v>771.75</v>
+        <v>771</v>
       </c>
       <c r="E2186" t="s">
         <v>2181</v>
@@ -45448,7 +45448,7 @@
         <v>1</v>
       </c>
       <c r="D2266">
-        <v>499.5</v>
+        <v>494.5</v>
       </c>
       <c r="E2266" t="s">
         <v>2181</v>
@@ -45737,7 +45737,7 @@
         <v>3</v>
       </c>
       <c r="D2283">
-        <v>111.75</v>
+        <v>109.5</v>
       </c>
       <c r="E2283" t="s">
         <v>2182</v>
@@ -45754,7 +45754,7 @@
         <v>1</v>
       </c>
       <c r="D2284">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="E2284" t="s">
         <v>2181</v>
@@ -45839,7 +45839,7 @@
         <v>3</v>
       </c>
       <c r="D2289">
-        <v>47.14809134918099</v>
+        <v>47.14809738104049</v>
       </c>
       <c r="E2289" t="s">
         <v>2182</v>
@@ -45856,7 +45856,7 @@
         <v>1</v>
       </c>
       <c r="D2290">
-        <v>282.888548095086</v>
+        <v>282.8885842862429</v>
       </c>
       <c r="E2290" t="s">
         <v>2181</v>
@@ -45907,7 +45907,7 @@
         <v>2</v>
       </c>
       <c r="D2293">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E2293" t="s">
         <v>2181</v>
@@ -46026,7 +46026,7 @@
         <v>1</v>
       </c>
       <c r="D2300">
-        <v>253.25</v>
+        <v>247.75</v>
       </c>
       <c r="E2300" t="s">
         <v>2181</v>
@@ -46043,7 +46043,7 @@
         <v>1</v>
       </c>
       <c r="D2301">
-        <v>271</v>
+        <v>268.25</v>
       </c>
       <c r="E2301" t="s">
         <v>2181</v>
@@ -46077,7 +46077,7 @@
         <v>1</v>
       </c>
       <c r="D2303">
-        <v>45.75</v>
+        <v>45.25</v>
       </c>
       <c r="E2303" t="s">
         <v>2181</v>
@@ -46162,7 +46162,7 @@
         <v>1</v>
       </c>
       <c r="D2308">
-        <v>45.75</v>
+        <v>45.25</v>
       </c>
       <c r="E2308" t="s">
         <v>2181</v>
@@ -47114,7 +47114,7 @@
         <v>7</v>
       </c>
       <c r="D2364">
-        <v>81.15656670113755</v>
+        <v>96.658</v>
       </c>
       <c r="E2364" t="s">
         <v>2182</v>
@@ -47131,7 +47131,7 @@
         <v>1</v>
       </c>
       <c r="D2365">
-        <v>1623.131334022751</v>
+        <v>1933.16</v>
       </c>
       <c r="E2365" t="s">
         <v>2181</v>
@@ -48474,7 +48474,7 @@
         <v>7</v>
       </c>
       <c r="D2444">
-        <v>39.16121749352631</v>
+        <v>39.16122229984545</v>
       </c>
       <c r="E2444" t="s">
         <v>2182</v>
@@ -48491,7 +48491,7 @@
         <v>1</v>
       </c>
       <c r="D2445">
-        <v>469.9346099223157</v>
+        <v>469.9346675981454</v>
       </c>
       <c r="E2445" t="s">
         <v>2181</v>
@@ -48712,7 +48712,7 @@
         <v>3</v>
       </c>
       <c r="D2458">
-        <v>108.786534742655</v>
+        <v>108.7870553228315</v>
       </c>
       <c r="E2458" t="s">
         <v>2182</v>
@@ -48729,7 +48729,7 @@
         <v>1</v>
       </c>
       <c r="D2459">
-        <v>652.7192084559297</v>
+        <v>652.7223319369891</v>
       </c>
       <c r="E2459" t="s">
         <v>2181</v>
@@ -49018,7 +49018,7 @@
         <v>3</v>
       </c>
       <c r="D2476">
-        <v>24.00908977283051</v>
+        <v>23.89918948353137</v>
       </c>
       <c r="E2476" t="s">
         <v>2182</v>
@@ -49035,7 +49035,7 @@
         <v>1</v>
       </c>
       <c r="D2477">
-        <v>288.1090772739661</v>
+        <v>286.7902738023764</v>
       </c>
       <c r="E2477" t="s">
         <v>2181</v>
@@ -49086,7 +49086,7 @@
         <v>3</v>
       </c>
       <c r="D2480">
-        <v>24.01175083280274</v>
+        <v>23.96422967377303</v>
       </c>
       <c r="E2480" t="s">
         <v>2182</v>
@@ -49103,7 +49103,7 @@
         <v>1</v>
       </c>
       <c r="D2481">
-        <v>288.1410099936328</v>
+        <v>287.5707560852763</v>
       </c>
       <c r="E2481" t="s">
         <v>2181</v>
@@ -49188,7 +49188,7 @@
         <v>3</v>
       </c>
       <c r="D2486">
-        <v>23.99633820547252</v>
+        <v>23.78683852165562</v>
       </c>
       <c r="E2486" t="s">
         <v>2182</v>
@@ -49205,7 +49205,7 @@
         <v>1</v>
       </c>
       <c r="D2487">
-        <v>287.9560584656703</v>
+        <v>285.4420622598675</v>
       </c>
       <c r="E2487" t="s">
         <v>2181</v>
@@ -49222,7 +49222,7 @@
         <v>3</v>
       </c>
       <c r="D2488">
-        <v>159.9311917233294</v>
+        <v>159.9366194732971</v>
       </c>
       <c r="E2488" t="s">
         <v>2182</v>
@@ -49239,7 +49239,7 @@
         <v>1</v>
       </c>
       <c r="D2489">
-        <v>1919.174300679952</v>
+        <v>1919.239433679566</v>
       </c>
       <c r="E2489" t="s">
         <v>2181</v>
@@ -49324,7 +49324,7 @@
         <v>3</v>
       </c>
       <c r="D2494">
-        <v>93.93895922872798</v>
+        <v>93.95942567987397</v>
       </c>
       <c r="E2494" t="s">
         <v>2182</v>
@@ -49341,7 +49341,7 @@
         <v>1</v>
       </c>
       <c r="D2495">
-        <v>1127.267510744736</v>
+        <v>1127.513108158488</v>
       </c>
       <c r="E2495" t="s">
         <v>2181</v>
@@ -49358,7 +49358,7 @@
         <v>3</v>
       </c>
       <c r="D2496">
-        <v>94.02253966019524</v>
+        <v>94.02672404390594</v>
       </c>
       <c r="E2496" t="s">
         <v>2182</v>
@@ -49375,7 +49375,7 @@
         <v>1</v>
       </c>
       <c r="D2497">
-        <v>1128.270475922343</v>
+        <v>1128.320688526871</v>
       </c>
       <c r="E2497" t="s">
         <v>2181</v>
@@ -49885,7 +49885,7 @@
         <v>2</v>
       </c>
       <c r="D2527">
-        <v>276.25</v>
+        <v>275.25</v>
       </c>
       <c r="E2527" t="s">
         <v>2181</v>
@@ -50222,7 +50222,7 @@
         <v>1719</v>
       </c>
       <c r="C2547">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2547">
         <v>325.5</v>
@@ -50239,7 +50239,7 @@
         <v>1719</v>
       </c>
       <c r="C2548">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2548">
         <v>325.5</v>
@@ -50259,7 +50259,7 @@
         <v>1</v>
       </c>
       <c r="D2549">
-        <v>372</v>
+        <v>371.75</v>
       </c>
       <c r="E2549" t="s">
         <v>2181</v>
@@ -50446,7 +50446,7 @@
         <v>7</v>
       </c>
       <c r="D2560">
-        <v>11.54501955351181</v>
+        <v>11.5456643034001</v>
       </c>
       <c r="E2560" t="s">
         <v>2182</v>
@@ -50463,7 +50463,7 @@
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>346.3505866053542</v>
+        <v>346.3699291020031</v>
       </c>
       <c r="E2561" t="s">
         <v>2181</v>
@@ -50480,7 +50480,7 @@
         <v>7</v>
       </c>
       <c r="D2562">
-        <v>11.5728998958233</v>
+        <v>11.57290530565689</v>
       </c>
       <c r="E2562" t="s">
         <v>2182</v>
@@ -50497,7 +50497,7 @@
         <v>1</v>
       </c>
       <c r="D2563">
-        <v>347.1869968746989</v>
+        <v>347.1871591697067</v>
       </c>
       <c r="E2563" t="s">
         <v>2181</v>
@@ -50956,7 +50956,7 @@
         <v>1</v>
       </c>
       <c r="D2590">
-        <v>235.9371685342079</v>
+        <v>235.9235899624003</v>
       </c>
       <c r="E2590" t="s">
         <v>2181</v>
@@ -51228,7 +51228,7 @@
         <v>1</v>
       </c>
       <c r="D2606">
-        <v>907.5</v>
+        <v>902</v>
       </c>
       <c r="E2606" t="s">
         <v>2181</v>
@@ -51738,7 +51738,7 @@
         <v>1</v>
       </c>
       <c r="D2636">
-        <v>642.5</v>
+        <v>642.25</v>
       </c>
       <c r="E2636" t="s">
         <v>2181</v>
@@ -52095,7 +52095,7 @@
         <v>2</v>
       </c>
       <c r="D2657">
-        <v>188</v>
+        <v>187.75</v>
       </c>
       <c r="E2657" t="s">
         <v>2182</v>
@@ -52112,7 +52112,7 @@
         <v>1</v>
       </c>
       <c r="D2658">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="E2658" t="s">
         <v>2181</v>
@@ -52826,7 +52826,7 @@
         <v>7</v>
       </c>
       <c r="D2700">
-        <v>40.25</v>
+        <v>40</v>
       </c>
       <c r="E2700" t="s">
         <v>2182</v>
@@ -52843,7 +52843,7 @@
         <v>1</v>
       </c>
       <c r="D2701">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E2701" t="s">
         <v>2181</v>
@@ -55631,7 +55631,7 @@
         <v>25</v>
       </c>
       <c r="D2865">
-        <v>323.25</v>
+        <v>321.25</v>
       </c>
       <c r="E2865" t="s">
         <v>2182</v>
@@ -55648,7 +55648,7 @@
         <v>29</v>
       </c>
       <c r="D2866">
-        <v>969.75</v>
+        <v>963.75</v>
       </c>
       <c r="E2866" t="s">
         <v>2181</v>
@@ -57161,7 +57161,7 @@
         <v>1</v>
       </c>
       <c r="D2955">
-        <v>159.1134686557643</v>
+        <v>158.4815602991679</v>
       </c>
       <c r="E2955" t="s">
         <v>2181</v>
@@ -57212,7 +57212,7 @@
         <v>1</v>
       </c>
       <c r="D2958">
-        <v>160.1340254208631</v>
+        <v>159.2817806493058</v>
       </c>
       <c r="E2958" t="s">
         <v>2181</v>
@@ -57229,7 +57229,7 @@
         <v>1</v>
       </c>
       <c r="D2959">
-        <v>160.2583732223613</v>
+        <v>159.407463294342</v>
       </c>
       <c r="E2959" t="s">
         <v>2181</v>
@@ -57263,7 +57263,7 @@
         <v>1</v>
       </c>
       <c r="D2961">
-        <v>160.3522455363067</v>
+        <v>159.1813470333964</v>
       </c>
       <c r="E2961" t="s">
         <v>2181</v>
@@ -57297,7 +57297,7 @@
         <v>1</v>
       </c>
       <c r="D2963">
-        <v>160.4891491812871</v>
+        <v>159.4271518056061</v>
       </c>
       <c r="E2963" t="s">
         <v>2181</v>
@@ -57773,7 +57773,7 @@
         <v>2</v>
       </c>
       <c r="D2991">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E2991" t="s">
         <v>2181</v>
@@ -57790,7 +57790,7 @@
         <v>2</v>
       </c>
       <c r="D2992">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E2992" t="s">
         <v>2181</v>
@@ -57807,7 +57807,7 @@
         <v>2</v>
       </c>
       <c r="D2993">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E2993" t="s">
         <v>2181</v>
@@ -57824,7 +57824,7 @@
         <v>2</v>
       </c>
       <c r="D2994">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E2994" t="s">
         <v>2181</v>
@@ -57841,7 +57841,7 @@
         <v>2</v>
       </c>
       <c r="D2995">
-        <v>155</v>
+        <v>154.936771869195</v>
       </c>
       <c r="E2995" t="s">
         <v>2181</v>
@@ -57858,7 +57858,7 @@
         <v>2</v>
       </c>
       <c r="D2996">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E2996" t="s">
         <v>2181</v>
@@ -57875,7 +57875,7 @@
         <v>2</v>
       </c>
       <c r="D2997">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E2997" t="s">
         <v>2181</v>
@@ -57892,7 +57892,7 @@
         <v>2</v>
       </c>
       <c r="D2998">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E2998" t="s">
         <v>2181</v>
@@ -57909,7 +57909,7 @@
         <v>2</v>
       </c>
       <c r="D2999">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E2999" t="s">
         <v>2181</v>
@@ -57926,7 +57926,7 @@
         <v>2</v>
       </c>
       <c r="D3000">
-        <v>220</v>
+        <v>219.9102568465994</v>
       </c>
       <c r="E3000" t="s">
         <v>2181</v>
@@ -58079,7 +58079,7 @@
         <v>3</v>
       </c>
       <c r="D3009">
-        <v>56.94718803972366</v>
+        <v>56.715</v>
       </c>
       <c r="E3009" t="s">
         <v>2182</v>
@@ -58096,7 +58096,7 @@
         <v>1</v>
       </c>
       <c r="D3010">
-        <v>683.3662564766839</v>
+        <v>680.5799999999999</v>
       </c>
       <c r="E3010" t="s">
         <v>2181</v>
@@ -59031,7 +59031,7 @@
         <v>68</v>
       </c>
       <c r="D3065">
-        <v>566</v>
+        <v>567.5</v>
       </c>
       <c r="E3065" t="s">
         <v>2182</v>
@@ -59048,7 +59048,7 @@
         <v>1</v>
       </c>
       <c r="D3066">
-        <v>6792</v>
+        <v>6810</v>
       </c>
       <c r="E3066" t="s">
         <v>2181</v>
@@ -59065,7 +59065,7 @@
         <v>2</v>
       </c>
       <c r="D3067">
-        <v>271.9135784933816</v>
+        <v>271.8653130774769</v>
       </c>
       <c r="E3067" t="s">
         <v>2181</v>
@@ -59099,7 +59099,7 @@
         <v>2</v>
       </c>
       <c r="D3069">
-        <v>274.2358224068252</v>
+        <v>274.1641790983294</v>
       </c>
       <c r="E3069" t="s">
         <v>2181</v>
@@ -60170,7 +60170,7 @@
         <v>2</v>
       </c>
       <c r="D3132">
-        <v>271.9954879181371</v>
+        <v>271.979701131689</v>
       </c>
       <c r="E3132" t="s">
         <v>2181</v>
@@ -60408,7 +60408,7 @@
         <v>3</v>
       </c>
       <c r="D3146">
-        <v>46</v>
+        <v>45.75</v>
       </c>
       <c r="E3146" t="s">
         <v>2182</v>
@@ -60425,7 +60425,7 @@
         <v>1</v>
       </c>
       <c r="D3147">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E3147" t="s">
         <v>2181</v>
@@ -60612,7 +60612,7 @@
         <v>3</v>
       </c>
       <c r="D3158">
-        <v>114.8255241755796</v>
+        <v>114.7892128847214</v>
       </c>
       <c r="E3158" t="s">
         <v>2182</v>
@@ -60629,7 +60629,7 @@
         <v>1</v>
       </c>
       <c r="D3159">
-        <v>1148.255241755796</v>
+        <v>1147.892128847214</v>
       </c>
       <c r="E3159" t="s">
         <v>2181</v>
@@ -60646,7 +60646,7 @@
         <v>3</v>
       </c>
       <c r="D3160">
-        <v>114.7534520055204</v>
+        <v>114.727415187672</v>
       </c>
       <c r="E3160" t="s">
         <v>2182</v>
@@ -60663,7 +60663,7 @@
         <v>1</v>
       </c>
       <c r="D3161">
-        <v>1147.534520055204</v>
+        <v>1147.27415187672</v>
       </c>
       <c r="E3161" t="s">
         <v>2181</v>
@@ -60986,7 +60986,7 @@
         <v>3</v>
       </c>
       <c r="D3180">
-        <v>23.90570827347018</v>
+        <v>23.90547780147251</v>
       </c>
       <c r="E3180" t="s">
         <v>2182</v>
@@ -61003,7 +61003,7 @@
         <v>1</v>
       </c>
       <c r="D3181">
-        <v>286.8684992816421</v>
+        <v>286.8657336176701</v>
       </c>
       <c r="E3181" t="s">
         <v>2181</v>
@@ -61768,7 +61768,7 @@
         <v>1</v>
       </c>
       <c r="D3226">
-        <v>936</v>
+        <v>934.75</v>
       </c>
       <c r="E3226" t="s">
         <v>2181</v>
@@ -61921,7 +61921,7 @@
         <v>3</v>
       </c>
       <c r="D3235">
-        <v>46.12646563357879</v>
+        <v>46.1264656335788</v>
       </c>
       <c r="E3235" t="s">
         <v>2182</v>
@@ -61938,7 +61938,7 @@
         <v>1</v>
       </c>
       <c r="D3236">
-        <v>830.2763814044182</v>
+        <v>830.2763814044183</v>
       </c>
       <c r="E3236" t="s">
         <v>2181</v>
@@ -62023,7 +62023,7 @@
         <v>2</v>
       </c>
       <c r="D3241">
-        <v>447.5</v>
+        <v>445</v>
       </c>
       <c r="E3241" t="s">
         <v>2181</v>
@@ -62040,7 +62040,7 @@
         <v>2</v>
       </c>
       <c r="D3242">
-        <v>389.25</v>
+        <v>387.5</v>
       </c>
       <c r="E3242" t="s">
         <v>2181</v>
@@ -62176,7 +62176,7 @@
         <v>3</v>
       </c>
       <c r="D3250">
-        <v>78.75</v>
+        <v>79.25</v>
       </c>
       <c r="E3250" t="s">
         <v>2182</v>
@@ -62193,7 +62193,7 @@
         <v>1</v>
       </c>
       <c r="D3251">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E3251" t="s">
         <v>2181</v>
